--- a/assets/valq-advanced-tutorial-custom-time-period-data.xlsx
+++ b/assets/valq-advanced-tutorial-custom-time-period-data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\OneDrive - Visual Bi Solutions Inc\ValQ - Value Driver Modeling\ValQ Demos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/SSD/gitHub-repo/valqsaurus/static/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="159" documentId="8_{E9D70CE8-305E-46E4-8D69-69967EC1B1CC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{3A194182-F0FE-4953-AABB-B56EB8588793}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2676E013-282B-1B4D-A07C-DBCAA7752D8E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="9985" xr2:uid="{E4E3B9D3-93C3-469C-9578-DB1EC72ECB04}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="19380" windowHeight="9980" xr2:uid="{E4E3B9D3-93C3-469C-9578-DB1EC72ECB04}"/>
   </bookViews>
   <sheets>
     <sheet name="Handling Custom Time Periods" sheetId="7" r:id="rId1"/>
@@ -26,7 +26,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="1" r:id="rId6"/>
+    <pivotCache cacheId="0" r:id="rId6"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -277,9 +277,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="[$-409]mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="[$-409]mmm\-yy;@"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -361,23 +361,23 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -451,7 +451,7 @@
         <s v="Brandon Harris"/>
       </sharedItems>
     </cacheField>
-    <cacheField name="Time Period" numFmtId="165">
+    <cacheField name="Time Period" numFmtId="166">
       <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2019-01-01T00:00:00" maxDate="2019-12-02T00:00:00" count="12">
         <d v="2019-01-01T00:00:00"/>
         <d v="2019-02-01T00:00:00"/>
@@ -840,7 +840,7 @@
         </groupItems>
       </fieldGroup>
     </cacheField>
-    <cacheField name="Sales Budget" numFmtId="164">
+    <cacheField name="Sales Budget" numFmtId="165">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="20002.809504802193" maxValue="3037423.5204064376" count="324">
         <n v="2808227.9042797582"/>
         <n v="1020429.4181426727"/>
@@ -1168,7 +1168,7 @@
         <n v="184545.87364927024"/>
       </sharedItems>
     </cacheField>
-    <cacheField name="Sales Forecast" numFmtId="164">
+    <cacheField name="Sales Forecast" numFmtId="165">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="1541.4249196247274" maxValue="3455185.2199379061" count="324">
         <n v="1641087.9683632851"/>
         <n v="3435055.8497275678"/>
@@ -4124,7 +4124,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A84CE649-3568-412E-941D-62E4D720BB81}" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" showDrill="0" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" createdVersion="6" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A84CE649-3568-412E-941D-62E4D720BB81}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" showDrill="0" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" createdVersion="6" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0">
   <location ref="A3:AA32" firstHeaderRow="1" firstDataRow="3" firstDataCol="3"/>
   <pivotFields count="7">
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
@@ -4172,7 +4172,7 @@
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField compact="0" numFmtId="165" outline="0" showAll="0">
+    <pivotField compact="0" numFmtId="166" outline="0" showAll="0">
       <items count="369">
         <item x="0"/>
         <item x="1"/>
@@ -4545,7 +4545,7 @@
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField dataField="1" compact="0" numFmtId="164" outline="0" showAll="0" defaultSubtotal="0">
+    <pivotField dataField="1" compact="0" numFmtId="165" outline="0" showAll="0" defaultSubtotal="0">
       <items count="324">
         <item x="181"/>
         <item x="320"/>
@@ -4873,7 +4873,7 @@
         <item x="243"/>
       </items>
     </pivotField>
-    <pivotField dataField="1" compact="0" numFmtId="164" outline="0" showAll="0">
+    <pivotField dataField="1" compact="0" numFmtId="165" outline="0" showAll="0">
       <items count="325">
         <item x="120"/>
         <item x="310"/>
@@ -5721,19 +5721,19 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="11.5" customWidth="1"/>
-    <col min="3" max="3" width="62.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="62.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.75">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B2" s="11" t="s">
         <v>73</v>
       </c>
       <c r="C2" s="12"/>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.75">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>69</v>
       </c>
@@ -5741,12 +5741,12 @@
         <v>70</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.75">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C5" s="10" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.75">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>71</v>
       </c>
@@ -5754,7 +5754,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.75">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C8" s="10" t="s">
         <v>75</v>
       </c>
@@ -5773,16 +5773,16 @@
       <selection activeCell="E2" sqref="E2:E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="10.1328125" customWidth="1"/>
-    <col min="3" max="4" width="15.453125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.86328125" style="7" customWidth="1"/>
-    <col min="6" max="6" width="14.90625" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.04296875" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.1640625" customWidth="1"/>
+    <col min="3" max="4" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.83203125" style="7" customWidth="1"/>
+    <col min="6" max="6" width="14.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="1" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5802,7 +5802,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
@@ -5822,7 +5822,7 @@
         <v>1641087.9683632851</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
@@ -5842,7 +5842,7 @@
         <v>3435055.8497275678</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
         <v>5</v>
       </c>
@@ -5862,7 +5862,7 @@
         <v>2541366.853197122</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
         <v>5</v>
       </c>
@@ -5882,7 +5882,7 @@
         <v>3123874.2514166562</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
         <v>5</v>
       </c>
@@ -5902,7 +5902,7 @@
         <v>178416.09090268079</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
         <v>5</v>
       </c>
@@ -5922,7 +5922,7 @@
         <v>3110782.9834343046</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
         <v>5</v>
       </c>
@@ -5942,7 +5942,7 @@
         <v>1201769.0250531388</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="s">
         <v>5</v>
       </c>
@@ -5962,7 +5962,7 @@
         <v>1821340.1453816788</v>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B10" s="2" t="s">
         <v>5</v>
       </c>
@@ -5982,7 +5982,7 @@
         <v>1719377.1199844892</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B11" s="2" t="s">
         <v>5</v>
       </c>
@@ -6002,7 +6002,7 @@
         <v>1206831.5394251922</v>
       </c>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B12" s="2" t="s">
         <v>5</v>
       </c>
@@ -6022,7 +6022,7 @@
         <v>1717662.9939267577</v>
       </c>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B13" s="2" t="s">
         <v>5</v>
       </c>
@@ -6042,7 +6042,7 @@
         <v>651018.29066632513</v>
       </c>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B14" s="2" t="s">
         <v>5</v>
       </c>
@@ -6062,7 +6062,7 @@
         <v>1356446.68324441</v>
       </c>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B15" s="2" t="s">
         <v>5</v>
       </c>
@@ -6082,7 +6082,7 @@
         <v>2047160.269701072</v>
       </c>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B16" s="2" t="s">
         <v>5</v>
       </c>
@@ -6102,7 +6102,7 @@
         <v>1394144.9555455605</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B17" s="2" t="s">
         <v>5</v>
       </c>
@@ -6122,7 +6122,7 @@
         <v>2570506.2967795958</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B18" s="2" t="s">
         <v>5</v>
       </c>
@@ -6142,7 +6142,7 @@
         <v>1537968.0740631425</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B19" s="2" t="s">
         <v>5</v>
       </c>
@@ -6162,7 +6162,7 @@
         <v>2332621.3449245007</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B20" s="2" t="s">
         <v>5</v>
       </c>
@@ -6182,7 +6182,7 @@
         <v>2741706.3860806054</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B21" s="2" t="s">
         <v>5</v>
       </c>
@@ -6202,7 +6202,7 @@
         <v>1347836.5337635796</v>
       </c>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B22" s="2" t="s">
         <v>5</v>
       </c>
@@ -6222,7 +6222,7 @@
         <v>1796052.9913181614</v>
       </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B23" s="2" t="s">
         <v>5</v>
       </c>
@@ -6242,7 +6242,7 @@
         <v>176493.82119154182</v>
       </c>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B24" s="2" t="s">
         <v>5</v>
       </c>
@@ -6262,7 +6262,7 @@
         <v>1227737.9229869514</v>
       </c>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B25" s="2" t="s">
         <v>5</v>
       </c>
@@ -6282,7 +6282,7 @@
         <v>2462661.1559325471</v>
       </c>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B26" s="2" t="s">
         <v>5</v>
       </c>
@@ -6302,7 +6302,7 @@
         <v>2184508.5793996076</v>
       </c>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B27" s="2" t="s">
         <v>5</v>
       </c>
@@ -6322,7 +6322,7 @@
         <v>2264943.0270913378</v>
       </c>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B28" s="2" t="s">
         <v>5</v>
       </c>
@@ -6342,7 +6342,7 @@
         <v>2349380.8281783476</v>
       </c>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B29" s="2" t="s">
         <v>5</v>
       </c>
@@ -6362,7 +6362,7 @@
         <v>197858.56941427907</v>
       </c>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B30" s="2" t="s">
         <v>5</v>
       </c>
@@ -6382,7 +6382,7 @@
         <v>2280966.8875507428</v>
       </c>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B31" s="2" t="s">
         <v>5</v>
       </c>
@@ -6402,7 +6402,7 @@
         <v>1708180.6183214043</v>
       </c>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B32" s="2" t="s">
         <v>5</v>
       </c>
@@ -6422,7 +6422,7 @@
         <v>1703335.6800374961</v>
       </c>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B33" s="2" t="s">
         <v>5</v>
       </c>
@@ -6442,7 +6442,7 @@
         <v>350943.14797651605</v>
       </c>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B34" s="2" t="s">
         <v>5</v>
       </c>
@@ -6462,7 +6462,7 @@
         <v>3142291.4992527938</v>
       </c>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B35" s="2" t="s">
         <v>5</v>
       </c>
@@ -6482,7 +6482,7 @@
         <v>3129515.4333731756</v>
       </c>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B36" s="2" t="s">
         <v>5</v>
       </c>
@@ -6502,7 +6502,7 @@
         <v>2625378.9471443621</v>
       </c>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="37" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B37" s="2" t="s">
         <v>5</v>
       </c>
@@ -6522,7 +6522,7 @@
         <v>3333567.6406193473</v>
       </c>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="38" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B38" s="2" t="s">
         <v>5</v>
       </c>
@@ -6542,7 +6542,7 @@
         <v>2496055.7302380996</v>
       </c>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="39" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B39" s="2" t="s">
         <v>5</v>
       </c>
@@ -6562,7 +6562,7 @@
         <v>1086802.1817482372</v>
       </c>
     </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="40" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B40" s="2" t="s">
         <v>5</v>
       </c>
@@ -6582,7 +6582,7 @@
         <v>1119353.8416770308</v>
       </c>
     </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="41" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B41" s="2" t="s">
         <v>5</v>
       </c>
@@ -6602,7 +6602,7 @@
         <v>1452212.687230913</v>
       </c>
     </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="42" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B42" s="2" t="s">
         <v>5</v>
       </c>
@@ -6622,7 +6622,7 @@
         <v>2147222.7571622813</v>
       </c>
     </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="43" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B43" s="2" t="s">
         <v>5</v>
       </c>
@@ -6642,7 +6642,7 @@
         <v>2818046.0796433785</v>
       </c>
     </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="44" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B44" s="2" t="s">
         <v>5</v>
       </c>
@@ -6662,7 +6662,7 @@
         <v>660800.37448194518</v>
       </c>
     </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="45" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B45" s="2" t="s">
         <v>5</v>
       </c>
@@ -6682,7 +6682,7 @@
         <v>187111.69937640219</v>
       </c>
     </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="46" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B46" s="2" t="s">
         <v>5</v>
       </c>
@@ -6702,7 +6702,7 @@
         <v>512908.33549100207</v>
       </c>
     </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="47" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B47" s="2" t="s">
         <v>5</v>
       </c>
@@ -6722,7 +6722,7 @@
         <v>2353032.6674325517</v>
       </c>
     </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="48" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B48" s="2" t="s">
         <v>5</v>
       </c>
@@ -6742,7 +6742,7 @@
         <v>3353435.3095976026</v>
       </c>
     </row>
-    <row r="49" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="49" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B49" s="2" t="s">
         <v>5</v>
       </c>
@@ -6762,7 +6762,7 @@
         <v>1009717.7543017551</v>
       </c>
     </row>
-    <row r="50" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="50" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B50" s="2" t="s">
         <v>5</v>
       </c>
@@ -6782,7 +6782,7 @@
         <v>2747540.0161695345</v>
       </c>
     </row>
-    <row r="51" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="51" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B51" s="2" t="s">
         <v>5</v>
       </c>
@@ -6802,7 +6802,7 @@
         <v>3204681.8190067881</v>
       </c>
     </row>
-    <row r="52" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="52" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B52" s="2" t="s">
         <v>5</v>
       </c>
@@ -6822,7 +6822,7 @@
         <v>664465.93707807339</v>
       </c>
     </row>
-    <row r="53" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="53" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B53" s="2" t="s">
         <v>5</v>
       </c>
@@ -6842,7 +6842,7 @@
         <v>1336008.0085658845</v>
       </c>
     </row>
-    <row r="54" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="54" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B54" s="2" t="s">
         <v>5</v>
       </c>
@@ -6862,7 +6862,7 @@
         <v>1225648.4906214294</v>
       </c>
     </row>
-    <row r="55" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="55" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B55" s="2" t="s">
         <v>5</v>
       </c>
@@ -6882,7 +6882,7 @@
         <v>2514628.4777782522</v>
       </c>
     </row>
-    <row r="56" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="56" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B56" s="2" t="s">
         <v>5</v>
       </c>
@@ -6902,7 +6902,7 @@
         <v>2096046.0774965484</v>
       </c>
     </row>
-    <row r="57" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="57" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B57" s="2" t="s">
         <v>5</v>
       </c>
@@ -6922,7 +6922,7 @@
         <v>2823683.8339148629</v>
       </c>
     </row>
-    <row r="58" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="58" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B58" s="2" t="s">
         <v>5</v>
       </c>
@@ -6942,7 +6942,7 @@
         <v>1524487.0770321086</v>
       </c>
     </row>
-    <row r="59" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="59" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B59" s="2" t="s">
         <v>5</v>
       </c>
@@ -6962,7 +6962,7 @@
         <v>1752127.3336096611</v>
       </c>
     </row>
-    <row r="60" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="60" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B60" s="2" t="s">
         <v>5</v>
       </c>
@@ -6982,7 +6982,7 @@
         <v>537242.1709549909</v>
       </c>
     </row>
-    <row r="61" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="61" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B61" s="2" t="s">
         <v>5</v>
       </c>
@@ -7002,7 +7002,7 @@
         <v>110625.67390690497</v>
       </c>
     </row>
-    <row r="62" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="62" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B62" s="2" t="s">
         <v>5</v>
       </c>
@@ -7022,7 +7022,7 @@
         <v>2505055.2937230319</v>
       </c>
     </row>
-    <row r="63" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="63" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B63" s="2" t="s">
         <v>5</v>
       </c>
@@ -7042,7 +7042,7 @@
         <v>398228.42218818481</v>
       </c>
     </row>
-    <row r="64" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="64" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B64" s="2" t="s">
         <v>5</v>
       </c>
@@ -7062,7 +7062,7 @@
         <v>1167984.0412026104</v>
       </c>
     </row>
-    <row r="65" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="65" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B65" s="2" t="s">
         <v>5</v>
       </c>
@@ -7082,7 +7082,7 @@
         <v>2793001.1066497392</v>
       </c>
     </row>
-    <row r="66" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="66" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B66" s="2" t="s">
         <v>5</v>
       </c>
@@ -7102,7 +7102,7 @@
         <v>1864795.5738503016</v>
       </c>
     </row>
-    <row r="67" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="67" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B67" s="2" t="s">
         <v>5</v>
       </c>
@@ -7122,7 +7122,7 @@
         <v>104612.03994649426</v>
       </c>
     </row>
-    <row r="68" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="68" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B68" s="2" t="s">
         <v>5</v>
       </c>
@@ -7142,7 +7142,7 @@
         <v>3336308.3457433442</v>
       </c>
     </row>
-    <row r="69" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="69" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B69" s="2" t="s">
         <v>5</v>
       </c>
@@ -7162,7 +7162,7 @@
         <v>1191130.8453955147</v>
       </c>
     </row>
-    <row r="70" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="70" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B70" s="2" t="s">
         <v>5</v>
       </c>
@@ -7182,7 +7182,7 @@
         <v>17753.455206036022</v>
       </c>
     </row>
-    <row r="71" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="71" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B71" s="2" t="s">
         <v>5</v>
       </c>
@@ -7202,7 +7202,7 @@
         <v>2750891.8258680003</v>
       </c>
     </row>
-    <row r="72" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="72" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B72" s="2" t="s">
         <v>5</v>
       </c>
@@ -7222,7 +7222,7 @@
         <v>1167891.4811048764</v>
       </c>
     </row>
-    <row r="73" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="73" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B73" s="2" t="s">
         <v>5</v>
       </c>
@@ -7242,7 +7242,7 @@
         <v>1170232.249735784</v>
       </c>
     </row>
-    <row r="74" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="74" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B74" s="2" t="s">
         <v>5</v>
       </c>
@@ -7262,7 +7262,7 @@
         <v>2492734.662589794</v>
       </c>
     </row>
-    <row r="75" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="75" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B75" s="2" t="s">
         <v>5</v>
       </c>
@@ -7282,7 +7282,7 @@
         <v>490841.28988954151</v>
       </c>
     </row>
-    <row r="76" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="76" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B76" s="2" t="s">
         <v>5</v>
       </c>
@@ -7302,7 +7302,7 @@
         <v>403032.80163280654</v>
       </c>
     </row>
-    <row r="77" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="77" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B77" s="2" t="s">
         <v>5</v>
       </c>
@@ -7322,7 +7322,7 @@
         <v>1056698.6387406916</v>
       </c>
     </row>
-    <row r="78" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="78" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B78" s="2" t="s">
         <v>5</v>
       </c>
@@ -7342,7 +7342,7 @@
         <v>2116259.3944857907</v>
       </c>
     </row>
-    <row r="79" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="79" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B79" s="2" t="s">
         <v>5</v>
       </c>
@@ -7362,7 +7362,7 @@
         <v>2402851.4671512269</v>
       </c>
     </row>
-    <row r="80" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="80" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B80" s="2" t="s">
         <v>5</v>
       </c>
@@ -7382,7 +7382,7 @@
         <v>1596860.2459110562</v>
       </c>
     </row>
-    <row r="81" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="81" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B81" s="2" t="s">
         <v>5</v>
       </c>
@@ -7402,7 +7402,7 @@
         <v>2908445.828476931</v>
       </c>
     </row>
-    <row r="82" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="82" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B82" s="2" t="s">
         <v>5</v>
       </c>
@@ -7422,7 +7422,7 @@
         <v>458285.01140719868</v>
       </c>
     </row>
-    <row r="83" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="83" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B83" s="2" t="s">
         <v>5</v>
       </c>
@@ -7442,7 +7442,7 @@
         <v>2978472.2239752677</v>
       </c>
     </row>
-    <row r="84" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="84" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B84" s="2" t="s">
         <v>5</v>
       </c>
@@ -7462,7 +7462,7 @@
         <v>96784.757345389677</v>
       </c>
     </row>
-    <row r="85" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="85" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B85" s="2" t="s">
         <v>5</v>
       </c>
@@ -7482,7 +7482,7 @@
         <v>256676.6868831137</v>
       </c>
     </row>
-    <row r="86" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="86" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B86" s="2" t="s">
         <v>5</v>
       </c>
@@ -7502,7 +7502,7 @@
         <v>2499048.8427790557</v>
       </c>
     </row>
-    <row r="87" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="87" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B87" s="2" t="s">
         <v>5</v>
       </c>
@@ -7522,7 +7522,7 @@
         <v>996024.58734757593</v>
       </c>
     </row>
-    <row r="88" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="88" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B88" s="2" t="s">
         <v>5</v>
       </c>
@@ -7542,7 +7542,7 @@
         <v>2075082.0785819176</v>
       </c>
     </row>
-    <row r="89" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="89" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B89" s="2" t="s">
         <v>5</v>
       </c>
@@ -7562,7 +7562,7 @@
         <v>71381.326628122362</v>
       </c>
     </row>
-    <row r="90" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="90" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B90" s="2" t="s">
         <v>5</v>
       </c>
@@ -7582,7 +7582,7 @@
         <v>515670.98031958094</v>
       </c>
     </row>
-    <row r="91" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="91" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B91" s="2" t="s">
         <v>5</v>
       </c>
@@ -7602,7 +7602,7 @@
         <v>342836.35782364249</v>
       </c>
     </row>
-    <row r="92" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="92" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B92" s="2" t="s">
         <v>5</v>
       </c>
@@ -7622,7 +7622,7 @@
         <v>3284987.8797310963</v>
       </c>
     </row>
-    <row r="93" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="93" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B93" s="2" t="s">
         <v>5</v>
       </c>
@@ -7642,7 +7642,7 @@
         <v>1174581.5535848476</v>
       </c>
     </row>
-    <row r="94" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="94" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B94" s="2" t="s">
         <v>5</v>
       </c>
@@ -7662,7 +7662,7 @@
         <v>2868321.1521270177</v>
       </c>
     </row>
-    <row r="95" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="95" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B95" s="2" t="s">
         <v>5</v>
       </c>
@@ -7682,7 +7682,7 @@
         <v>981564.06000792037</v>
       </c>
     </row>
-    <row r="96" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="96" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B96" s="2" t="s">
         <v>5</v>
       </c>
@@ -7702,7 +7702,7 @@
         <v>2037311.0813898176</v>
       </c>
     </row>
-    <row r="97" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="97" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B97" s="2" t="s">
         <v>5</v>
       </c>
@@ -7722,7 +7722,7 @@
         <v>3403993.9096018565</v>
       </c>
     </row>
-    <row r="98" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="98" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B98" s="2" t="s">
         <v>5</v>
       </c>
@@ -7742,7 +7742,7 @@
         <v>733321.99866808916</v>
       </c>
     </row>
-    <row r="99" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="99" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B99" s="2" t="s">
         <v>5</v>
       </c>
@@ -7762,7 +7762,7 @@
         <v>2236199.2858027918</v>
       </c>
     </row>
-    <row r="100" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="100" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B100" s="2" t="s">
         <v>5</v>
       </c>
@@ -7782,7 +7782,7 @@
         <v>352563.35924481798</v>
       </c>
     </row>
-    <row r="101" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="101" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B101" s="2" t="s">
         <v>5</v>
       </c>
@@ -7802,7 +7802,7 @@
         <v>2731101.7775734742</v>
       </c>
     </row>
-    <row r="102" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="102" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B102" s="2" t="s">
         <v>5</v>
       </c>
@@ -7822,7 +7822,7 @@
         <v>876872.78634944477</v>
       </c>
     </row>
-    <row r="103" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="103" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B103" s="2" t="s">
         <v>5</v>
       </c>
@@ -7842,7 +7842,7 @@
         <v>424726.29887523601</v>
       </c>
     </row>
-    <row r="104" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="104" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B104" s="2" t="s">
         <v>5</v>
       </c>
@@ -7862,7 +7862,7 @@
         <v>1548726.3991219644</v>
       </c>
     </row>
-    <row r="105" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="105" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B105" s="2" t="s">
         <v>5</v>
       </c>
@@ -7882,7 +7882,7 @@
         <v>373407.3450769746</v>
       </c>
     </row>
-    <row r="106" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="106" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B106" s="2" t="s">
         <v>5</v>
       </c>
@@ -7902,7 +7902,7 @@
         <v>2446300.9349763878</v>
       </c>
     </row>
-    <row r="107" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="107" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B107" s="2" t="s">
         <v>5</v>
       </c>
@@ -7922,7 +7922,7 @@
         <v>158120.5598797256</v>
       </c>
     </row>
-    <row r="108" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="108" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B108" s="2" t="s">
         <v>5</v>
       </c>
@@ -7942,7 +7942,7 @@
         <v>2562481.7962711342</v>
       </c>
     </row>
-    <row r="109" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="109" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B109" s="2" t="s">
         <v>5</v>
       </c>
@@ -7962,7 +7962,7 @@
         <v>1090529.385966975</v>
       </c>
     </row>
-    <row r="110" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="110" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B110" s="2" t="s">
         <v>2</v>
       </c>
@@ -7982,7 +7982,7 @@
         <v>824971.51675047574</v>
       </c>
     </row>
-    <row r="111" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="111" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B111" s="2" t="s">
         <v>2</v>
       </c>
@@ -8002,7 +8002,7 @@
         <v>2288477.61965831</v>
       </c>
     </row>
-    <row r="112" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="112" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B112" s="2" t="s">
         <v>2</v>
       </c>
@@ -8022,7 +8022,7 @@
         <v>2275125.809807932</v>
       </c>
     </row>
-    <row r="113" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="113" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B113" s="2" t="s">
         <v>2</v>
       </c>
@@ -8042,7 +8042,7 @@
         <v>616019.46525091666</v>
       </c>
     </row>
-    <row r="114" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="114" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B114" s="2" t="s">
         <v>2</v>
       </c>
@@ -8062,7 +8062,7 @@
         <v>545546.43105088605</v>
       </c>
     </row>
-    <row r="115" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="115" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B115" s="2" t="s">
         <v>2</v>
       </c>
@@ -8082,7 +8082,7 @@
         <v>3155274.8518645596</v>
       </c>
     </row>
-    <row r="116" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="116" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B116" s="2" t="s">
         <v>2</v>
       </c>
@@ -8102,7 +8102,7 @@
         <v>3414149.768608606</v>
       </c>
     </row>
-    <row r="117" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="117" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B117" s="2" t="s">
         <v>2</v>
       </c>
@@ -8122,7 +8122,7 @@
         <v>2369860.6854844284</v>
       </c>
     </row>
-    <row r="118" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="118" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B118" s="2" t="s">
         <v>2</v>
       </c>
@@ -8142,7 +8142,7 @@
         <v>976170.13763991569</v>
       </c>
     </row>
-    <row r="119" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="119" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B119" s="2" t="s">
         <v>2</v>
       </c>
@@ -8162,7 +8162,7 @@
         <v>1298137.6526140047</v>
       </c>
     </row>
-    <row r="120" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="120" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B120" s="2" t="s">
         <v>2</v>
       </c>
@@ -8182,7 +8182,7 @@
         <v>1234511.646103922</v>
       </c>
     </row>
-    <row r="121" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="121" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B121" s="2" t="s">
         <v>2</v>
       </c>
@@ -8202,7 +8202,7 @@
         <v>301643.20147826441</v>
       </c>
     </row>
-    <row r="122" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="122" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B122" s="2" t="s">
         <v>2</v>
       </c>
@@ -8222,7 +8222,7 @@
         <v>1541.4249196247274</v>
       </c>
     </row>
-    <row r="123" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="123" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B123" s="2" t="s">
         <v>2</v>
       </c>
@@ -8242,7 +8242,7 @@
         <v>1293912.4826305271</v>
       </c>
     </row>
-    <row r="124" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="124" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B124" s="2" t="s">
         <v>2</v>
       </c>
@@ -8262,7 +8262,7 @@
         <v>969268.29219297064</v>
       </c>
     </row>
-    <row r="125" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="125" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B125" s="2" t="s">
         <v>2</v>
       </c>
@@ -8282,7 +8282,7 @@
         <v>2380035.8000159343</v>
       </c>
     </row>
-    <row r="126" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="126" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B126" s="2" t="s">
         <v>2</v>
       </c>
@@ -8302,7 +8302,7 @@
         <v>2176619.1889099143</v>
       </c>
     </row>
-    <row r="127" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="127" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B127" s="2" t="s">
         <v>2</v>
       </c>
@@ -8322,7 +8322,7 @@
         <v>2375873.8531788602</v>
       </c>
     </row>
-    <row r="128" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="128" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B128" s="2" t="s">
         <v>2</v>
       </c>
@@ -8342,7 +8342,7 @@
         <v>906156.70307561837</v>
       </c>
     </row>
-    <row r="129" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="129" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B129" s="2" t="s">
         <v>2</v>
       </c>
@@ -8362,7 +8362,7 @@
         <v>910291.17802527803</v>
       </c>
     </row>
-    <row r="130" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="130" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B130" s="2" t="s">
         <v>2</v>
       </c>
@@ -8382,7 +8382,7 @@
         <v>1704172.784992191</v>
       </c>
     </row>
-    <row r="131" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="131" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B131" s="2" t="s">
         <v>2</v>
       </c>
@@ -8402,7 +8402,7 @@
         <v>3429985.0307803741</v>
       </c>
     </row>
-    <row r="132" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="132" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B132" s="2" t="s">
         <v>2</v>
       </c>
@@ -8422,7 +8422,7 @@
         <v>2251226.4586257236</v>
       </c>
     </row>
-    <row r="133" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="133" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B133" s="2" t="s">
         <v>2</v>
       </c>
@@ -8442,7 +8442,7 @@
         <v>2167672.540312713</v>
       </c>
     </row>
-    <row r="134" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="134" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B134" s="2" t="s">
         <v>2</v>
       </c>
@@ -8462,7 +8462,7 @@
         <v>1440867.7365615233</v>
       </c>
     </row>
-    <row r="135" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="135" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B135" s="2" t="s">
         <v>2</v>
       </c>
@@ -8482,7 +8482,7 @@
         <v>2354470.2221540045</v>
       </c>
     </row>
-    <row r="136" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="136" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B136" s="2" t="s">
         <v>2</v>
       </c>
@@ -8502,7 +8502,7 @@
         <v>1346137.996111688</v>
       </c>
     </row>
-    <row r="137" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="137" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B137" s="2" t="s">
         <v>2</v>
       </c>
@@ -8522,7 +8522,7 @@
         <v>294581.92457094038</v>
       </c>
     </row>
-    <row r="138" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="138" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B138" s="2" t="s">
         <v>2</v>
       </c>
@@ -8542,7 +8542,7 @@
         <v>1407648.7744060019</v>
       </c>
     </row>
-    <row r="139" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="139" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B139" s="2" t="s">
         <v>2</v>
       </c>
@@ -8562,7 +8562,7 @@
         <v>341839.12831049168</v>
       </c>
     </row>
-    <row r="140" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="140" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B140" s="2" t="s">
         <v>2</v>
       </c>
@@ -8582,7 +8582,7 @@
         <v>1995675.8103829206</v>
       </c>
     </row>
-    <row r="141" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="141" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B141" s="2" t="s">
         <v>2</v>
       </c>
@@ -8602,7 +8602,7 @@
         <v>2102774.5917162253</v>
       </c>
     </row>
-    <row r="142" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="142" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B142" s="2" t="s">
         <v>2</v>
       </c>
@@ -8622,7 +8622,7 @@
         <v>2217284.2360250964</v>
       </c>
     </row>
-    <row r="143" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="143" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B143" s="2" t="s">
         <v>2</v>
       </c>
@@ -8642,7 +8642,7 @@
         <v>1777714.2840959281</v>
       </c>
     </row>
-    <row r="144" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="144" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B144" s="2" t="s">
         <v>2</v>
       </c>
@@ -8662,7 +8662,7 @@
         <v>1304474.0875524287</v>
       </c>
     </row>
-    <row r="145" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="145" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B145" s="2" t="s">
         <v>2</v>
       </c>
@@ -8682,7 +8682,7 @@
         <v>3372053.9843366924</v>
       </c>
     </row>
-    <row r="146" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="146" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B146" s="2" t="s">
         <v>2</v>
       </c>
@@ -8702,7 +8702,7 @@
         <v>290908.31573622761</v>
       </c>
     </row>
-    <row r="147" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="147" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B147" s="2" t="s">
         <v>2</v>
       </c>
@@ -8722,7 +8722,7 @@
         <v>2433049.2210901082</v>
       </c>
     </row>
-    <row r="148" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="148" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B148" s="2" t="s">
         <v>2</v>
       </c>
@@ -8742,7 +8742,7 @@
         <v>2706837.2141118324</v>
       </c>
     </row>
-    <row r="149" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="149" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B149" s="2" t="s">
         <v>2</v>
       </c>
@@ -8762,7 +8762,7 @@
         <v>696718.96624906524</v>
       </c>
     </row>
-    <row r="150" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="150" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B150" s="2" t="s">
         <v>2</v>
       </c>
@@ -8782,7 +8782,7 @@
         <v>985668.25917339942</v>
       </c>
     </row>
-    <row r="151" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="151" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B151" s="2" t="s">
         <v>2</v>
       </c>
@@ -8802,7 +8802,7 @@
         <v>692125.08069042058</v>
       </c>
     </row>
-    <row r="152" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="152" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B152" s="2" t="s">
         <v>2</v>
       </c>
@@ -8822,7 +8822,7 @@
         <v>31456.470453799826</v>
       </c>
     </row>
-    <row r="153" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="153" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B153" s="2" t="s">
         <v>2</v>
       </c>
@@ -8842,7 +8842,7 @@
         <v>262203.54546228203</v>
       </c>
     </row>
-    <row r="154" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="154" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B154" s="2" t="s">
         <v>2</v>
       </c>
@@ -8862,7 +8862,7 @@
         <v>2324768.6382257547</v>
       </c>
     </row>
-    <row r="155" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="155" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B155" s="2" t="s">
         <v>2</v>
       </c>
@@ -8882,7 +8882,7 @@
         <v>182947.79296203761</v>
       </c>
     </row>
-    <row r="156" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="156" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B156" s="2" t="s">
         <v>2</v>
       </c>
@@ -8902,7 +8902,7 @@
         <v>904276.5863293428</v>
       </c>
     </row>
-    <row r="157" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="157" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B157" s="2" t="s">
         <v>2</v>
       </c>
@@ -8922,7 +8922,7 @@
         <v>736589.84898586629</v>
       </c>
     </row>
-    <row r="158" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="158" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B158" s="2" t="s">
         <v>2</v>
       </c>
@@ -8942,7 +8942,7 @@
         <v>2937618.7739000898</v>
       </c>
     </row>
-    <row r="159" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="159" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B159" s="2" t="s">
         <v>2</v>
       </c>
@@ -8962,7 +8962,7 @@
         <v>1990095.1295876296</v>
       </c>
     </row>
-    <row r="160" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="160" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B160" s="2" t="s">
         <v>2</v>
       </c>
@@ -8982,7 +8982,7 @@
         <v>1808162.5047771533</v>
       </c>
     </row>
-    <row r="161" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="161" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B161" s="2" t="s">
         <v>2</v>
       </c>
@@ -9002,7 +9002,7 @@
         <v>2757153.4251167858</v>
       </c>
     </row>
-    <row r="162" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="162" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B162" s="2" t="s">
         <v>2</v>
       </c>
@@ -9022,7 +9022,7 @@
         <v>1766006.4776805674</v>
       </c>
     </row>
-    <row r="163" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="163" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B163" s="2" t="s">
         <v>2</v>
       </c>
@@ -9042,7 +9042,7 @@
         <v>1642200.3025643465</v>
       </c>
     </row>
-    <row r="164" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="164" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B164" s="2" t="s">
         <v>2</v>
       </c>
@@ -9062,7 +9062,7 @@
         <v>3383646.1882937057</v>
       </c>
     </row>
-    <row r="165" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="165" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B165" s="2" t="s">
         <v>2</v>
       </c>
@@ -9082,7 +9082,7 @@
         <v>1010738.3160165336</v>
       </c>
     </row>
-    <row r="166" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="166" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B166" s="2" t="s">
         <v>2</v>
       </c>
@@ -9102,7 +9102,7 @@
         <v>1853969.3251799361</v>
       </c>
     </row>
-    <row r="167" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="167" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B167" s="2" t="s">
         <v>2</v>
       </c>
@@ -9122,7 +9122,7 @@
         <v>377274.54250547796</v>
       </c>
     </row>
-    <row r="168" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="168" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B168" s="2" t="s">
         <v>2</v>
       </c>
@@ -9142,7 +9142,7 @@
         <v>2431614.3190440224</v>
       </c>
     </row>
-    <row r="169" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="169" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B169" s="2" t="s">
         <v>2</v>
       </c>
@@ -9162,7 +9162,7 @@
         <v>198880.82606890026</v>
       </c>
     </row>
-    <row r="170" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="170" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B170" s="2" t="s">
         <v>2</v>
       </c>
@@ -9182,7 +9182,7 @@
         <v>429506.51440053782</v>
       </c>
     </row>
-    <row r="171" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="171" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B171" s="2" t="s">
         <v>2</v>
       </c>
@@ -9202,7 +9202,7 @@
         <v>497830.11284425529</v>
       </c>
     </row>
-    <row r="172" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="172" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B172" s="2" t="s">
         <v>2</v>
       </c>
@@ -9222,7 +9222,7 @@
         <v>2145200.9270628309</v>
       </c>
     </row>
-    <row r="173" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="173" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B173" s="2" t="s">
         <v>2</v>
       </c>
@@ -9242,7 +9242,7 @@
         <v>2218323.448379037</v>
       </c>
     </row>
-    <row r="174" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="174" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B174" s="2" t="s">
         <v>2</v>
       </c>
@@ -9262,7 +9262,7 @@
         <v>2358192.9275361337</v>
       </c>
     </row>
-    <row r="175" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="175" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B175" s="2" t="s">
         <v>2</v>
       </c>
@@ -9282,7 +9282,7 @@
         <v>966336.96619513107</v>
       </c>
     </row>
-    <row r="176" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="176" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B176" s="2" t="s">
         <v>2</v>
       </c>
@@ -9302,7 +9302,7 @@
         <v>1729229.1058916179</v>
       </c>
     </row>
-    <row r="177" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="177" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B177" s="2" t="s">
         <v>2</v>
       </c>
@@ -9322,7 +9322,7 @@
         <v>2430728.9555604956</v>
       </c>
     </row>
-    <row r="178" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="178" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B178" s="2" t="s">
         <v>2</v>
       </c>
@@ -9342,7 +9342,7 @@
         <v>1321471.7823144402</v>
       </c>
     </row>
-    <row r="179" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="179" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B179" s="2" t="s">
         <v>2</v>
       </c>
@@ -9362,7 +9362,7 @@
         <v>881711.28512212855</v>
       </c>
     </row>
-    <row r="180" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="180" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B180" s="2" t="s">
         <v>2</v>
       </c>
@@ -9382,7 +9382,7 @@
         <v>2253815.8919439754</v>
       </c>
     </row>
-    <row r="181" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="181" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B181" s="2" t="s">
         <v>2</v>
       </c>
@@ -9402,7 +9402,7 @@
         <v>901437.07692402753</v>
       </c>
     </row>
-    <row r="182" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="182" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B182" s="2" t="s">
         <v>2</v>
       </c>
@@ -9422,7 +9422,7 @@
         <v>1914209.4089643832</v>
       </c>
     </row>
-    <row r="183" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="183" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B183" s="2" t="s">
         <v>2</v>
       </c>
@@ -9442,7 +9442,7 @@
         <v>2735964.9506376972</v>
       </c>
     </row>
-    <row r="184" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="184" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B184" s="2" t="s">
         <v>2</v>
       </c>
@@ -9462,7 +9462,7 @@
         <v>1348118.0702024465</v>
       </c>
     </row>
-    <row r="185" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="185" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B185" s="2" t="s">
         <v>2</v>
       </c>
@@ -9482,7 +9482,7 @@
         <v>2156146.8989746561</v>
       </c>
     </row>
-    <row r="186" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="186" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B186" s="2" t="s">
         <v>2</v>
       </c>
@@ -9502,7 +9502,7 @@
         <v>2285563.6526168524</v>
       </c>
     </row>
-    <row r="187" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="187" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B187" s="2" t="s">
         <v>2</v>
       </c>
@@ -9522,7 +9522,7 @@
         <v>2417437.1869062586</v>
       </c>
     </row>
-    <row r="188" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="188" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B188" s="2" t="s">
         <v>2</v>
       </c>
@@ -9542,7 +9542,7 @@
         <v>3323589.271428328</v>
       </c>
     </row>
-    <row r="189" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="189" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B189" s="2" t="s">
         <v>2</v>
       </c>
@@ -9562,7 +9562,7 @@
         <v>953286.5279904051</v>
       </c>
     </row>
-    <row r="190" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="190" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B190" s="2" t="s">
         <v>2</v>
       </c>
@@ -9582,7 +9582,7 @@
         <v>2246300.7366104987</v>
       </c>
     </row>
-    <row r="191" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="191" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B191" s="2" t="s">
         <v>2</v>
       </c>
@@ -9602,7 +9602,7 @@
         <v>2611541.1936304346</v>
       </c>
     </row>
-    <row r="192" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="192" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B192" s="2" t="s">
         <v>2</v>
       </c>
@@ -9622,7 +9622,7 @@
         <v>2042840.3469095808</v>
       </c>
     </row>
-    <row r="193" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="193" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B193" s="2" t="s">
         <v>2</v>
       </c>
@@ -9642,7 +9642,7 @@
         <v>2036796.0591114927</v>
       </c>
     </row>
-    <row r="194" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="194" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B194" s="2" t="s">
         <v>2</v>
       </c>
@@ -9662,7 +9662,7 @@
         <v>1311063.1945452597</v>
       </c>
     </row>
-    <row r="195" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="195" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B195" s="2" t="s">
         <v>2</v>
       </c>
@@ -9682,7 +9682,7 @@
         <v>2552875.6522519081</v>
       </c>
     </row>
-    <row r="196" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="196" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B196" s="2" t="s">
         <v>2</v>
       </c>
@@ -9702,7 +9702,7 @@
         <v>3380596.5756576927</v>
       </c>
     </row>
-    <row r="197" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="197" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B197" s="2" t="s">
         <v>2</v>
       </c>
@@ -9722,7 +9722,7 @@
         <v>1827135.4093416012</v>
       </c>
     </row>
-    <row r="198" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="198" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B198" s="2" t="s">
         <v>2</v>
       </c>
@@ -9742,7 +9742,7 @@
         <v>522876.85638843669</v>
       </c>
     </row>
-    <row r="199" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="199" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B199" s="2" t="s">
         <v>2</v>
       </c>
@@ -9762,7 +9762,7 @@
         <v>1841139.2606592297</v>
       </c>
     </row>
-    <row r="200" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="200" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B200" s="2" t="s">
         <v>2</v>
       </c>
@@ -9782,7 +9782,7 @@
         <v>1377662.4153805973</v>
       </c>
     </row>
-    <row r="201" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="201" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B201" s="2" t="s">
         <v>2</v>
       </c>
@@ -9802,7 +9802,7 @@
         <v>3002909.2428402435</v>
       </c>
     </row>
-    <row r="202" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="202" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B202" s="2" t="s">
         <v>2</v>
       </c>
@@ -9822,7 +9822,7 @@
         <v>3043315.644655773</v>
       </c>
     </row>
-    <row r="203" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="203" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B203" s="2" t="s">
         <v>2</v>
       </c>
@@ -9842,7 +9842,7 @@
         <v>97697.932964478357</v>
       </c>
     </row>
-    <row r="204" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="204" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B204" s="2" t="s">
         <v>2</v>
       </c>
@@ -9862,7 +9862,7 @@
         <v>2831190.6090624994</v>
       </c>
     </row>
-    <row r="205" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="205" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B205" s="2" t="s">
         <v>2</v>
       </c>
@@ -9882,7 +9882,7 @@
         <v>3131199.8948332132</v>
       </c>
     </row>
-    <row r="206" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="206" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B206" s="2" t="s">
         <v>2</v>
       </c>
@@ -9902,7 +9902,7 @@
         <v>2149457.0785303493</v>
       </c>
     </row>
-    <row r="207" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="207" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B207" s="2" t="s">
         <v>2</v>
       </c>
@@ -9922,7 +9922,7 @@
         <v>3280235.6842707791</v>
       </c>
     </row>
-    <row r="208" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="208" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B208" s="2" t="s">
         <v>2</v>
       </c>
@@ -9942,7 +9942,7 @@
         <v>25928.502917708323</v>
       </c>
     </row>
-    <row r="209" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="209" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B209" s="2" t="s">
         <v>2</v>
       </c>
@@ -9962,7 +9962,7 @@
         <v>1496478.5426791585</v>
       </c>
     </row>
-    <row r="210" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="210" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B210" s="2" t="s">
         <v>2</v>
       </c>
@@ -9982,7 +9982,7 @@
         <v>472368.3799769312</v>
       </c>
     </row>
-    <row r="211" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="211" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B211" s="2" t="s">
         <v>2</v>
       </c>
@@ -10002,7 +10002,7 @@
         <v>1242800.153970795</v>
       </c>
     </row>
-    <row r="212" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="212" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B212" s="2" t="s">
         <v>2</v>
       </c>
@@ -10022,7 +10022,7 @@
         <v>1834459.4460307977</v>
       </c>
     </row>
-    <row r="213" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="213" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B213" s="2" t="s">
         <v>2</v>
       </c>
@@ -10042,7 +10042,7 @@
         <v>2358656.7550701364</v>
       </c>
     </row>
-    <row r="214" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="214" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B214" s="2" t="s">
         <v>2</v>
       </c>
@@ -10062,7 +10062,7 @@
         <v>2575862.8674621433</v>
       </c>
     </row>
-    <row r="215" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="215" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B215" s="2" t="s">
         <v>2</v>
       </c>
@@ -10082,7 +10082,7 @@
         <v>1838075.0803618175</v>
       </c>
     </row>
-    <row r="216" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="216" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B216" s="2" t="s">
         <v>2</v>
       </c>
@@ -10102,7 +10102,7 @@
         <v>105646.92988879123</v>
       </c>
     </row>
-    <row r="217" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="217" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B217" s="2" t="s">
         <v>2</v>
       </c>
@@ -10122,7 +10122,7 @@
         <v>2405217.9749243567</v>
       </c>
     </row>
-    <row r="218" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="218" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B218" s="2" t="s">
         <v>4</v>
       </c>
@@ -10142,7 +10142,7 @@
         <v>1241977.4150489683</v>
       </c>
     </row>
-    <row r="219" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="219" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B219" s="2" t="s">
         <v>4</v>
       </c>
@@ -10162,7 +10162,7 @@
         <v>2222208.5844459506</v>
       </c>
     </row>
-    <row r="220" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="220" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B220" s="2" t="s">
         <v>4</v>
       </c>
@@ -10182,7 +10182,7 @@
         <v>1961839.7263014445</v>
       </c>
     </row>
-    <row r="221" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="221" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B221" s="2" t="s">
         <v>4</v>
       </c>
@@ -10202,7 +10202,7 @@
         <v>1774543.3036857455</v>
       </c>
     </row>
-    <row r="222" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="222" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B222" s="2" t="s">
         <v>4</v>
       </c>
@@ -10222,7 +10222,7 @@
         <v>1385634.776010996</v>
       </c>
     </row>
-    <row r="223" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="223" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B223" s="2" t="s">
         <v>4</v>
       </c>
@@ -10242,7 +10242,7 @@
         <v>1070216.6724126025</v>
       </c>
     </row>
-    <row r="224" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="224" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B224" s="2" t="s">
         <v>4</v>
       </c>
@@ -10262,7 +10262,7 @@
         <v>2333411.0923778634</v>
       </c>
     </row>
-    <row r="225" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="225" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B225" s="2" t="s">
         <v>4</v>
       </c>
@@ -10282,7 +10282,7 @@
         <v>17505.886873832362</v>
       </c>
     </row>
-    <row r="226" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="226" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B226" s="2" t="s">
         <v>4</v>
       </c>
@@ -10302,7 +10302,7 @@
         <v>1922319.5385898096</v>
       </c>
     </row>
-    <row r="227" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="227" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B227" s="2" t="s">
         <v>4</v>
       </c>
@@ -10322,7 +10322,7 @@
         <v>389203.91977426421</v>
       </c>
     </row>
-    <row r="228" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="228" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B228" s="2" t="s">
         <v>4</v>
       </c>
@@ -10342,7 +10342,7 @@
         <v>2456288.3459468656</v>
       </c>
     </row>
-    <row r="229" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="229" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B229" s="2" t="s">
         <v>4</v>
       </c>
@@ -10362,7 +10362,7 @@
         <v>2251380.294894354</v>
       </c>
     </row>
-    <row r="230" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="230" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B230" s="2" t="s">
         <v>4</v>
       </c>
@@ -10382,7 +10382,7 @@
         <v>360063.87130619551</v>
       </c>
     </row>
-    <row r="231" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="231" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B231" s="2" t="s">
         <v>4</v>
       </c>
@@ -10402,7 +10402,7 @@
         <v>2805204.7932347171</v>
       </c>
     </row>
-    <row r="232" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="232" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B232" s="2" t="s">
         <v>4</v>
       </c>
@@ -10422,7 +10422,7 @@
         <v>622475.09415590554</v>
       </c>
     </row>
-    <row r="233" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="233" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B233" s="2" t="s">
         <v>4</v>
       </c>
@@ -10442,7 +10442,7 @@
         <v>2473692.3663060577</v>
       </c>
     </row>
-    <row r="234" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="234" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B234" s="2" t="s">
         <v>4</v>
       </c>
@@ -10462,7 +10462,7 @@
         <v>642421.52427927183</v>
       </c>
     </row>
-    <row r="235" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="235" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B235" s="2" t="s">
         <v>4</v>
       </c>
@@ -10482,7 +10482,7 @@
         <v>2456598.6144514689</v>
       </c>
     </row>
-    <row r="236" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="236" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B236" s="2" t="s">
         <v>4</v>
       </c>
@@ -10502,7 +10502,7 @@
         <v>699433.44706218597</v>
       </c>
     </row>
-    <row r="237" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="237" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B237" s="2" t="s">
         <v>4</v>
       </c>
@@ -10522,7 +10522,7 @@
         <v>328624.49517133052</v>
       </c>
     </row>
-    <row r="238" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="238" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B238" s="2" t="s">
         <v>4</v>
       </c>
@@ -10542,7 +10542,7 @@
         <v>2862119.6066761552</v>
       </c>
     </row>
-    <row r="239" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="239" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B239" s="2" t="s">
         <v>4</v>
       </c>
@@ -10562,7 +10562,7 @@
         <v>1363251.7028900017</v>
       </c>
     </row>
-    <row r="240" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="240" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B240" s="2" t="s">
         <v>4</v>
       </c>
@@ -10582,7 +10582,7 @@
         <v>731536.55911912816</v>
       </c>
     </row>
-    <row r="241" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="241" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B241" s="2" t="s">
         <v>4</v>
       </c>
@@ -10602,7 +10602,7 @@
         <v>1206395.7886641982</v>
       </c>
     </row>
-    <row r="242" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="242" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B242" s="2" t="s">
         <v>4</v>
       </c>
@@ -10622,7 +10622,7 @@
         <v>820862.85025284614</v>
       </c>
     </row>
-    <row r="243" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="243" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B243" s="2" t="s">
         <v>4</v>
       </c>
@@ -10642,7 +10642,7 @@
         <v>2199918.0336173405</v>
       </c>
     </row>
-    <row r="244" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="244" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B244" s="2" t="s">
         <v>4</v>
       </c>
@@ -10662,7 +10662,7 @@
         <v>1393625.2454038786</v>
       </c>
     </row>
-    <row r="245" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="245" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B245" s="2" t="s">
         <v>4</v>
       </c>
@@ -10682,7 +10682,7 @@
         <v>1686536.9737333839</v>
       </c>
     </row>
-    <row r="246" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="246" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B246" s="2" t="s">
         <v>4</v>
       </c>
@@ -10702,7 +10702,7 @@
         <v>506833.70889981766</v>
       </c>
     </row>
-    <row r="247" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="247" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B247" s="2" t="s">
         <v>4</v>
       </c>
@@ -10722,7 +10722,7 @@
         <v>2301797.880944402</v>
       </c>
     </row>
-    <row r="248" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="248" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B248" s="2" t="s">
         <v>4</v>
       </c>
@@ -10742,7 +10742,7 @@
         <v>1927955.0245403145</v>
       </c>
     </row>
-    <row r="249" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="249" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B249" s="2" t="s">
         <v>4</v>
       </c>
@@ -10762,7 +10762,7 @@
         <v>2127229.6500338768</v>
       </c>
     </row>
-    <row r="250" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="250" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B250" s="2" t="s">
         <v>4</v>
       </c>
@@ -10782,7 +10782,7 @@
         <v>3346292.1337011466</v>
       </c>
     </row>
-    <row r="251" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="251" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B251" s="2" t="s">
         <v>4</v>
       </c>
@@ -10802,7 +10802,7 @@
         <v>1236388.7195195507</v>
       </c>
     </row>
-    <row r="252" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="252" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B252" s="2" t="s">
         <v>4</v>
       </c>
@@ -10822,7 +10822,7 @@
         <v>640756.61448589666</v>
       </c>
     </row>
-    <row r="253" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="253" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B253" s="2" t="s">
         <v>4</v>
       </c>
@@ -10842,7 +10842,7 @@
         <v>1105065.265669381</v>
       </c>
     </row>
-    <row r="254" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="254" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B254" s="2" t="s">
         <v>4</v>
       </c>
@@ -10862,7 +10862,7 @@
         <v>1360014.0086394646</v>
       </c>
     </row>
-    <row r="255" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="255" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B255" s="2" t="s">
         <v>4</v>
       </c>
@@ -10882,7 +10882,7 @@
         <v>1005816.3052264659</v>
       </c>
     </row>
-    <row r="256" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="256" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B256" s="2" t="s">
         <v>4</v>
       </c>
@@ -10902,7 +10902,7 @@
         <v>1903778.6546585227</v>
       </c>
     </row>
-    <row r="257" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="257" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B257" s="2" t="s">
         <v>4</v>
       </c>
@@ -10922,7 +10922,7 @@
         <v>2291740.8514225376</v>
       </c>
     </row>
-    <row r="258" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="258" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B258" s="2" t="s">
         <v>4</v>
       </c>
@@ -10942,7 +10942,7 @@
         <v>338819.82296311756</v>
       </c>
     </row>
-    <row r="259" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="259" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B259" s="2" t="s">
         <v>4</v>
       </c>
@@ -10962,7 +10962,7 @@
         <v>453541.70020404988</v>
       </c>
     </row>
-    <row r="260" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="260" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B260" s="2" t="s">
         <v>4</v>
       </c>
@@ -10982,7 +10982,7 @@
         <v>2179596.0451505198</v>
       </c>
     </row>
-    <row r="261" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="261" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B261" s="2" t="s">
         <v>4</v>
       </c>
@@ -11002,7 +11002,7 @@
         <v>2897596.6445611101</v>
       </c>
     </row>
-    <row r="262" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="262" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B262" s="2" t="s">
         <v>4</v>
       </c>
@@ -11022,7 +11022,7 @@
         <v>723783.16077302909</v>
       </c>
     </row>
-    <row r="263" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="263" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B263" s="2" t="s">
         <v>4</v>
       </c>
@@ -11042,7 +11042,7 @@
         <v>1259141.8692082998</v>
       </c>
     </row>
-    <row r="264" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="264" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B264" s="2" t="s">
         <v>4</v>
       </c>
@@ -11062,7 +11062,7 @@
         <v>2878263.4928198168</v>
       </c>
     </row>
-    <row r="265" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="265" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B265" s="2" t="s">
         <v>4</v>
       </c>
@@ -11082,7 +11082,7 @@
         <v>1872940.9506633878</v>
       </c>
     </row>
-    <row r="266" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="266" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B266" s="2" t="s">
         <v>4</v>
       </c>
@@ -11102,7 +11102,7 @@
         <v>2899653.513918797</v>
       </c>
     </row>
-    <row r="267" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="267" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B267" s="2" t="s">
         <v>4</v>
       </c>
@@ -11122,7 +11122,7 @@
         <v>3265625.3280295567</v>
       </c>
     </row>
-    <row r="268" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="268" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B268" s="2" t="s">
         <v>4</v>
       </c>
@@ -11142,7 +11142,7 @@
         <v>547750.70346687105</v>
       </c>
     </row>
-    <row r="269" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="269" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B269" s="2" t="s">
         <v>4</v>
       </c>
@@ -11162,7 +11162,7 @@
         <v>20302.14065825288</v>
       </c>
     </row>
-    <row r="270" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="270" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B270" s="2" t="s">
         <v>4</v>
       </c>
@@ -11182,7 +11182,7 @@
         <v>3309912.9908636608</v>
       </c>
     </row>
-    <row r="271" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="271" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B271" s="2" t="s">
         <v>4</v>
       </c>
@@ -11202,7 +11202,7 @@
         <v>2169220.6441774433</v>
       </c>
     </row>
-    <row r="272" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="272" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B272" s="2" t="s">
         <v>4</v>
       </c>
@@ -11222,7 +11222,7 @@
         <v>1604548.1401879895</v>
       </c>
     </row>
-    <row r="273" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="273" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B273" s="2" t="s">
         <v>4</v>
       </c>
@@ -11242,7 +11242,7 @@
         <v>1027966.4910927055</v>
       </c>
     </row>
-    <row r="274" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="274" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B274" s="2" t="s">
         <v>4</v>
       </c>
@@ -11262,7 +11262,7 @@
         <v>1088888.1675260491</v>
       </c>
     </row>
-    <row r="275" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="275" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B275" s="2" t="s">
         <v>4</v>
       </c>
@@ -11282,7 +11282,7 @@
         <v>1030894.0050511217</v>
       </c>
     </row>
-    <row r="276" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="276" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B276" s="2" t="s">
         <v>4</v>
       </c>
@@ -11302,7 +11302,7 @@
         <v>741721.42743084452</v>
       </c>
     </row>
-    <row r="277" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="277" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B277" s="2" t="s">
         <v>4</v>
       </c>
@@ -11322,7 +11322,7 @@
         <v>1840112.2279287693</v>
       </c>
     </row>
-    <row r="278" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="278" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B278" s="2" t="s">
         <v>4</v>
       </c>
@@ -11342,7 +11342,7 @@
         <v>3452759.94374874</v>
       </c>
     </row>
-    <row r="279" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="279" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B279" s="2" t="s">
         <v>4</v>
       </c>
@@ -11362,7 +11362,7 @@
         <v>3203945.1880696877</v>
       </c>
     </row>
-    <row r="280" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="280" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B280" s="2" t="s">
         <v>4</v>
       </c>
@@ -11382,7 +11382,7 @@
         <v>2122449.2832871764</v>
       </c>
     </row>
-    <row r="281" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="281" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B281" s="2" t="s">
         <v>4</v>
       </c>
@@ -11402,7 +11402,7 @@
         <v>2597819.9373014634</v>
       </c>
     </row>
-    <row r="282" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="282" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B282" s="2" t="s">
         <v>4</v>
       </c>
@@ -11422,7 +11422,7 @@
         <v>547613.97411895881</v>
       </c>
     </row>
-    <row r="283" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="283" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B283" s="2" t="s">
         <v>4</v>
       </c>
@@ -11442,7 +11442,7 @@
         <v>201099.50862399477</v>
       </c>
     </row>
-    <row r="284" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="284" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B284" s="2" t="s">
         <v>4</v>
       </c>
@@ -11462,7 +11462,7 @@
         <v>2945491.1141770892</v>
       </c>
     </row>
-    <row r="285" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="285" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B285" s="2" t="s">
         <v>4</v>
       </c>
@@ -11482,7 +11482,7 @@
         <v>2212330.708175201</v>
       </c>
     </row>
-    <row r="286" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="286" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B286" s="2" t="s">
         <v>4</v>
       </c>
@@ -11502,7 +11502,7 @@
         <v>3252112.7950360202</v>
       </c>
     </row>
-    <row r="287" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="287" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B287" s="2" t="s">
         <v>4</v>
       </c>
@@ -11522,7 +11522,7 @@
         <v>267994.09635528113</v>
       </c>
     </row>
-    <row r="288" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="288" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B288" s="2" t="s">
         <v>4</v>
       </c>
@@ -11542,7 +11542,7 @@
         <v>2794568.043879488</v>
       </c>
     </row>
-    <row r="289" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="289" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B289" s="2" t="s">
         <v>4</v>
       </c>
@@ -11562,7 +11562,7 @@
         <v>2221082.1992566017</v>
       </c>
     </row>
-    <row r="290" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="290" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B290" s="2" t="s">
         <v>4</v>
       </c>
@@ -11582,7 +11582,7 @@
         <v>2443083.2019504672</v>
       </c>
     </row>
-    <row r="291" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="291" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B291" s="2" t="s">
         <v>4</v>
       </c>
@@ -11602,7 +11602,7 @@
         <v>2918941.935630559</v>
       </c>
     </row>
-    <row r="292" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="292" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B292" s="2" t="s">
         <v>4</v>
       </c>
@@ -11622,7 +11622,7 @@
         <v>2991707.4988353401</v>
       </c>
     </row>
-    <row r="293" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="293" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B293" s="2" t="s">
         <v>4</v>
       </c>
@@ -11642,7 +11642,7 @@
         <v>2005103.8092936894</v>
       </c>
     </row>
-    <row r="294" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="294" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B294" s="2" t="s">
         <v>4</v>
       </c>
@@ -11662,7 +11662,7 @@
         <v>791402.02969386207</v>
       </c>
     </row>
-    <row r="295" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="295" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B295" s="2" t="s">
         <v>4</v>
       </c>
@@ -11682,7 +11682,7 @@
         <v>1403094.1938092129</v>
       </c>
     </row>
-    <row r="296" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="296" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B296" s="2" t="s">
         <v>4</v>
       </c>
@@ -11702,7 +11702,7 @@
         <v>3266139.91554636</v>
       </c>
     </row>
-    <row r="297" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="297" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B297" s="2" t="s">
         <v>4</v>
       </c>
@@ -11722,7 +11722,7 @@
         <v>2262159.8476570062</v>
       </c>
     </row>
-    <row r="298" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="298" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B298" s="2" t="s">
         <v>4</v>
       </c>
@@ -11742,7 +11742,7 @@
         <v>1502089.4740550639</v>
       </c>
     </row>
-    <row r="299" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="299" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B299" s="2" t="s">
         <v>4</v>
       </c>
@@ -11762,7 +11762,7 @@
         <v>3455185.2199379061</v>
       </c>
     </row>
-    <row r="300" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="300" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B300" s="2" t="s">
         <v>4</v>
       </c>
@@ -11782,7 +11782,7 @@
         <v>539675.79582553834</v>
       </c>
     </row>
-    <row r="301" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="301" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B301" s="2" t="s">
         <v>4</v>
       </c>
@@ -11802,7 +11802,7 @@
         <v>1620668.4988023834</v>
       </c>
     </row>
-    <row r="302" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="302" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B302" s="2" t="s">
         <v>4</v>
       </c>
@@ -11822,7 +11822,7 @@
         <v>19734.707563525513</v>
       </c>
     </row>
-    <row r="303" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="303" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B303" s="2" t="s">
         <v>4</v>
       </c>
@@ -11842,7 +11842,7 @@
         <v>2455382.5423709592</v>
       </c>
     </row>
-    <row r="304" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="304" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B304" s="2" t="s">
         <v>4</v>
       </c>
@@ -11862,7 +11862,7 @@
         <v>3144605.0984390839</v>
       </c>
     </row>
-    <row r="305" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="305" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B305" s="2" t="s">
         <v>4</v>
       </c>
@@ -11882,7 +11882,7 @@
         <v>1987360.6497445418</v>
       </c>
     </row>
-    <row r="306" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="306" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B306" s="2" t="s">
         <v>4</v>
       </c>
@@ -11902,7 +11902,7 @@
         <v>426757.06993987947</v>
       </c>
     </row>
-    <row r="307" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="307" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B307" s="2" t="s">
         <v>4</v>
       </c>
@@ -11922,7 +11922,7 @@
         <v>1778604.2976374626</v>
       </c>
     </row>
-    <row r="308" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="308" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B308" s="2" t="s">
         <v>4</v>
       </c>
@@ -11942,7 +11942,7 @@
         <v>921197.21488608629</v>
       </c>
     </row>
-    <row r="309" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="309" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B309" s="2" t="s">
         <v>4</v>
       </c>
@@ -11962,7 +11962,7 @@
         <v>3165767.6132447431</v>
       </c>
     </row>
-    <row r="310" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="310" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B310" s="2" t="s">
         <v>4</v>
       </c>
@@ -11982,7 +11982,7 @@
         <v>1309014.8628957022</v>
       </c>
     </row>
-    <row r="311" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="311" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B311" s="2" t="s">
         <v>4</v>
       </c>
@@ -12002,7 +12002,7 @@
         <v>1152585.1976863469</v>
       </c>
     </row>
-    <row r="312" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="312" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B312" s="2" t="s">
         <v>4</v>
       </c>
@@ -12022,7 +12022,7 @@
         <v>10210.279807574885</v>
       </c>
     </row>
-    <row r="313" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="313" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B313" s="2" t="s">
         <v>4</v>
       </c>
@@ -12042,7 +12042,7 @@
         <v>2879000.8546603438</v>
       </c>
     </row>
-    <row r="314" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="314" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B314" s="2" t="s">
         <v>4</v>
       </c>
@@ -12062,7 +12062,7 @@
         <v>1343063.513856495</v>
       </c>
     </row>
-    <row r="315" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="315" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B315" s="2" t="s">
         <v>4</v>
       </c>
@@ -12082,7 +12082,7 @@
         <v>2781834.149867408</v>
       </c>
     </row>
-    <row r="316" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="316" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B316" s="2" t="s">
         <v>4</v>
       </c>
@@ -12102,7 +12102,7 @@
         <v>896985.944365673</v>
       </c>
     </row>
-    <row r="317" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="317" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B317" s="2" t="s">
         <v>4</v>
       </c>
@@ -12122,7 +12122,7 @@
         <v>3340031.3913736199</v>
       </c>
     </row>
-    <row r="318" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="318" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B318" s="2" t="s">
         <v>4</v>
       </c>
@@ -12142,7 +12142,7 @@
         <v>2400645.0965383356</v>
       </c>
     </row>
-    <row r="319" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="319" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B319" s="2" t="s">
         <v>4</v>
       </c>
@@ -12162,7 +12162,7 @@
         <v>3076181.1961018452</v>
       </c>
     </row>
-    <row r="320" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="320" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B320" s="2" t="s">
         <v>4</v>
       </c>
@@ -12182,7 +12182,7 @@
         <v>3416357.2859837692</v>
       </c>
     </row>
-    <row r="321" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="321" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B321" s="2" t="s">
         <v>4</v>
       </c>
@@ -12202,7 +12202,7 @@
         <v>2217945.1428468409</v>
       </c>
     </row>
-    <row r="322" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="322" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B322" s="2" t="s">
         <v>4</v>
       </c>
@@ -12222,7 +12222,7 @@
         <v>479527.34590775892</v>
       </c>
     </row>
-    <row r="323" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="323" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B323" s="2" t="s">
         <v>4</v>
       </c>
@@ -12242,7 +12242,7 @@
         <v>1048713.0903441557</v>
       </c>
     </row>
-    <row r="324" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="324" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B324" s="2" t="s">
         <v>4</v>
       </c>
@@ -12262,7 +12262,7 @@
         <v>2195415.8638369543</v>
       </c>
     </row>
-    <row r="325" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="325" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B325" s="2" t="s">
         <v>4</v>
       </c>
@@ -12282,184 +12282,184 @@
         <v>998357.64998804603</v>
       </c>
     </row>
-    <row r="326" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="326" spans="2:7" x14ac:dyDescent="0.2">
       <c r="E326" s="6"/>
     </row>
-    <row r="327" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="327" spans="2:7" x14ac:dyDescent="0.2">
       <c r="E327" s="6"/>
     </row>
-    <row r="328" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="328" spans="2:7" x14ac:dyDescent="0.2">
       <c r="E328" s="6"/>
     </row>
-    <row r="329" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="329" spans="2:7" x14ac:dyDescent="0.2">
       <c r="E329" s="6"/>
     </row>
-    <row r="330" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="330" spans="2:7" x14ac:dyDescent="0.2">
       <c r="E330" s="6"/>
     </row>
-    <row r="331" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="331" spans="2:7" x14ac:dyDescent="0.2">
       <c r="E331" s="6"/>
     </row>
-    <row r="332" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="332" spans="2:7" x14ac:dyDescent="0.2">
       <c r="E332" s="6"/>
     </row>
-    <row r="333" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="333" spans="2:7" x14ac:dyDescent="0.2">
       <c r="E333" s="6"/>
     </row>
-    <row r="334" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="334" spans="2:7" x14ac:dyDescent="0.2">
       <c r="E334" s="6"/>
     </row>
-    <row r="335" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="335" spans="2:7" x14ac:dyDescent="0.2">
       <c r="E335" s="6"/>
     </row>
-    <row r="336" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="336" spans="2:7" x14ac:dyDescent="0.2">
       <c r="E336" s="6"/>
     </row>
-    <row r="337" spans="5:5" x14ac:dyDescent="0.75">
+    <row r="337" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E337" s="6"/>
     </row>
-    <row r="338" spans="5:5" x14ac:dyDescent="0.75">
+    <row r="338" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E338" s="6"/>
     </row>
-    <row r="339" spans="5:5" x14ac:dyDescent="0.75">
+    <row r="339" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E339" s="6"/>
     </row>
-    <row r="340" spans="5:5" x14ac:dyDescent="0.75">
+    <row r="340" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E340" s="6"/>
     </row>
-    <row r="341" spans="5:5" x14ac:dyDescent="0.75">
+    <row r="341" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E341" s="6"/>
     </row>
-    <row r="342" spans="5:5" x14ac:dyDescent="0.75">
+    <row r="342" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E342" s="6"/>
     </row>
-    <row r="343" spans="5:5" x14ac:dyDescent="0.75">
+    <row r="343" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E343" s="6"/>
     </row>
-    <row r="344" spans="5:5" x14ac:dyDescent="0.75">
+    <row r="344" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E344" s="6"/>
     </row>
-    <row r="345" spans="5:5" x14ac:dyDescent="0.75">
+    <row r="345" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E345" s="6"/>
     </row>
-    <row r="346" spans="5:5" x14ac:dyDescent="0.75">
+    <row r="346" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E346" s="6"/>
     </row>
-    <row r="347" spans="5:5" x14ac:dyDescent="0.75">
+    <row r="347" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E347" s="6"/>
     </row>
-    <row r="348" spans="5:5" x14ac:dyDescent="0.75">
+    <row r="348" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E348" s="6"/>
     </row>
-    <row r="349" spans="5:5" x14ac:dyDescent="0.75">
+    <row r="349" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E349" s="6"/>
     </row>
-    <row r="350" spans="5:5" x14ac:dyDescent="0.75">
+    <row r="350" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E350" s="6"/>
     </row>
-    <row r="351" spans="5:5" x14ac:dyDescent="0.75">
+    <row r="351" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E351" s="6"/>
     </row>
-    <row r="352" spans="5:5" x14ac:dyDescent="0.75">
+    <row r="352" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E352" s="6"/>
     </row>
-    <row r="353" spans="5:5" x14ac:dyDescent="0.75">
+    <row r="353" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E353" s="6"/>
     </row>
-    <row r="354" spans="5:5" x14ac:dyDescent="0.75">
+    <row r="354" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E354" s="6"/>
     </row>
-    <row r="355" spans="5:5" x14ac:dyDescent="0.75">
+    <row r="355" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E355" s="6"/>
     </row>
-    <row r="356" spans="5:5" x14ac:dyDescent="0.75">
+    <row r="356" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E356" s="6"/>
     </row>
-    <row r="357" spans="5:5" x14ac:dyDescent="0.75">
+    <row r="357" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E357" s="6"/>
     </row>
-    <row r="358" spans="5:5" x14ac:dyDescent="0.75">
+    <row r="358" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E358" s="6"/>
     </row>
-    <row r="359" spans="5:5" x14ac:dyDescent="0.75">
+    <row r="359" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E359" s="6"/>
     </row>
-    <row r="360" spans="5:5" x14ac:dyDescent="0.75">
+    <row r="360" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E360" s="6"/>
     </row>
-    <row r="361" spans="5:5" x14ac:dyDescent="0.75">
+    <row r="361" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E361" s="6"/>
     </row>
-    <row r="362" spans="5:5" x14ac:dyDescent="0.75">
+    <row r="362" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E362" s="6"/>
     </row>
-    <row r="363" spans="5:5" x14ac:dyDescent="0.75">
+    <row r="363" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E363" s="6"/>
     </row>
-    <row r="364" spans="5:5" x14ac:dyDescent="0.75">
+    <row r="364" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E364" s="6"/>
     </row>
-    <row r="365" spans="5:5" x14ac:dyDescent="0.75">
+    <row r="365" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E365" s="6"/>
     </row>
-    <row r="366" spans="5:5" x14ac:dyDescent="0.75">
+    <row r="366" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E366" s="6"/>
     </row>
-    <row r="367" spans="5:5" x14ac:dyDescent="0.75">
+    <row r="367" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E367" s="6"/>
     </row>
-    <row r="368" spans="5:5" x14ac:dyDescent="0.75">
+    <row r="368" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E368" s="6"/>
     </row>
-    <row r="369" spans="5:5" x14ac:dyDescent="0.75">
+    <row r="369" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E369" s="6"/>
     </row>
-    <row r="370" spans="5:5" x14ac:dyDescent="0.75">
+    <row r="370" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E370" s="6"/>
     </row>
-    <row r="371" spans="5:5" x14ac:dyDescent="0.75">
+    <row r="371" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E371" s="6"/>
     </row>
-    <row r="372" spans="5:5" x14ac:dyDescent="0.75">
+    <row r="372" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E372" s="6"/>
     </row>
-    <row r="373" spans="5:5" x14ac:dyDescent="0.75">
+    <row r="373" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E373" s="6"/>
     </row>
-    <row r="374" spans="5:5" x14ac:dyDescent="0.75">
+    <row r="374" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E374" s="6"/>
     </row>
-    <row r="375" spans="5:5" x14ac:dyDescent="0.75">
+    <row r="375" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E375" s="6"/>
     </row>
-    <row r="376" spans="5:5" x14ac:dyDescent="0.75">
+    <row r="376" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E376" s="6"/>
     </row>
-    <row r="377" spans="5:5" x14ac:dyDescent="0.75">
+    <row r="377" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E377" s="6"/>
     </row>
-    <row r="378" spans="5:5" x14ac:dyDescent="0.75">
+    <row r="378" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E378" s="6"/>
     </row>
-    <row r="379" spans="5:5" x14ac:dyDescent="0.75">
+    <row r="379" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E379" s="6"/>
     </row>
-    <row r="380" spans="5:5" x14ac:dyDescent="0.75">
+    <row r="380" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E380" s="6"/>
     </row>
-    <row r="381" spans="5:5" x14ac:dyDescent="0.75">
+    <row r="381" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E381" s="6"/>
     </row>
-    <row r="382" spans="5:5" x14ac:dyDescent="0.75">
+    <row r="382" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E382" s="6"/>
     </row>
-    <row r="383" spans="5:5" x14ac:dyDescent="0.75">
+    <row r="383" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E383" s="6"/>
     </row>
-    <row r="384" spans="5:5" x14ac:dyDescent="0.75">
+    <row r="384" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E384" s="6"/>
     </row>
-    <row r="385" spans="5:5" x14ac:dyDescent="0.75">
+    <row r="385" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E385" s="6"/>
     </row>
   </sheetData>
@@ -12476,16 +12476,16 @@
       <selection activeCell="E2" sqref="E2:E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="10.1328125" customWidth="1"/>
-    <col min="3" max="4" width="15.453125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.86328125" style="7" customWidth="1"/>
-    <col min="6" max="6" width="14.90625" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.04296875" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.1640625" customWidth="1"/>
+    <col min="3" max="4" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.83203125" style="7" customWidth="1"/>
+    <col min="6" max="6" width="14.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="1" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -12505,7 +12505,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
@@ -12525,7 +12525,7 @@
         <v>1641087.9683632851</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
@@ -12545,7 +12545,7 @@
         <v>3435055.8497275678</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
         <v>5</v>
       </c>
@@ -12565,7 +12565,7 @@
         <v>2541366.853197122</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
         <v>5</v>
       </c>
@@ -12585,7 +12585,7 @@
         <v>3123874.2514166562</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
         <v>5</v>
       </c>
@@ -12605,7 +12605,7 @@
         <v>178416.09090268079</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
         <v>5</v>
       </c>
@@ -12625,7 +12625,7 @@
         <v>3110782.9834343046</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
         <v>5</v>
       </c>
@@ -12645,7 +12645,7 @@
         <v>1201769.0250531388</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="s">
         <v>5</v>
       </c>
@@ -12665,7 +12665,7 @@
         <v>1821340.1453816788</v>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B10" s="2" t="s">
         <v>5</v>
       </c>
@@ -12685,7 +12685,7 @@
         <v>1719377.1199844892</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B11" s="2" t="s">
         <v>5</v>
       </c>
@@ -12705,7 +12705,7 @@
         <v>1356446.68324441</v>
       </c>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B12" s="2" t="s">
         <v>5</v>
       </c>
@@ -12725,7 +12725,7 @@
         <v>2047160.269701072</v>
       </c>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B13" s="2" t="s">
         <v>5</v>
       </c>
@@ -12745,7 +12745,7 @@
         <v>1394144.9555455605</v>
       </c>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B14" s="2" t="s">
         <v>5</v>
       </c>
@@ -12765,7 +12765,7 @@
         <v>2570506.2967795958</v>
       </c>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B15" s="2" t="s">
         <v>5</v>
       </c>
@@ -12785,7 +12785,7 @@
         <v>1537968.0740631425</v>
       </c>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B16" s="2" t="s">
         <v>5</v>
       </c>
@@ -12805,7 +12805,7 @@
         <v>2332621.3449245007</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B17" s="2" t="s">
         <v>5</v>
       </c>
@@ -12825,7 +12825,7 @@
         <v>2741706.3860806054</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B18" s="2" t="s">
         <v>5</v>
       </c>
@@ -12845,7 +12845,7 @@
         <v>1347836.5337635796</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B19" s="2" t="s">
         <v>5</v>
       </c>
@@ -12865,7 +12865,7 @@
         <v>1796052.9913181614</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B20" s="2" t="s">
         <v>5</v>
       </c>
@@ -12885,7 +12885,7 @@
         <v>2184508.5793996076</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B21" s="2" t="s">
         <v>5</v>
       </c>
@@ -12905,7 +12905,7 @@
         <v>2264943.0270913378</v>
       </c>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B22" s="2" t="s">
         <v>5</v>
       </c>
@@ -12925,7 +12925,7 @@
         <v>2349380.8281783476</v>
       </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B23" s="2" t="s">
         <v>5</v>
       </c>
@@ -12945,7 +12945,7 @@
         <v>197858.56941427907</v>
       </c>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B24" s="2" t="s">
         <v>5</v>
       </c>
@@ -12965,7 +12965,7 @@
         <v>2280966.8875507428</v>
       </c>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B25" s="2" t="s">
         <v>5</v>
       </c>
@@ -12985,7 +12985,7 @@
         <v>1708180.6183214043</v>
       </c>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B26" s="2" t="s">
         <v>5</v>
       </c>
@@ -13005,7 +13005,7 @@
         <v>1703335.6800374961</v>
       </c>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B27" s="2" t="s">
         <v>5</v>
       </c>
@@ -13025,7 +13025,7 @@
         <v>350943.14797651605</v>
       </c>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B28" s="2" t="s">
         <v>5</v>
       </c>
@@ -13045,7 +13045,7 @@
         <v>3142291.4992527938</v>
       </c>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B29" s="2" t="s">
         <v>5</v>
       </c>
@@ -13065,7 +13065,7 @@
         <v>2496055.7302380996</v>
       </c>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B30" s="2" t="s">
         <v>5</v>
       </c>
@@ -13085,7 +13085,7 @@
         <v>1086802.1817482372</v>
       </c>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B31" s="2" t="s">
         <v>5</v>
       </c>
@@ -13105,7 +13105,7 @@
         <v>1119353.8416770308</v>
       </c>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B32" s="2" t="s">
         <v>5</v>
       </c>
@@ -13125,7 +13125,7 @@
         <v>1452212.687230913</v>
       </c>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B33" s="2" t="s">
         <v>5</v>
       </c>
@@ -13145,7 +13145,7 @@
         <v>2147222.7571622813</v>
       </c>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B34" s="2" t="s">
         <v>5</v>
       </c>
@@ -13165,7 +13165,7 @@
         <v>2818046.0796433785</v>
       </c>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B35" s="2" t="s">
         <v>5</v>
       </c>
@@ -13185,7 +13185,7 @@
         <v>660800.37448194518</v>
       </c>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B36" s="2" t="s">
         <v>5</v>
       </c>
@@ -13205,7 +13205,7 @@
         <v>187111.69937640219</v>
       </c>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="37" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B37" s="2" t="s">
         <v>5</v>
       </c>
@@ -13225,7 +13225,7 @@
         <v>512908.33549100207</v>
       </c>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="38" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B38" s="2" t="s">
         <v>5</v>
       </c>
@@ -13245,7 +13245,7 @@
         <v>2747540.0161695345</v>
       </c>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="39" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B39" s="2" t="s">
         <v>5</v>
       </c>
@@ -13265,7 +13265,7 @@
         <v>3204681.8190067881</v>
       </c>
     </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="40" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B40" s="2" t="s">
         <v>5</v>
       </c>
@@ -13285,7 +13285,7 @@
         <v>664465.93707807339</v>
       </c>
     </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="41" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B41" s="2" t="s">
         <v>5</v>
       </c>
@@ -13305,7 +13305,7 @@
         <v>1336008.0085658845</v>
       </c>
     </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="42" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B42" s="2" t="s">
         <v>5</v>
       </c>
@@ -13325,7 +13325,7 @@
         <v>1225648.4906214294</v>
       </c>
     </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="43" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B43" s="2" t="s">
         <v>5</v>
       </c>
@@ -13345,7 +13345,7 @@
         <v>2514628.4777782522</v>
       </c>
     </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="44" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B44" s="2" t="s">
         <v>5</v>
       </c>
@@ -13365,7 +13365,7 @@
         <v>2096046.0774965484</v>
       </c>
     </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="45" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B45" s="2" t="s">
         <v>5</v>
       </c>
@@ -13385,7 +13385,7 @@
         <v>2823683.8339148629</v>
       </c>
     </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="46" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B46" s="2" t="s">
         <v>5</v>
       </c>
@@ -13405,7 +13405,7 @@
         <v>1524487.0770321086</v>
       </c>
     </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="47" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B47" s="2" t="s">
         <v>5</v>
       </c>
@@ -13425,7 +13425,7 @@
         <v>2505055.2937230319</v>
       </c>
     </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="48" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B48" s="2" t="s">
         <v>5</v>
       </c>
@@ -13445,7 +13445,7 @@
         <v>398228.42218818481</v>
       </c>
     </row>
-    <row r="49" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="49" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B49" s="2" t="s">
         <v>5</v>
       </c>
@@ -13465,7 +13465,7 @@
         <v>1167984.0412026104</v>
       </c>
     </row>
-    <row r="50" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="50" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B50" s="2" t="s">
         <v>5</v>
       </c>
@@ -13485,7 +13485,7 @@
         <v>2793001.1066497392</v>
       </c>
     </row>
-    <row r="51" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="51" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B51" s="2" t="s">
         <v>5</v>
       </c>
@@ -13505,7 +13505,7 @@
         <v>1864795.5738503016</v>
       </c>
     </row>
-    <row r="52" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="52" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B52" s="2" t="s">
         <v>5</v>
       </c>
@@ -13525,7 +13525,7 @@
         <v>104612.03994649426</v>
       </c>
     </row>
-    <row r="53" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="53" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B53" s="2" t="s">
         <v>5</v>
       </c>
@@ -13545,7 +13545,7 @@
         <v>3336308.3457433442</v>
       </c>
     </row>
-    <row r="54" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="54" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B54" s="2" t="s">
         <v>5</v>
       </c>
@@ -13565,7 +13565,7 @@
         <v>1191130.8453955147</v>
       </c>
     </row>
-    <row r="55" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="55" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B55" s="2" t="s">
         <v>5</v>
       </c>
@@ -13585,7 +13585,7 @@
         <v>17753.455206036022</v>
       </c>
     </row>
-    <row r="56" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="56" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B56" s="2" t="s">
         <v>5</v>
       </c>
@@ -13605,7 +13605,7 @@
         <v>2492734.662589794</v>
       </c>
     </row>
-    <row r="57" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="57" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B57" s="2" t="s">
         <v>5</v>
       </c>
@@ -13625,7 +13625,7 @@
         <v>490841.28988954151</v>
       </c>
     </row>
-    <row r="58" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="58" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B58" s="2" t="s">
         <v>5</v>
       </c>
@@ -13645,7 +13645,7 @@
         <v>403032.80163280654</v>
       </c>
     </row>
-    <row r="59" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="59" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B59" s="2" t="s">
         <v>5</v>
       </c>
@@ -13665,7 +13665,7 @@
         <v>1056698.6387406916</v>
       </c>
     </row>
-    <row r="60" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="60" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B60" s="2" t="s">
         <v>5</v>
       </c>
@@ -13685,7 +13685,7 @@
         <v>2116259.3944857907</v>
       </c>
     </row>
-    <row r="61" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="61" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B61" s="2" t="s">
         <v>5</v>
       </c>
@@ -13705,7 +13705,7 @@
         <v>2402851.4671512269</v>
       </c>
     </row>
-    <row r="62" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="62" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B62" s="2" t="s">
         <v>5</v>
       </c>
@@ -13725,7 +13725,7 @@
         <v>1596860.2459110562</v>
       </c>
     </row>
-    <row r="63" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="63" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B63" s="2" t="s">
         <v>5</v>
       </c>
@@ -13745,7 +13745,7 @@
         <v>2908445.828476931</v>
       </c>
     </row>
-    <row r="64" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="64" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B64" s="2" t="s">
         <v>5</v>
       </c>
@@ -13765,7 +13765,7 @@
         <v>458285.01140719868</v>
       </c>
     </row>
-    <row r="65" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="65" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B65" s="2" t="s">
         <v>5</v>
       </c>
@@ -13785,7 +13785,7 @@
         <v>2499048.8427790557</v>
       </c>
     </row>
-    <row r="66" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="66" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B66" s="2" t="s">
         <v>5</v>
       </c>
@@ -13805,7 +13805,7 @@
         <v>996024.58734757593</v>
       </c>
     </row>
-    <row r="67" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="67" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B67" s="2" t="s">
         <v>5</v>
       </c>
@@ -13825,7 +13825,7 @@
         <v>2075082.0785819176</v>
       </c>
     </row>
-    <row r="68" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="68" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B68" s="2" t="s">
         <v>5</v>
       </c>
@@ -13845,7 +13845,7 @@
         <v>71381.326628122362</v>
       </c>
     </row>
-    <row r="69" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="69" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B69" s="2" t="s">
         <v>5</v>
       </c>
@@ -13865,7 +13865,7 @@
         <v>515670.98031958094</v>
       </c>
     </row>
-    <row r="70" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="70" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B70" s="2" t="s">
         <v>5</v>
       </c>
@@ -13885,7 +13885,7 @@
         <v>342836.35782364249</v>
       </c>
     </row>
-    <row r="71" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="71" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B71" s="2" t="s">
         <v>5</v>
       </c>
@@ -13905,7 +13905,7 @@
         <v>3284987.8797310963</v>
       </c>
     </row>
-    <row r="72" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="72" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B72" s="2" t="s">
         <v>5</v>
       </c>
@@ -13925,7 +13925,7 @@
         <v>1174581.5535848476</v>
       </c>
     </row>
-    <row r="73" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="73" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B73" s="2" t="s">
         <v>5</v>
       </c>
@@ -13945,7 +13945,7 @@
         <v>2868321.1521270177</v>
       </c>
     </row>
-    <row r="74" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="74" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B74" s="2" t="s">
         <v>5</v>
       </c>
@@ -13965,7 +13965,7 @@
         <v>733321.99866808916</v>
       </c>
     </row>
-    <row r="75" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="75" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B75" s="2" t="s">
         <v>5</v>
       </c>
@@ -13985,7 +13985,7 @@
         <v>2236199.2858027918</v>
       </c>
     </row>
-    <row r="76" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="76" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B76" s="2" t="s">
         <v>5</v>
       </c>
@@ -14005,7 +14005,7 @@
         <v>352563.35924481798</v>
       </c>
     </row>
-    <row r="77" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="77" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B77" s="2" t="s">
         <v>5</v>
       </c>
@@ -14025,7 +14025,7 @@
         <v>2731101.7775734742</v>
       </c>
     </row>
-    <row r="78" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="78" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B78" s="2" t="s">
         <v>5</v>
       </c>
@@ -14045,7 +14045,7 @@
         <v>876872.78634944477</v>
       </c>
     </row>
-    <row r="79" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="79" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B79" s="2" t="s">
         <v>5</v>
       </c>
@@ -14065,7 +14065,7 @@
         <v>424726.29887523601</v>
       </c>
     </row>
-    <row r="80" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="80" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B80" s="2" t="s">
         <v>5</v>
       </c>
@@ -14085,7 +14085,7 @@
         <v>1548726.3991219644</v>
       </c>
     </row>
-    <row r="81" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="81" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B81" s="2" t="s">
         <v>5</v>
       </c>
@@ -14105,7 +14105,7 @@
         <v>373407.3450769746</v>
       </c>
     </row>
-    <row r="82" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="82" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B82" s="2" t="s">
         <v>5</v>
       </c>
@@ -14125,7 +14125,7 @@
         <v>2446300.9349763878</v>
       </c>
     </row>
-    <row r="83" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="83" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B83" s="2" t="s">
         <v>2</v>
       </c>
@@ -14145,7 +14145,7 @@
         <v>824971.51675047574</v>
       </c>
     </row>
-    <row r="84" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="84" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B84" s="2" t="s">
         <v>2</v>
       </c>
@@ -14165,7 +14165,7 @@
         <v>2288477.61965831</v>
       </c>
     </row>
-    <row r="85" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="85" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B85" s="2" t="s">
         <v>2</v>
       </c>
@@ -14185,7 +14185,7 @@
         <v>2275125.809807932</v>
       </c>
     </row>
-    <row r="86" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="86" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B86" s="2" t="s">
         <v>2</v>
       </c>
@@ -14205,7 +14205,7 @@
         <v>616019.46525091666</v>
       </c>
     </row>
-    <row r="87" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="87" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B87" s="2" t="s">
         <v>2</v>
       </c>
@@ -14225,7 +14225,7 @@
         <v>545546.43105088605</v>
       </c>
     </row>
-    <row r="88" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="88" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B88" s="2" t="s">
         <v>2</v>
       </c>
@@ -14245,7 +14245,7 @@
         <v>3155274.8518645596</v>
       </c>
     </row>
-    <row r="89" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="89" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B89" s="2" t="s">
         <v>2</v>
       </c>
@@ -14265,7 +14265,7 @@
         <v>3414149.768608606</v>
       </c>
     </row>
-    <row r="90" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="90" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B90" s="2" t="s">
         <v>2</v>
       </c>
@@ -14285,7 +14285,7 @@
         <v>2369860.6854844284</v>
       </c>
     </row>
-    <row r="91" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="91" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B91" s="2" t="s">
         <v>2</v>
       </c>
@@ -14305,7 +14305,7 @@
         <v>976170.13763991569</v>
       </c>
     </row>
-    <row r="92" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="92" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B92" s="2" t="s">
         <v>2</v>
       </c>
@@ -14325,7 +14325,7 @@
         <v>1541.4249196247274</v>
       </c>
     </row>
-    <row r="93" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="93" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B93" s="2" t="s">
         <v>2</v>
       </c>
@@ -14345,7 +14345,7 @@
         <v>1293912.4826305271</v>
       </c>
     </row>
-    <row r="94" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="94" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B94" s="2" t="s">
         <v>2</v>
       </c>
@@ -14365,7 +14365,7 @@
         <v>969268.29219297064</v>
       </c>
     </row>
-    <row r="95" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="95" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B95" s="2" t="s">
         <v>2</v>
       </c>
@@ -14385,7 +14385,7 @@
         <v>2380035.8000159343</v>
       </c>
     </row>
-    <row r="96" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="96" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B96" s="2" t="s">
         <v>2</v>
       </c>
@@ -14405,7 +14405,7 @@
         <v>2176619.1889099143</v>
       </c>
     </row>
-    <row r="97" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="97" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B97" s="2" t="s">
         <v>2</v>
       </c>
@@ -14425,7 +14425,7 @@
         <v>2375873.8531788602</v>
       </c>
     </row>
-    <row r="98" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="98" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B98" s="2" t="s">
         <v>2</v>
       </c>
@@ -14445,7 +14445,7 @@
         <v>906156.70307561837</v>
       </c>
     </row>
-    <row r="99" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="99" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B99" s="2" t="s">
         <v>2</v>
       </c>
@@ -14465,7 +14465,7 @@
         <v>910291.17802527803</v>
       </c>
     </row>
-    <row r="100" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="100" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B100" s="2" t="s">
         <v>2</v>
       </c>
@@ -14485,7 +14485,7 @@
         <v>1704172.784992191</v>
       </c>
     </row>
-    <row r="101" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="101" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B101" s="2" t="s">
         <v>2</v>
       </c>
@@ -14505,7 +14505,7 @@
         <v>1440867.7365615233</v>
       </c>
     </row>
-    <row r="102" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="102" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B102" s="2" t="s">
         <v>2</v>
       </c>
@@ -14525,7 +14525,7 @@
         <v>2354470.2221540045</v>
       </c>
     </row>
-    <row r="103" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="103" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B103" s="2" t="s">
         <v>2</v>
       </c>
@@ -14545,7 +14545,7 @@
         <v>1346137.996111688</v>
       </c>
     </row>
-    <row r="104" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="104" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B104" s="2" t="s">
         <v>2</v>
       </c>
@@ -14565,7 +14565,7 @@
         <v>294581.92457094038</v>
       </c>
     </row>
-    <row r="105" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="105" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B105" s="2" t="s">
         <v>2</v>
       </c>
@@ -14585,7 +14585,7 @@
         <v>1407648.7744060019</v>
       </c>
     </row>
-    <row r="106" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="106" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B106" s="2" t="s">
         <v>2</v>
       </c>
@@ -14605,7 +14605,7 @@
         <v>341839.12831049168</v>
       </c>
     </row>
-    <row r="107" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="107" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B107" s="2" t="s">
         <v>2</v>
       </c>
@@ -14625,7 +14625,7 @@
         <v>1995675.8103829206</v>
       </c>
     </row>
-    <row r="108" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="108" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B108" s="2" t="s">
         <v>2</v>
       </c>
@@ -14645,7 +14645,7 @@
         <v>2102774.5917162253</v>
       </c>
     </row>
-    <row r="109" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="109" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B109" s="2" t="s">
         <v>2</v>
       </c>
@@ -14665,7 +14665,7 @@
         <v>2217284.2360250964</v>
       </c>
     </row>
-    <row r="110" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="110" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B110" s="2" t="s">
         <v>2</v>
       </c>
@@ -14685,7 +14685,7 @@
         <v>290908.31573622761</v>
       </c>
     </row>
-    <row r="111" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="111" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B111" s="2" t="s">
         <v>2</v>
       </c>
@@ -14705,7 +14705,7 @@
         <v>2433049.2210901082</v>
       </c>
     </row>
-    <row r="112" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="112" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B112" s="2" t="s">
         <v>2</v>
       </c>
@@ -14725,7 +14725,7 @@
         <v>2706837.2141118324</v>
       </c>
     </row>
-    <row r="113" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="113" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B113" s="2" t="s">
         <v>2</v>
       </c>
@@ -14745,7 +14745,7 @@
         <v>696718.96624906524</v>
       </c>
     </row>
-    <row r="114" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="114" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B114" s="2" t="s">
         <v>2</v>
       </c>
@@ -14765,7 +14765,7 @@
         <v>985668.25917339942</v>
       </c>
     </row>
-    <row r="115" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="115" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B115" s="2" t="s">
         <v>2</v>
       </c>
@@ -14785,7 +14785,7 @@
         <v>692125.08069042058</v>
       </c>
     </row>
-    <row r="116" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="116" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B116" s="2" t="s">
         <v>2</v>
       </c>
@@ -14805,7 +14805,7 @@
         <v>31456.470453799826</v>
       </c>
     </row>
-    <row r="117" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="117" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B117" s="2" t="s">
         <v>2</v>
       </c>
@@ -14825,7 +14825,7 @@
         <v>262203.54546228203</v>
       </c>
     </row>
-    <row r="118" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="118" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B118" s="2" t="s">
         <v>2</v>
       </c>
@@ -14845,7 +14845,7 @@
         <v>2324768.6382257547</v>
       </c>
     </row>
-    <row r="119" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="119" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B119" s="2" t="s">
         <v>2</v>
       </c>
@@ -14865,7 +14865,7 @@
         <v>2937618.7739000898</v>
       </c>
     </row>
-    <row r="120" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="120" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B120" s="2" t="s">
         <v>2</v>
       </c>
@@ -14885,7 +14885,7 @@
         <v>1990095.1295876296</v>
       </c>
     </row>
-    <row r="121" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="121" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B121" s="2" t="s">
         <v>2</v>
       </c>
@@ -14905,7 +14905,7 @@
         <v>1808162.5047771533</v>
       </c>
     </row>
-    <row r="122" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="122" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B122" s="2" t="s">
         <v>2</v>
       </c>
@@ -14925,7 +14925,7 @@
         <v>2757153.4251167858</v>
       </c>
     </row>
-    <row r="123" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="123" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B123" s="2" t="s">
         <v>2</v>
       </c>
@@ -14945,7 +14945,7 @@
         <v>1766006.4776805674</v>
       </c>
     </row>
-    <row r="124" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="124" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B124" s="2" t="s">
         <v>2</v>
       </c>
@@ -14965,7 +14965,7 @@
         <v>1642200.3025643465</v>
       </c>
     </row>
-    <row r="125" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="125" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B125" s="2" t="s">
         <v>2</v>
       </c>
@@ -14985,7 +14985,7 @@
         <v>3383646.1882937057</v>
       </c>
     </row>
-    <row r="126" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="126" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B126" s="2" t="s">
         <v>2</v>
       </c>
@@ -15005,7 +15005,7 @@
         <v>1010738.3160165336</v>
       </c>
     </row>
-    <row r="127" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="127" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B127" s="2" t="s">
         <v>2</v>
       </c>
@@ -15025,7 +15025,7 @@
         <v>1853969.3251799361</v>
       </c>
     </row>
-    <row r="128" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="128" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B128" s="2" t="s">
         <v>2</v>
       </c>
@@ -15045,7 +15045,7 @@
         <v>429506.51440053782</v>
       </c>
     </row>
-    <row r="129" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="129" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B129" s="2" t="s">
         <v>2</v>
       </c>
@@ -15065,7 +15065,7 @@
         <v>497830.11284425529</v>
       </c>
     </row>
-    <row r="130" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="130" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B130" s="2" t="s">
         <v>2</v>
       </c>
@@ -15085,7 +15085,7 @@
         <v>2145200.9270628309</v>
       </c>
     </row>
-    <row r="131" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="131" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B131" s="2" t="s">
         <v>2</v>
       </c>
@@ -15105,7 +15105,7 @@
         <v>2218323.448379037</v>
       </c>
     </row>
-    <row r="132" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="132" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B132" s="2" t="s">
         <v>2</v>
       </c>
@@ -15125,7 +15125,7 @@
         <v>2358192.9275361337</v>
       </c>
     </row>
-    <row r="133" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="133" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B133" s="2" t="s">
         <v>2</v>
       </c>
@@ -15145,7 +15145,7 @@
         <v>966336.96619513107</v>
       </c>
     </row>
-    <row r="134" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="134" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B134" s="2" t="s">
         <v>2</v>
       </c>
@@ -15165,7 +15165,7 @@
         <v>1729229.1058916179</v>
       </c>
     </row>
-    <row r="135" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="135" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B135" s="2" t="s">
         <v>2</v>
       </c>
@@ -15185,7 +15185,7 @@
         <v>2430728.9555604956</v>
       </c>
     </row>
-    <row r="136" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="136" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B136" s="2" t="s">
         <v>2</v>
       </c>
@@ -15205,7 +15205,7 @@
         <v>1321471.7823144402</v>
       </c>
     </row>
-    <row r="137" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="137" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B137" s="2" t="s">
         <v>2</v>
       </c>
@@ -15225,7 +15225,7 @@
         <v>1914209.4089643832</v>
       </c>
     </row>
-    <row r="138" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="138" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B138" s="2" t="s">
         <v>2</v>
       </c>
@@ -15245,7 +15245,7 @@
         <v>2735964.9506376972</v>
       </c>
     </row>
-    <row r="139" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="139" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B139" s="2" t="s">
         <v>2</v>
       </c>
@@ -15265,7 +15265,7 @@
         <v>1348118.0702024465</v>
       </c>
     </row>
-    <row r="140" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="140" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B140" s="2" t="s">
         <v>2</v>
       </c>
@@ -15285,7 +15285,7 @@
         <v>2156146.8989746561</v>
       </c>
     </row>
-    <row r="141" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="141" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B141" s="2" t="s">
         <v>2</v>
       </c>
@@ -15305,7 +15305,7 @@
         <v>2285563.6526168524</v>
       </c>
     </row>
-    <row r="142" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="142" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B142" s="2" t="s">
         <v>2</v>
       </c>
@@ -15325,7 +15325,7 @@
         <v>2417437.1869062586</v>
       </c>
     </row>
-    <row r="143" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="143" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B143" s="2" t="s">
         <v>2</v>
       </c>
@@ -15345,7 +15345,7 @@
         <v>3323589.271428328</v>
       </c>
     </row>
-    <row r="144" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="144" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B144" s="2" t="s">
         <v>2</v>
       </c>
@@ -15365,7 +15365,7 @@
         <v>953286.5279904051</v>
       </c>
     </row>
-    <row r="145" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="145" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B145" s="2" t="s">
         <v>2</v>
       </c>
@@ -15385,7 +15385,7 @@
         <v>2246300.7366104987</v>
       </c>
     </row>
-    <row r="146" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="146" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B146" s="2" t="s">
         <v>2</v>
       </c>
@@ -15405,7 +15405,7 @@
         <v>1311063.1945452597</v>
       </c>
     </row>
-    <row r="147" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="147" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B147" s="2" t="s">
         <v>2</v>
       </c>
@@ -15425,7 +15425,7 @@
         <v>2552875.6522519081</v>
       </c>
     </row>
-    <row r="148" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="148" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B148" s="2" t="s">
         <v>2</v>
       </c>
@@ -15445,7 +15445,7 @@
         <v>3380596.5756576927</v>
       </c>
     </row>
-    <row r="149" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="149" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B149" s="2" t="s">
         <v>2</v>
       </c>
@@ -15465,7 +15465,7 @@
         <v>1827135.4093416012</v>
       </c>
     </row>
-    <row r="150" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="150" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B150" s="2" t="s">
         <v>2</v>
       </c>
@@ -15485,7 +15485,7 @@
         <v>522876.85638843669</v>
       </c>
     </row>
-    <row r="151" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="151" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B151" s="2" t="s">
         <v>2</v>
       </c>
@@ -15505,7 +15505,7 @@
         <v>1841139.2606592297</v>
       </c>
     </row>
-    <row r="152" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="152" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B152" s="2" t="s">
         <v>2</v>
       </c>
@@ -15525,7 +15525,7 @@
         <v>1377662.4153805973</v>
       </c>
     </row>
-    <row r="153" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="153" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B153" s="2" t="s">
         <v>2</v>
       </c>
@@ -15545,7 +15545,7 @@
         <v>3002909.2428402435</v>
       </c>
     </row>
-    <row r="154" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="154" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B154" s="2" t="s">
         <v>2</v>
       </c>
@@ -15565,7 +15565,7 @@
         <v>3043315.644655773</v>
       </c>
     </row>
-    <row r="155" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="155" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B155" s="2" t="s">
         <v>2</v>
       </c>
@@ -15585,7 +15585,7 @@
         <v>2149457.0785303493</v>
       </c>
     </row>
-    <row r="156" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="156" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B156" s="2" t="s">
         <v>2</v>
       </c>
@@ -15605,7 +15605,7 @@
         <v>3280235.6842707791</v>
       </c>
     </row>
-    <row r="157" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="157" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B157" s="2" t="s">
         <v>2</v>
       </c>
@@ -15625,7 +15625,7 @@
         <v>25928.502917708323</v>
       </c>
     </row>
-    <row r="158" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="158" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B158" s="2" t="s">
         <v>2</v>
       </c>
@@ -15645,7 +15645,7 @@
         <v>1496478.5426791585</v>
       </c>
     </row>
-    <row r="159" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="159" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B159" s="2" t="s">
         <v>2</v>
       </c>
@@ -15665,7 +15665,7 @@
         <v>472368.3799769312</v>
       </c>
     </row>
-    <row r="160" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="160" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B160" s="2" t="s">
         <v>2</v>
       </c>
@@ -15685,7 +15685,7 @@
         <v>1242800.153970795</v>
       </c>
     </row>
-    <row r="161" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="161" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B161" s="2" t="s">
         <v>2</v>
       </c>
@@ -15705,7 +15705,7 @@
         <v>1834459.4460307977</v>
       </c>
     </row>
-    <row r="162" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="162" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B162" s="2" t="s">
         <v>2</v>
       </c>
@@ -15725,7 +15725,7 @@
         <v>2358656.7550701364</v>
       </c>
     </row>
-    <row r="163" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="163" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B163" s="2" t="s">
         <v>2</v>
       </c>
@@ -15745,7 +15745,7 @@
         <v>2575862.8674621433</v>
       </c>
     </row>
-    <row r="164" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="164" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B164" s="2" t="s">
         <v>4</v>
       </c>
@@ -15765,7 +15765,7 @@
         <v>1241977.4150489683</v>
       </c>
     </row>
-    <row r="165" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="165" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B165" s="2" t="s">
         <v>4</v>
       </c>
@@ -15785,7 +15785,7 @@
         <v>2222208.5844459506</v>
       </c>
     </row>
-    <row r="166" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="166" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B166" s="2" t="s">
         <v>4</v>
       </c>
@@ -15805,7 +15805,7 @@
         <v>1961839.7263014445</v>
       </c>
     </row>
-    <row r="167" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="167" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B167" s="2" t="s">
         <v>4</v>
       </c>
@@ -15825,7 +15825,7 @@
         <v>1774543.3036857455</v>
       </c>
     </row>
-    <row r="168" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="168" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B168" s="2" t="s">
         <v>4</v>
       </c>
@@ -15845,7 +15845,7 @@
         <v>1385634.776010996</v>
       </c>
     </row>
-    <row r="169" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="169" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B169" s="2" t="s">
         <v>4</v>
       </c>
@@ -15865,7 +15865,7 @@
         <v>1070216.6724126025</v>
       </c>
     </row>
-    <row r="170" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="170" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B170" s="2" t="s">
         <v>4</v>
       </c>
@@ -15885,7 +15885,7 @@
         <v>2333411.0923778634</v>
       </c>
     </row>
-    <row r="171" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="171" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B171" s="2" t="s">
         <v>4</v>
       </c>
@@ -15905,7 +15905,7 @@
         <v>17505.886873832362</v>
       </c>
     </row>
-    <row r="172" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="172" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B172" s="2" t="s">
         <v>4</v>
       </c>
@@ -15925,7 +15925,7 @@
         <v>1922319.5385898096</v>
       </c>
     </row>
-    <row r="173" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="173" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B173" s="2" t="s">
         <v>4</v>
       </c>
@@ -15945,7 +15945,7 @@
         <v>360063.87130619551</v>
       </c>
     </row>
-    <row r="174" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="174" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B174" s="2" t="s">
         <v>4</v>
       </c>
@@ -15965,7 +15965,7 @@
         <v>2805204.7932347171</v>
       </c>
     </row>
-    <row r="175" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="175" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B175" s="2" t="s">
         <v>4</v>
       </c>
@@ -15985,7 +15985,7 @@
         <v>622475.09415590554</v>
       </c>
     </row>
-    <row r="176" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="176" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B176" s="2" t="s">
         <v>4</v>
       </c>
@@ -16005,7 +16005,7 @@
         <v>2473692.3663060577</v>
       </c>
     </row>
-    <row r="177" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="177" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B177" s="2" t="s">
         <v>4</v>
       </c>
@@ -16025,7 +16025,7 @@
         <v>642421.52427927183</v>
       </c>
     </row>
-    <row r="178" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="178" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B178" s="2" t="s">
         <v>4</v>
       </c>
@@ -16045,7 +16045,7 @@
         <v>2456598.6144514689</v>
       </c>
     </row>
-    <row r="179" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="179" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B179" s="2" t="s">
         <v>4</v>
       </c>
@@ -16065,7 +16065,7 @@
         <v>699433.44706218597</v>
       </c>
     </row>
-    <row r="180" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="180" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B180" s="2" t="s">
         <v>4</v>
       </c>
@@ -16085,7 +16085,7 @@
         <v>328624.49517133052</v>
       </c>
     </row>
-    <row r="181" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="181" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B181" s="2" t="s">
         <v>4</v>
       </c>
@@ -16105,7 +16105,7 @@
         <v>2862119.6066761552</v>
       </c>
     </row>
-    <row r="182" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="182" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B182" s="2" t="s">
         <v>4</v>
       </c>
@@ -16125,7 +16125,7 @@
         <v>820862.85025284614</v>
       </c>
     </row>
-    <row r="183" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="183" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B183" s="2" t="s">
         <v>4</v>
       </c>
@@ -16145,7 +16145,7 @@
         <v>2199918.0336173405</v>
       </c>
     </row>
-    <row r="184" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="184" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B184" s="2" t="s">
         <v>4</v>
       </c>
@@ -16165,7 +16165,7 @@
         <v>1393625.2454038786</v>
       </c>
     </row>
-    <row r="185" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="185" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B185" s="2" t="s">
         <v>4</v>
       </c>
@@ -16185,7 +16185,7 @@
         <v>1686536.9737333839</v>
       </c>
     </row>
-    <row r="186" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="186" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B186" s="2" t="s">
         <v>4</v>
       </c>
@@ -16205,7 +16205,7 @@
         <v>506833.70889981766</v>
       </c>
     </row>
-    <row r="187" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="187" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B187" s="2" t="s">
         <v>4</v>
       </c>
@@ -16225,7 +16225,7 @@
         <v>2301797.880944402</v>
       </c>
     </row>
-    <row r="188" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="188" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B188" s="2" t="s">
         <v>4</v>
       </c>
@@ -16245,7 +16245,7 @@
         <v>1927955.0245403145</v>
       </c>
     </row>
-    <row r="189" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="189" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B189" s="2" t="s">
         <v>4</v>
       </c>
@@ -16265,7 +16265,7 @@
         <v>2127229.6500338768</v>
       </c>
     </row>
-    <row r="190" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="190" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B190" s="2" t="s">
         <v>4</v>
       </c>
@@ -16285,7 +16285,7 @@
         <v>3346292.1337011466</v>
       </c>
     </row>
-    <row r="191" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="191" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B191" s="2" t="s">
         <v>4</v>
       </c>
@@ -16305,7 +16305,7 @@
         <v>1360014.0086394646</v>
       </c>
     </row>
-    <row r="192" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="192" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B192" s="2" t="s">
         <v>4</v>
       </c>
@@ -16325,7 +16325,7 @@
         <v>1005816.3052264659</v>
       </c>
     </row>
-    <row r="193" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="193" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B193" s="2" t="s">
         <v>4</v>
       </c>
@@ -16345,7 +16345,7 @@
         <v>1903778.6546585227</v>
       </c>
     </row>
-    <row r="194" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="194" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B194" s="2" t="s">
         <v>4</v>
       </c>
@@ -16365,7 +16365,7 @@
         <v>2291740.8514225376</v>
       </c>
     </row>
-    <row r="195" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="195" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B195" s="2" t="s">
         <v>4</v>
       </c>
@@ -16385,7 +16385,7 @@
         <v>338819.82296311756</v>
       </c>
     </row>
-    <row r="196" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="196" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B196" s="2" t="s">
         <v>4</v>
       </c>
@@ -16405,7 +16405,7 @@
         <v>453541.70020404988</v>
       </c>
     </row>
-    <row r="197" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="197" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B197" s="2" t="s">
         <v>4</v>
       </c>
@@ -16425,7 +16425,7 @@
         <v>2179596.0451505198</v>
       </c>
     </row>
-    <row r="198" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="198" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B198" s="2" t="s">
         <v>4</v>
       </c>
@@ -16445,7 +16445,7 @@
         <v>2897596.6445611101</v>
       </c>
     </row>
-    <row r="199" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="199" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B199" s="2" t="s">
         <v>4</v>
       </c>
@@ -16465,7 +16465,7 @@
         <v>723783.16077302909</v>
       </c>
     </row>
-    <row r="200" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="200" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B200" s="2" t="s">
         <v>4</v>
       </c>
@@ -16485,7 +16485,7 @@
         <v>2899653.513918797</v>
       </c>
     </row>
-    <row r="201" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="201" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B201" s="2" t="s">
         <v>4</v>
       </c>
@@ -16505,7 +16505,7 @@
         <v>3265625.3280295567</v>
       </c>
     </row>
-    <row r="202" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="202" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B202" s="2" t="s">
         <v>4</v>
       </c>
@@ -16525,7 +16525,7 @@
         <v>547750.70346687105</v>
       </c>
     </row>
-    <row r="203" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="203" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B203" s="2" t="s">
         <v>4</v>
       </c>
@@ -16545,7 +16545,7 @@
         <v>20302.14065825288</v>
       </c>
     </row>
-    <row r="204" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="204" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B204" s="2" t="s">
         <v>4</v>
       </c>
@@ -16565,7 +16565,7 @@
         <v>3309912.9908636608</v>
       </c>
     </row>
-    <row r="205" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="205" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B205" s="2" t="s">
         <v>4</v>
       </c>
@@ -16585,7 +16585,7 @@
         <v>2169220.6441774433</v>
       </c>
     </row>
-    <row r="206" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="206" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B206" s="2" t="s">
         <v>4</v>
       </c>
@@ -16605,7 +16605,7 @@
         <v>1604548.1401879895</v>
       </c>
     </row>
-    <row r="207" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="207" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B207" s="2" t="s">
         <v>4</v>
       </c>
@@ -16625,7 +16625,7 @@
         <v>1027966.4910927055</v>
       </c>
     </row>
-    <row r="208" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="208" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B208" s="2" t="s">
         <v>4</v>
       </c>
@@ -16645,7 +16645,7 @@
         <v>1088888.1675260491</v>
       </c>
     </row>
-    <row r="209" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="209" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B209" s="2" t="s">
         <v>4</v>
       </c>
@@ -16665,7 +16665,7 @@
         <v>3452759.94374874</v>
       </c>
     </row>
-    <row r="210" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="210" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B210" s="2" t="s">
         <v>4</v>
       </c>
@@ -16685,7 +16685,7 @@
         <v>3203945.1880696877</v>
       </c>
     </row>
-    <row r="211" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="211" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B211" s="2" t="s">
         <v>4</v>
       </c>
@@ -16705,7 +16705,7 @@
         <v>2122449.2832871764</v>
       </c>
     </row>
-    <row r="212" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="212" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B212" s="2" t="s">
         <v>4</v>
       </c>
@@ -16725,7 +16725,7 @@
         <v>2597819.9373014634</v>
       </c>
     </row>
-    <row r="213" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="213" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B213" s="2" t="s">
         <v>4</v>
       </c>
@@ -16745,7 +16745,7 @@
         <v>547613.97411895881</v>
       </c>
     </row>
-    <row r="214" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="214" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B214" s="2" t="s">
         <v>4</v>
       </c>
@@ -16765,7 +16765,7 @@
         <v>201099.50862399477</v>
       </c>
     </row>
-    <row r="215" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="215" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B215" s="2" t="s">
         <v>4</v>
       </c>
@@ -16785,7 +16785,7 @@
         <v>2945491.1141770892</v>
       </c>
     </row>
-    <row r="216" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="216" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B216" s="2" t="s">
         <v>4</v>
       </c>
@@ -16805,7 +16805,7 @@
         <v>2212330.708175201</v>
       </c>
     </row>
-    <row r="217" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="217" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B217" s="2" t="s">
         <v>4</v>
       </c>
@@ -16825,7 +16825,7 @@
         <v>3252112.7950360202</v>
       </c>
     </row>
-    <row r="218" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="218" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B218" s="2" t="s">
         <v>4</v>
       </c>
@@ -16845,7 +16845,7 @@
         <v>2443083.2019504672</v>
       </c>
     </row>
-    <row r="219" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="219" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B219" s="2" t="s">
         <v>4</v>
       </c>
@@ -16865,7 +16865,7 @@
         <v>2918941.935630559</v>
       </c>
     </row>
-    <row r="220" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="220" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B220" s="2" t="s">
         <v>4</v>
       </c>
@@ -16885,7 +16885,7 @@
         <v>2991707.4988353401</v>
       </c>
     </row>
-    <row r="221" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="221" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B221" s="2" t="s">
         <v>4</v>
       </c>
@@ -16905,7 +16905,7 @@
         <v>2005103.8092936894</v>
       </c>
     </row>
-    <row r="222" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="222" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B222" s="2" t="s">
         <v>4</v>
       </c>
@@ -16925,7 +16925,7 @@
         <v>791402.02969386207</v>
       </c>
     </row>
-    <row r="223" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="223" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B223" s="2" t="s">
         <v>4</v>
       </c>
@@ -16945,7 +16945,7 @@
         <v>1403094.1938092129</v>
       </c>
     </row>
-    <row r="224" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="224" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B224" s="2" t="s">
         <v>4</v>
       </c>
@@ -16965,7 +16965,7 @@
         <v>3266139.91554636</v>
       </c>
     </row>
-    <row r="225" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="225" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B225" s="2" t="s">
         <v>4</v>
       </c>
@@ -16985,7 +16985,7 @@
         <v>2262159.8476570062</v>
       </c>
     </row>
-    <row r="226" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="226" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B226" s="2" t="s">
         <v>4</v>
       </c>
@@ -17005,7 +17005,7 @@
         <v>1502089.4740550639</v>
       </c>
     </row>
-    <row r="227" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="227" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B227" s="2" t="s">
         <v>4</v>
       </c>
@@ -17025,7 +17025,7 @@
         <v>19734.707563525513</v>
       </c>
     </row>
-    <row r="228" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="228" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B228" s="2" t="s">
         <v>4</v>
       </c>
@@ -17045,7 +17045,7 @@
         <v>2455382.5423709592</v>
       </c>
     </row>
-    <row r="229" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="229" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B229" s="2" t="s">
         <v>4</v>
       </c>
@@ -17065,7 +17065,7 @@
         <v>3144605.0984390839</v>
       </c>
     </row>
-    <row r="230" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="230" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B230" s="2" t="s">
         <v>4</v>
       </c>
@@ -17085,7 +17085,7 @@
         <v>1987360.6497445418</v>
       </c>
     </row>
-    <row r="231" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="231" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B231" s="2" t="s">
         <v>4</v>
       </c>
@@ -17105,7 +17105,7 @@
         <v>426757.06993987947</v>
       </c>
     </row>
-    <row r="232" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="232" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B232" s="2" t="s">
         <v>4</v>
       </c>
@@ -17125,7 +17125,7 @@
         <v>1778604.2976374626</v>
       </c>
     </row>
-    <row r="233" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="233" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B233" s="2" t="s">
         <v>4</v>
       </c>
@@ -17145,7 +17145,7 @@
         <v>921197.21488608629</v>
       </c>
     </row>
-    <row r="234" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="234" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B234" s="2" t="s">
         <v>4</v>
       </c>
@@ -17165,7 +17165,7 @@
         <v>3165767.6132447431</v>
       </c>
     </row>
-    <row r="235" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="235" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B235" s="2" t="s">
         <v>4</v>
       </c>
@@ -17185,7 +17185,7 @@
         <v>1309014.8628957022</v>
       </c>
     </row>
-    <row r="236" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="236" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B236" s="2" t="s">
         <v>4</v>
       </c>
@@ -17205,7 +17205,7 @@
         <v>1343063.513856495</v>
       </c>
     </row>
-    <row r="237" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="237" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B237" s="2" t="s">
         <v>4</v>
       </c>
@@ -17225,7 +17225,7 @@
         <v>2781834.149867408</v>
       </c>
     </row>
-    <row r="238" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="238" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B238" s="2" t="s">
         <v>4</v>
       </c>
@@ -17245,7 +17245,7 @@
         <v>896985.944365673</v>
       </c>
     </row>
-    <row r="239" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="239" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B239" s="2" t="s">
         <v>4</v>
       </c>
@@ -17265,7 +17265,7 @@
         <v>3340031.3913736199</v>
       </c>
     </row>
-    <row r="240" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="240" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B240" s="2" t="s">
         <v>4</v>
       </c>
@@ -17285,7 +17285,7 @@
         <v>2400645.0965383356</v>
       </c>
     </row>
-    <row r="241" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="241" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B241" s="2" t="s">
         <v>4</v>
       </c>
@@ -17305,7 +17305,7 @@
         <v>3076181.1961018452</v>
       </c>
     </row>
-    <row r="242" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="242" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B242" s="2" t="s">
         <v>4</v>
       </c>
@@ -17325,7 +17325,7 @@
         <v>3416357.2859837692</v>
       </c>
     </row>
-    <row r="243" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="243" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B243" s="2" t="s">
         <v>4</v>
       </c>
@@ -17345,7 +17345,7 @@
         <v>2217945.1428468409</v>
       </c>
     </row>
-    <row r="244" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="244" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B244" s="2" t="s">
         <v>4</v>
       </c>
@@ -17365,670 +17365,670 @@
         <v>479527.34590775892</v>
       </c>
     </row>
-    <row r="245" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="245" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B245" s="2"/>
       <c r="C245" s="2"/>
       <c r="D245" s="3"/>
       <c r="E245" s="6"/>
     </row>
-    <row r="246" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="246" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B246" s="2"/>
       <c r="C246" s="2"/>
       <c r="D246" s="3"/>
       <c r="E246" s="6"/>
     </row>
-    <row r="247" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="247" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B247" s="2"/>
       <c r="C247" s="2"/>
       <c r="D247" s="3"/>
       <c r="E247" s="6"/>
     </row>
-    <row r="248" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="248" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B248" s="2"/>
       <c r="C248" s="2"/>
       <c r="D248" s="3"/>
       <c r="E248" s="6"/>
     </row>
-    <row r="249" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="249" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B249" s="2"/>
       <c r="C249" s="2"/>
       <c r="D249" s="3"/>
       <c r="E249" s="6"/>
     </row>
-    <row r="250" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="250" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B250" s="2"/>
       <c r="C250" s="2"/>
       <c r="D250" s="3"/>
       <c r="E250" s="6"/>
     </row>
-    <row r="251" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="251" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B251" s="2"/>
       <c r="C251" s="2"/>
       <c r="D251" s="3"/>
       <c r="E251" s="6"/>
     </row>
-    <row r="252" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="252" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B252" s="2"/>
       <c r="C252" s="2"/>
       <c r="D252" s="3"/>
       <c r="E252" s="6"/>
     </row>
-    <row r="253" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="253" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B253" s="2"/>
       <c r="C253" s="2"/>
       <c r="D253" s="3"/>
       <c r="E253" s="6"/>
     </row>
-    <row r="254" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="254" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B254" s="2"/>
       <c r="C254" s="2"/>
       <c r="D254" s="3"/>
       <c r="E254" s="6"/>
     </row>
-    <row r="255" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="255" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B255" s="2"/>
       <c r="C255" s="2"/>
       <c r="D255" s="3"/>
       <c r="E255" s="6"/>
     </row>
-    <row r="256" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="256" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B256" s="2"/>
       <c r="C256" s="2"/>
       <c r="D256" s="3"/>
       <c r="E256" s="6"/>
     </row>
-    <row r="257" spans="2:5" x14ac:dyDescent="0.75">
+    <row r="257" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B257" s="2"/>
       <c r="C257" s="2"/>
       <c r="D257" s="3"/>
       <c r="E257" s="6"/>
     </row>
-    <row r="258" spans="2:5" x14ac:dyDescent="0.75">
+    <row r="258" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B258" s="2"/>
       <c r="C258" s="2"/>
       <c r="D258" s="3"/>
       <c r="E258" s="6"/>
     </row>
-    <row r="259" spans="2:5" x14ac:dyDescent="0.75">
+    <row r="259" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B259" s="2"/>
       <c r="C259" s="2"/>
       <c r="D259" s="3"/>
       <c r="E259" s="6"/>
     </row>
-    <row r="260" spans="2:5" x14ac:dyDescent="0.75">
+    <row r="260" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B260" s="2"/>
       <c r="C260" s="2"/>
       <c r="D260" s="3"/>
       <c r="E260" s="6"/>
     </row>
-    <row r="261" spans="2:5" x14ac:dyDescent="0.75">
+    <row r="261" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B261" s="2"/>
       <c r="C261" s="2"/>
       <c r="D261" s="3"/>
       <c r="E261" s="6"/>
     </row>
-    <row r="262" spans="2:5" x14ac:dyDescent="0.75">
+    <row r="262" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B262" s="2"/>
       <c r="C262" s="2"/>
       <c r="D262" s="3"/>
       <c r="E262" s="6"/>
     </row>
-    <row r="263" spans="2:5" x14ac:dyDescent="0.75">
+    <row r="263" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B263" s="2"/>
       <c r="C263" s="2"/>
       <c r="D263" s="3"/>
       <c r="E263" s="6"/>
     </row>
-    <row r="264" spans="2:5" x14ac:dyDescent="0.75">
+    <row r="264" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B264" s="2"/>
       <c r="C264" s="2"/>
       <c r="D264" s="3"/>
       <c r="E264" s="6"/>
     </row>
-    <row r="265" spans="2:5" x14ac:dyDescent="0.75">
+    <row r="265" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B265" s="2"/>
       <c r="C265" s="2"/>
       <c r="D265" s="3"/>
       <c r="E265" s="6"/>
     </row>
-    <row r="266" spans="2:5" x14ac:dyDescent="0.75">
+    <row r="266" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B266" s="2"/>
       <c r="C266" s="2"/>
       <c r="D266" s="3"/>
       <c r="E266" s="6"/>
     </row>
-    <row r="267" spans="2:5" x14ac:dyDescent="0.75">
+    <row r="267" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B267" s="2"/>
       <c r="C267" s="2"/>
       <c r="D267" s="3"/>
       <c r="E267" s="6"/>
     </row>
-    <row r="268" spans="2:5" x14ac:dyDescent="0.75">
+    <row r="268" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B268" s="2"/>
       <c r="C268" s="2"/>
       <c r="D268" s="3"/>
       <c r="E268" s="6"/>
     </row>
-    <row r="269" spans="2:5" x14ac:dyDescent="0.75">
+    <row r="269" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B269" s="2"/>
       <c r="C269" s="2"/>
       <c r="D269" s="3"/>
       <c r="E269" s="6"/>
     </row>
-    <row r="270" spans="2:5" x14ac:dyDescent="0.75">
+    <row r="270" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B270" s="2"/>
       <c r="C270" s="2"/>
       <c r="D270" s="3"/>
       <c r="E270" s="6"/>
     </row>
-    <row r="271" spans="2:5" x14ac:dyDescent="0.75">
+    <row r="271" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B271" s="2"/>
       <c r="C271" s="2"/>
       <c r="D271" s="3"/>
       <c r="E271" s="6"/>
     </row>
-    <row r="272" spans="2:5" x14ac:dyDescent="0.75">
+    <row r="272" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B272" s="2"/>
       <c r="C272" s="2"/>
       <c r="D272" s="3"/>
       <c r="E272" s="6"/>
     </row>
-    <row r="273" spans="2:5" x14ac:dyDescent="0.75">
+    <row r="273" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B273" s="2"/>
       <c r="C273" s="2"/>
       <c r="D273" s="3"/>
       <c r="E273" s="6"/>
     </row>
-    <row r="274" spans="2:5" x14ac:dyDescent="0.75">
+    <row r="274" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B274" s="2"/>
       <c r="C274" s="2"/>
       <c r="D274" s="3"/>
       <c r="E274" s="6"/>
     </row>
-    <row r="275" spans="2:5" x14ac:dyDescent="0.75">
+    <row r="275" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B275" s="2"/>
       <c r="C275" s="2"/>
       <c r="D275" s="3"/>
       <c r="E275" s="6"/>
     </row>
-    <row r="276" spans="2:5" x14ac:dyDescent="0.75">
+    <row r="276" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B276" s="2"/>
       <c r="C276" s="2"/>
       <c r="D276" s="3"/>
       <c r="E276" s="6"/>
     </row>
-    <row r="277" spans="2:5" x14ac:dyDescent="0.75">
+    <row r="277" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B277" s="2"/>
       <c r="C277" s="2"/>
       <c r="D277" s="3"/>
       <c r="E277" s="6"/>
     </row>
-    <row r="278" spans="2:5" x14ac:dyDescent="0.75">
+    <row r="278" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B278" s="2"/>
       <c r="C278" s="2"/>
       <c r="D278" s="3"/>
       <c r="E278" s="6"/>
     </row>
-    <row r="279" spans="2:5" x14ac:dyDescent="0.75">
+    <row r="279" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B279" s="2"/>
       <c r="C279" s="2"/>
       <c r="D279" s="3"/>
       <c r="E279" s="6"/>
     </row>
-    <row r="280" spans="2:5" x14ac:dyDescent="0.75">
+    <row r="280" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B280" s="2"/>
       <c r="C280" s="2"/>
       <c r="D280" s="3"/>
       <c r="E280" s="6"/>
     </row>
-    <row r="281" spans="2:5" x14ac:dyDescent="0.75">
+    <row r="281" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B281" s="2"/>
       <c r="C281" s="2"/>
       <c r="D281" s="3"/>
       <c r="E281" s="6"/>
     </row>
-    <row r="282" spans="2:5" x14ac:dyDescent="0.75">
+    <row r="282" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B282" s="2"/>
       <c r="C282" s="2"/>
       <c r="D282" s="3"/>
       <c r="E282" s="6"/>
     </row>
-    <row r="283" spans="2:5" x14ac:dyDescent="0.75">
+    <row r="283" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B283" s="2"/>
       <c r="C283" s="2"/>
       <c r="D283" s="3"/>
       <c r="E283" s="6"/>
     </row>
-    <row r="284" spans="2:5" x14ac:dyDescent="0.75">
+    <row r="284" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B284" s="2"/>
       <c r="C284" s="2"/>
       <c r="D284" s="3"/>
       <c r="E284" s="6"/>
     </row>
-    <row r="285" spans="2:5" x14ac:dyDescent="0.75">
+    <row r="285" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B285" s="2"/>
       <c r="C285" s="2"/>
       <c r="D285" s="3"/>
       <c r="E285" s="6"/>
     </row>
-    <row r="286" spans="2:5" x14ac:dyDescent="0.75">
+    <row r="286" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B286" s="2"/>
       <c r="C286" s="2"/>
       <c r="D286" s="3"/>
       <c r="E286" s="6"/>
     </row>
-    <row r="287" spans="2:5" x14ac:dyDescent="0.75">
+    <row r="287" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B287" s="2"/>
       <c r="C287" s="2"/>
       <c r="D287" s="3"/>
       <c r="E287" s="6"/>
     </row>
-    <row r="288" spans="2:5" x14ac:dyDescent="0.75">
+    <row r="288" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B288" s="2"/>
       <c r="C288" s="2"/>
       <c r="D288" s="3"/>
       <c r="E288" s="6"/>
     </row>
-    <row r="289" spans="2:5" x14ac:dyDescent="0.75">
+    <row r="289" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B289" s="2"/>
       <c r="C289" s="2"/>
       <c r="D289" s="3"/>
       <c r="E289" s="6"/>
     </row>
-    <row r="290" spans="2:5" x14ac:dyDescent="0.75">
+    <row r="290" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B290" s="2"/>
       <c r="C290" s="2"/>
       <c r="D290" s="3"/>
       <c r="E290" s="6"/>
     </row>
-    <row r="291" spans="2:5" x14ac:dyDescent="0.75">
+    <row r="291" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B291" s="2"/>
       <c r="C291" s="2"/>
       <c r="D291" s="3"/>
       <c r="E291" s="6"/>
     </row>
-    <row r="292" spans="2:5" x14ac:dyDescent="0.75">
+    <row r="292" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B292" s="2"/>
       <c r="C292" s="2"/>
       <c r="D292" s="3"/>
       <c r="E292" s="6"/>
     </row>
-    <row r="293" spans="2:5" x14ac:dyDescent="0.75">
+    <row r="293" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B293" s="2"/>
       <c r="C293" s="2"/>
       <c r="D293" s="3"/>
       <c r="E293" s="6"/>
     </row>
-    <row r="294" spans="2:5" x14ac:dyDescent="0.75">
+    <row r="294" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B294" s="2"/>
       <c r="C294" s="2"/>
       <c r="D294" s="3"/>
       <c r="E294" s="6"/>
     </row>
-    <row r="295" spans="2:5" x14ac:dyDescent="0.75">
+    <row r="295" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B295" s="2"/>
       <c r="C295" s="2"/>
       <c r="D295" s="3"/>
       <c r="E295" s="6"/>
     </row>
-    <row r="296" spans="2:5" x14ac:dyDescent="0.75">
+    <row r="296" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B296" s="2"/>
       <c r="C296" s="2"/>
       <c r="D296" s="3"/>
       <c r="E296" s="6"/>
     </row>
-    <row r="297" spans="2:5" x14ac:dyDescent="0.75">
+    <row r="297" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B297" s="2"/>
       <c r="C297" s="2"/>
       <c r="D297" s="3"/>
       <c r="E297" s="6"/>
     </row>
-    <row r="298" spans="2:5" x14ac:dyDescent="0.75">
+    <row r="298" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B298" s="2"/>
       <c r="C298" s="2"/>
       <c r="D298" s="3"/>
       <c r="E298" s="6"/>
     </row>
-    <row r="299" spans="2:5" x14ac:dyDescent="0.75">
+    <row r="299" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B299" s="2"/>
       <c r="C299" s="2"/>
       <c r="D299" s="3"/>
       <c r="E299" s="6"/>
     </row>
-    <row r="300" spans="2:5" x14ac:dyDescent="0.75">
+    <row r="300" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B300" s="2"/>
       <c r="C300" s="2"/>
       <c r="D300" s="3"/>
       <c r="E300" s="6"/>
     </row>
-    <row r="301" spans="2:5" x14ac:dyDescent="0.75">
+    <row r="301" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B301" s="2"/>
       <c r="C301" s="2"/>
       <c r="D301" s="3"/>
       <c r="E301" s="6"/>
     </row>
-    <row r="302" spans="2:5" x14ac:dyDescent="0.75">
+    <row r="302" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B302" s="2"/>
       <c r="C302" s="2"/>
       <c r="D302" s="3"/>
       <c r="E302" s="6"/>
     </row>
-    <row r="303" spans="2:5" x14ac:dyDescent="0.75">
+    <row r="303" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B303" s="2"/>
       <c r="C303" s="2"/>
       <c r="D303" s="3"/>
       <c r="E303" s="6"/>
     </row>
-    <row r="304" spans="2:5" x14ac:dyDescent="0.75">
+    <row r="304" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B304" s="2"/>
       <c r="C304" s="2"/>
       <c r="D304" s="3"/>
       <c r="E304" s="6"/>
     </row>
-    <row r="305" spans="2:5" x14ac:dyDescent="0.75">
+    <row r="305" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B305" s="2"/>
       <c r="C305" s="2"/>
       <c r="D305" s="3"/>
       <c r="E305" s="6"/>
     </row>
-    <row r="306" spans="2:5" x14ac:dyDescent="0.75">
+    <row r="306" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B306" s="2"/>
       <c r="C306" s="2"/>
       <c r="D306" s="3"/>
       <c r="E306" s="6"/>
     </row>
-    <row r="307" spans="2:5" x14ac:dyDescent="0.75">
+    <row r="307" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B307" s="2"/>
       <c r="C307" s="2"/>
       <c r="D307" s="3"/>
       <c r="E307" s="6"/>
     </row>
-    <row r="308" spans="2:5" x14ac:dyDescent="0.75">
+    <row r="308" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B308" s="2"/>
       <c r="C308" s="2"/>
       <c r="D308" s="3"/>
       <c r="E308" s="6"/>
     </row>
-    <row r="309" spans="2:5" x14ac:dyDescent="0.75">
+    <row r="309" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B309" s="2"/>
       <c r="C309" s="2"/>
       <c r="D309" s="3"/>
       <c r="E309" s="6"/>
     </row>
-    <row r="310" spans="2:5" x14ac:dyDescent="0.75">
+    <row r="310" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B310" s="2"/>
       <c r="C310" s="2"/>
       <c r="D310" s="3"/>
       <c r="E310" s="6"/>
     </row>
-    <row r="311" spans="2:5" x14ac:dyDescent="0.75">
+    <row r="311" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B311" s="2"/>
       <c r="C311" s="2"/>
       <c r="D311" s="3"/>
       <c r="E311" s="6"/>
     </row>
-    <row r="312" spans="2:5" x14ac:dyDescent="0.75">
+    <row r="312" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B312" s="2"/>
       <c r="C312" s="2"/>
       <c r="D312" s="3"/>
       <c r="E312" s="6"/>
     </row>
-    <row r="313" spans="2:5" x14ac:dyDescent="0.75">
+    <row r="313" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B313" s="2"/>
       <c r="C313" s="2"/>
       <c r="D313" s="3"/>
       <c r="E313" s="6"/>
     </row>
-    <row r="314" spans="2:5" x14ac:dyDescent="0.75">
+    <row r="314" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B314" s="2"/>
       <c r="C314" s="2"/>
       <c r="D314" s="3"/>
       <c r="E314" s="6"/>
     </row>
-    <row r="315" spans="2:5" x14ac:dyDescent="0.75">
+    <row r="315" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B315" s="2"/>
       <c r="C315" s="2"/>
       <c r="D315" s="3"/>
       <c r="E315" s="6"/>
     </row>
-    <row r="316" spans="2:5" x14ac:dyDescent="0.75">
+    <row r="316" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B316" s="2"/>
       <c r="C316" s="2"/>
       <c r="D316" s="3"/>
       <c r="E316" s="6"/>
     </row>
-    <row r="317" spans="2:5" x14ac:dyDescent="0.75">
+    <row r="317" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B317" s="2"/>
       <c r="C317" s="2"/>
       <c r="D317" s="3"/>
       <c r="E317" s="6"/>
     </row>
-    <row r="318" spans="2:5" x14ac:dyDescent="0.75">
+    <row r="318" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B318" s="2"/>
       <c r="C318" s="2"/>
       <c r="D318" s="3"/>
       <c r="E318" s="6"/>
     </row>
-    <row r="319" spans="2:5" x14ac:dyDescent="0.75">
+    <row r="319" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B319" s="2"/>
       <c r="C319" s="2"/>
       <c r="D319" s="3"/>
       <c r="E319" s="6"/>
     </row>
-    <row r="320" spans="2:5" x14ac:dyDescent="0.75">
+    <row r="320" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B320" s="2"/>
       <c r="C320" s="2"/>
       <c r="D320" s="3"/>
       <c r="E320" s="6"/>
     </row>
-    <row r="321" spans="2:5" x14ac:dyDescent="0.75">
+    <row r="321" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B321" s="2"/>
       <c r="C321" s="2"/>
       <c r="D321" s="3"/>
       <c r="E321" s="6"/>
     </row>
-    <row r="322" spans="2:5" x14ac:dyDescent="0.75">
+    <row r="322" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B322" s="2"/>
       <c r="C322" s="2"/>
       <c r="D322" s="3"/>
       <c r="E322" s="6"/>
     </row>
-    <row r="323" spans="2:5" x14ac:dyDescent="0.75">
+    <row r="323" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B323" s="2"/>
       <c r="C323" s="2"/>
       <c r="D323" s="3"/>
       <c r="E323" s="6"/>
     </row>
-    <row r="324" spans="2:5" x14ac:dyDescent="0.75">
+    <row r="324" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B324" s="2"/>
       <c r="C324" s="2"/>
       <c r="D324" s="3"/>
       <c r="E324" s="6"/>
     </row>
-    <row r="325" spans="2:5" x14ac:dyDescent="0.75">
+    <row r="325" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B325" s="2"/>
       <c r="C325" s="2"/>
       <c r="D325" s="3"/>
       <c r="E325" s="6"/>
     </row>
-    <row r="326" spans="2:5" x14ac:dyDescent="0.75">
+    <row r="326" spans="2:5" x14ac:dyDescent="0.2">
       <c r="E326" s="6"/>
     </row>
-    <row r="327" spans="2:5" x14ac:dyDescent="0.75">
+    <row r="327" spans="2:5" x14ac:dyDescent="0.2">
       <c r="E327" s="6"/>
     </row>
-    <row r="328" spans="2:5" x14ac:dyDescent="0.75">
+    <row r="328" spans="2:5" x14ac:dyDescent="0.2">
       <c r="E328" s="6"/>
     </row>
-    <row r="329" spans="2:5" x14ac:dyDescent="0.75">
+    <row r="329" spans="2:5" x14ac:dyDescent="0.2">
       <c r="E329" s="6"/>
     </row>
-    <row r="330" spans="2:5" x14ac:dyDescent="0.75">
+    <row r="330" spans="2:5" x14ac:dyDescent="0.2">
       <c r="E330" s="6"/>
     </row>
-    <row r="331" spans="2:5" x14ac:dyDescent="0.75">
+    <row r="331" spans="2:5" x14ac:dyDescent="0.2">
       <c r="E331" s="6"/>
     </row>
-    <row r="332" spans="2:5" x14ac:dyDescent="0.75">
+    <row r="332" spans="2:5" x14ac:dyDescent="0.2">
       <c r="E332" s="6"/>
     </row>
-    <row r="333" spans="2:5" x14ac:dyDescent="0.75">
+    <row r="333" spans="2:5" x14ac:dyDescent="0.2">
       <c r="E333" s="6"/>
     </row>
-    <row r="334" spans="2:5" x14ac:dyDescent="0.75">
+    <row r="334" spans="2:5" x14ac:dyDescent="0.2">
       <c r="E334" s="6"/>
     </row>
-    <row r="335" spans="2:5" x14ac:dyDescent="0.75">
+    <row r="335" spans="2:5" x14ac:dyDescent="0.2">
       <c r="E335" s="6"/>
     </row>
-    <row r="336" spans="2:5" x14ac:dyDescent="0.75">
+    <row r="336" spans="2:5" x14ac:dyDescent="0.2">
       <c r="E336" s="6"/>
     </row>
-    <row r="337" spans="5:5" x14ac:dyDescent="0.75">
+    <row r="337" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E337" s="6"/>
     </row>
-    <row r="338" spans="5:5" x14ac:dyDescent="0.75">
+    <row r="338" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E338" s="6"/>
     </row>
-    <row r="339" spans="5:5" x14ac:dyDescent="0.75">
+    <row r="339" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E339" s="6"/>
     </row>
-    <row r="340" spans="5:5" x14ac:dyDescent="0.75">
+    <row r="340" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E340" s="6"/>
     </row>
-    <row r="341" spans="5:5" x14ac:dyDescent="0.75">
+    <row r="341" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E341" s="6"/>
     </row>
-    <row r="342" spans="5:5" x14ac:dyDescent="0.75">
+    <row r="342" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E342" s="6"/>
     </row>
-    <row r="343" spans="5:5" x14ac:dyDescent="0.75">
+    <row r="343" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E343" s="6"/>
     </row>
-    <row r="344" spans="5:5" x14ac:dyDescent="0.75">
+    <row r="344" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E344" s="6"/>
     </row>
-    <row r="345" spans="5:5" x14ac:dyDescent="0.75">
+    <row r="345" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E345" s="6"/>
     </row>
-    <row r="346" spans="5:5" x14ac:dyDescent="0.75">
+    <row r="346" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E346" s="6"/>
     </row>
-    <row r="347" spans="5:5" x14ac:dyDescent="0.75">
+    <row r="347" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E347" s="6"/>
     </row>
-    <row r="348" spans="5:5" x14ac:dyDescent="0.75">
+    <row r="348" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E348" s="6"/>
     </row>
-    <row r="349" spans="5:5" x14ac:dyDescent="0.75">
+    <row r="349" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E349" s="6"/>
     </row>
-    <row r="350" spans="5:5" x14ac:dyDescent="0.75">
+    <row r="350" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E350" s="6"/>
     </row>
-    <row r="351" spans="5:5" x14ac:dyDescent="0.75">
+    <row r="351" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E351" s="6"/>
     </row>
-    <row r="352" spans="5:5" x14ac:dyDescent="0.75">
+    <row r="352" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E352" s="6"/>
     </row>
-    <row r="353" spans="5:5" x14ac:dyDescent="0.75">
+    <row r="353" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E353" s="6"/>
     </row>
-    <row r="354" spans="5:5" x14ac:dyDescent="0.75">
+    <row r="354" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E354" s="6"/>
     </row>
-    <row r="355" spans="5:5" x14ac:dyDescent="0.75">
+    <row r="355" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E355" s="6"/>
     </row>
-    <row r="356" spans="5:5" x14ac:dyDescent="0.75">
+    <row r="356" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E356" s="6"/>
     </row>
-    <row r="357" spans="5:5" x14ac:dyDescent="0.75">
+    <row r="357" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E357" s="6"/>
     </row>
-    <row r="358" spans="5:5" x14ac:dyDescent="0.75">
+    <row r="358" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E358" s="6"/>
     </row>
-    <row r="359" spans="5:5" x14ac:dyDescent="0.75">
+    <row r="359" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E359" s="6"/>
     </row>
-    <row r="360" spans="5:5" x14ac:dyDescent="0.75">
+    <row r="360" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E360" s="6"/>
     </row>
-    <row r="361" spans="5:5" x14ac:dyDescent="0.75">
+    <row r="361" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E361" s="6"/>
     </row>
-    <row r="362" spans="5:5" x14ac:dyDescent="0.75">
+    <row r="362" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E362" s="6"/>
     </row>
-    <row r="363" spans="5:5" x14ac:dyDescent="0.75">
+    <row r="363" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E363" s="6"/>
     </row>
-    <row r="364" spans="5:5" x14ac:dyDescent="0.75">
+    <row r="364" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E364" s="6"/>
     </row>
-    <row r="365" spans="5:5" x14ac:dyDescent="0.75">
+    <row r="365" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E365" s="6"/>
     </row>
-    <row r="366" spans="5:5" x14ac:dyDescent="0.75">
+    <row r="366" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E366" s="6"/>
     </row>
-    <row r="367" spans="5:5" x14ac:dyDescent="0.75">
+    <row r="367" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E367" s="6"/>
     </row>
-    <row r="368" spans="5:5" x14ac:dyDescent="0.75">
+    <row r="368" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E368" s="6"/>
     </row>
-    <row r="369" spans="5:5" x14ac:dyDescent="0.75">
+    <row r="369" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E369" s="6"/>
     </row>
-    <row r="370" spans="5:5" x14ac:dyDescent="0.75">
+    <row r="370" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E370" s="6"/>
     </row>
-    <row r="371" spans="5:5" x14ac:dyDescent="0.75">
+    <row r="371" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E371" s="6"/>
     </row>
-    <row r="372" spans="5:5" x14ac:dyDescent="0.75">
+    <row r="372" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E372" s="6"/>
     </row>
-    <row r="373" spans="5:5" x14ac:dyDescent="0.75">
+    <row r="373" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E373" s="6"/>
     </row>
-    <row r="374" spans="5:5" x14ac:dyDescent="0.75">
+    <row r="374" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E374" s="6"/>
     </row>
-    <row r="375" spans="5:5" x14ac:dyDescent="0.75">
+    <row r="375" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E375" s="6"/>
     </row>
-    <row r="376" spans="5:5" x14ac:dyDescent="0.75">
+    <row r="376" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E376" s="6"/>
     </row>
-    <row r="377" spans="5:5" x14ac:dyDescent="0.75">
+    <row r="377" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E377" s="6"/>
     </row>
-    <row r="378" spans="5:5" x14ac:dyDescent="0.75">
+    <row r="378" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E378" s="6"/>
     </row>
-    <row r="379" spans="5:5" x14ac:dyDescent="0.75">
+    <row r="379" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E379" s="6"/>
     </row>
-    <row r="380" spans="5:5" x14ac:dyDescent="0.75">
+    <row r="380" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E380" s="6"/>
     </row>
-    <row r="381" spans="5:5" x14ac:dyDescent="0.75">
+    <row r="381" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E381" s="6"/>
     </row>
-    <row r="382" spans="5:5" x14ac:dyDescent="0.75">
+    <row r="382" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E382" s="6"/>
     </row>
-    <row r="383" spans="5:5" x14ac:dyDescent="0.75">
+    <row r="383" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E383" s="6"/>
     </row>
-    <row r="384" spans="5:5" x14ac:dyDescent="0.75">
+    <row r="384" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E384" s="6"/>
     </row>
-    <row r="385" spans="5:5" x14ac:dyDescent="0.75">
+    <row r="385" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E385" s="6"/>
     </row>
   </sheetData>
@@ -18044,16 +18044,16 @@
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="10.1328125" customWidth="1"/>
-    <col min="3" max="4" width="15.453125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.86328125" style="7" customWidth="1"/>
-    <col min="6" max="6" width="14.90625" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.04296875" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.1640625" customWidth="1"/>
+    <col min="3" max="4" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.83203125" style="7" customWidth="1"/>
+    <col min="6" max="6" width="14.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="1" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -18073,7 +18073,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
@@ -18093,7 +18093,7 @@
         <v>1641087.9683632851</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
@@ -18113,7 +18113,7 @@
         <v>3435055.8497275678</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
         <v>5</v>
       </c>
@@ -18133,7 +18133,7 @@
         <v>2541366.853197122</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
         <v>5</v>
       </c>
@@ -18153,7 +18153,7 @@
         <v>3123874.2514166562</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
         <v>5</v>
       </c>
@@ -18173,7 +18173,7 @@
         <v>178416.09090268079</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
         <v>5</v>
       </c>
@@ -18193,7 +18193,7 @@
         <v>3110782.9834343046</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
         <v>5</v>
       </c>
@@ -18213,7 +18213,7 @@
         <v>1356446.68324441</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="s">
         <v>5</v>
       </c>
@@ -18233,7 +18233,7 @@
         <v>2047160.269701072</v>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B10" s="2" t="s">
         <v>5</v>
       </c>
@@ -18253,7 +18253,7 @@
         <v>1394144.9555455605</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B11" s="2" t="s">
         <v>5</v>
       </c>
@@ -18273,7 +18273,7 @@
         <v>2570506.2967795958</v>
       </c>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B12" s="2" t="s">
         <v>5</v>
       </c>
@@ -18293,7 +18293,7 @@
         <v>1537968.0740631425</v>
       </c>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B13" s="2" t="s">
         <v>5</v>
       </c>
@@ -18313,7 +18313,7 @@
         <v>2332621.3449245007</v>
       </c>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B14" s="2" t="s">
         <v>5</v>
       </c>
@@ -18333,7 +18333,7 @@
         <v>2184508.5793996076</v>
       </c>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B15" s="2" t="s">
         <v>5</v>
       </c>
@@ -18353,7 +18353,7 @@
         <v>2264943.0270913378</v>
       </c>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B16" s="2" t="s">
         <v>5</v>
       </c>
@@ -18373,7 +18373,7 @@
         <v>2349380.8281783476</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B17" s="2" t="s">
         <v>5</v>
       </c>
@@ -18393,7 +18393,7 @@
         <v>197858.56941427907</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B18" s="2" t="s">
         <v>5</v>
       </c>
@@ -18413,7 +18413,7 @@
         <v>2280966.8875507428</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B19" s="2" t="s">
         <v>5</v>
       </c>
@@ -18433,7 +18433,7 @@
         <v>1708180.6183214043</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B20" s="2" t="s">
         <v>5</v>
       </c>
@@ -18453,7 +18453,7 @@
         <v>2496055.7302380996</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B21" s="2" t="s">
         <v>5</v>
       </c>
@@ -18473,7 +18473,7 @@
         <v>1086802.1817482372</v>
       </c>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B22" s="2" t="s">
         <v>5</v>
       </c>
@@ -18493,7 +18493,7 @@
         <v>1119353.8416770308</v>
       </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B23" s="2" t="s">
         <v>5</v>
       </c>
@@ -18513,7 +18513,7 @@
         <v>1452212.687230913</v>
       </c>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B24" s="2" t="s">
         <v>5</v>
       </c>
@@ -18533,7 +18533,7 @@
         <v>2147222.7571622813</v>
       </c>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B25" s="2" t="s">
         <v>5</v>
       </c>
@@ -18553,7 +18553,7 @@
         <v>2818046.0796433785</v>
       </c>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B26" s="2" t="s">
         <v>5</v>
       </c>
@@ -18573,7 +18573,7 @@
         <v>2747540.0161695345</v>
       </c>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B27" s="2" t="s">
         <v>5</v>
       </c>
@@ -18593,7 +18593,7 @@
         <v>3204681.8190067881</v>
       </c>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B28" s="2" t="s">
         <v>5</v>
       </c>
@@ -18613,7 +18613,7 @@
         <v>664465.93707807339</v>
       </c>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B29" s="2" t="s">
         <v>5</v>
       </c>
@@ -18633,7 +18633,7 @@
         <v>1336008.0085658845</v>
       </c>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B30" s="2" t="s">
         <v>5</v>
       </c>
@@ -18653,7 +18653,7 @@
         <v>1225648.4906214294</v>
       </c>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B31" s="2" t="s">
         <v>5</v>
       </c>
@@ -18673,7 +18673,7 @@
         <v>2514628.4777782522</v>
       </c>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B32" s="2" t="s">
         <v>5</v>
       </c>
@@ -18693,7 +18693,7 @@
         <v>2505055.2937230319</v>
       </c>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B33" s="2" t="s">
         <v>5</v>
       </c>
@@ -18713,7 +18713,7 @@
         <v>398228.42218818481</v>
       </c>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B34" s="2" t="s">
         <v>5</v>
       </c>
@@ -18733,7 +18733,7 @@
         <v>1167984.0412026104</v>
       </c>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B35" s="2" t="s">
         <v>5</v>
       </c>
@@ -18753,7 +18753,7 @@
         <v>2793001.1066497392</v>
       </c>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B36" s="2" t="s">
         <v>5</v>
       </c>
@@ -18773,7 +18773,7 @@
         <v>1864795.5738503016</v>
       </c>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="37" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B37" s="2" t="s">
         <v>5</v>
       </c>
@@ -18793,7 +18793,7 @@
         <v>104612.03994649426</v>
       </c>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="38" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B38" s="2" t="s">
         <v>5</v>
       </c>
@@ -18813,7 +18813,7 @@
         <v>2492734.662589794</v>
       </c>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="39" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B39" s="2" t="s">
         <v>5</v>
       </c>
@@ -18833,7 +18833,7 @@
         <v>490841.28988954151</v>
       </c>
     </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="40" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B40" s="2" t="s">
         <v>5</v>
       </c>
@@ -18853,7 +18853,7 @@
         <v>403032.80163280654</v>
       </c>
     </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="41" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B41" s="2" t="s">
         <v>5</v>
       </c>
@@ -18873,7 +18873,7 @@
         <v>1056698.6387406916</v>
       </c>
     </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="42" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B42" s="2" t="s">
         <v>5</v>
       </c>
@@ -18893,7 +18893,7 @@
         <v>2116259.3944857907</v>
       </c>
     </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="43" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B43" s="2" t="s">
         <v>5</v>
       </c>
@@ -18913,7 +18913,7 @@
         <v>2402851.4671512269</v>
       </c>
     </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="44" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B44" s="2" t="s">
         <v>5</v>
       </c>
@@ -18933,7 +18933,7 @@
         <v>2499048.8427790557</v>
       </c>
     </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="45" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B45" s="2" t="s">
         <v>5</v>
       </c>
@@ -18953,7 +18953,7 @@
         <v>996024.58734757593</v>
       </c>
     </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="46" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B46" s="2" t="s">
         <v>5</v>
       </c>
@@ -18973,7 +18973,7 @@
         <v>2075082.0785819176</v>
       </c>
     </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="47" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B47" s="2" t="s">
         <v>5</v>
       </c>
@@ -18993,7 +18993,7 @@
         <v>71381.326628122362</v>
       </c>
     </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="48" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B48" s="2" t="s">
         <v>5</v>
       </c>
@@ -19013,7 +19013,7 @@
         <v>515670.98031958094</v>
       </c>
     </row>
-    <row r="49" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="49" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B49" s="2" t="s">
         <v>5</v>
       </c>
@@ -19033,7 +19033,7 @@
         <v>342836.35782364249</v>
       </c>
     </row>
-    <row r="50" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="50" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B50" s="2" t="s">
         <v>5</v>
       </c>
@@ -19053,7 +19053,7 @@
         <v>733321.99866808916</v>
       </c>
     </row>
-    <row r="51" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="51" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B51" s="2" t="s">
         <v>5</v>
       </c>
@@ -19073,7 +19073,7 @@
         <v>2236199.2858027918</v>
       </c>
     </row>
-    <row r="52" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="52" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B52" s="2" t="s">
         <v>5</v>
       </c>
@@ -19093,7 +19093,7 @@
         <v>352563.35924481798</v>
       </c>
     </row>
-    <row r="53" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="53" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B53" s="2" t="s">
         <v>5</v>
       </c>
@@ -19113,7 +19113,7 @@
         <v>2731101.7775734742</v>
       </c>
     </row>
-    <row r="54" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="54" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B54" s="2" t="s">
         <v>5</v>
       </c>
@@ -19133,7 +19133,7 @@
         <v>876872.78634944477</v>
       </c>
     </row>
-    <row r="55" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="55" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B55" s="2" t="s">
         <v>5</v>
       </c>
@@ -19153,7 +19153,7 @@
         <v>424726.29887523601</v>
       </c>
     </row>
-    <row r="56" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="56" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B56" s="2" t="s">
         <v>2</v>
       </c>
@@ -19173,7 +19173,7 @@
         <v>824971.51675047574</v>
       </c>
     </row>
-    <row r="57" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="57" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B57" s="2" t="s">
         <v>2</v>
       </c>
@@ -19193,7 +19193,7 @@
         <v>2288477.61965831</v>
       </c>
     </row>
-    <row r="58" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="58" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B58" s="2" t="s">
         <v>2</v>
       </c>
@@ -19213,7 +19213,7 @@
         <v>2275125.809807932</v>
       </c>
     </row>
-    <row r="59" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="59" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B59" s="2" t="s">
         <v>2</v>
       </c>
@@ -19233,7 +19233,7 @@
         <v>616019.46525091666</v>
       </c>
     </row>
-    <row r="60" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="60" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B60" s="2" t="s">
         <v>2</v>
       </c>
@@ -19253,7 +19253,7 @@
         <v>545546.43105088605</v>
       </c>
     </row>
-    <row r="61" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="61" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B61" s="2" t="s">
         <v>2</v>
       </c>
@@ -19273,7 +19273,7 @@
         <v>3155274.8518645596</v>
       </c>
     </row>
-    <row r="62" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="62" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B62" s="2" t="s">
         <v>2</v>
       </c>
@@ -19293,7 +19293,7 @@
         <v>1541.4249196247274</v>
       </c>
     </row>
-    <row r="63" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="63" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B63" s="2" t="s">
         <v>2</v>
       </c>
@@ -19313,7 +19313,7 @@
         <v>1293912.4826305271</v>
       </c>
     </row>
-    <row r="64" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="64" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B64" s="2" t="s">
         <v>2</v>
       </c>
@@ -19333,7 +19333,7 @@
         <v>969268.29219297064</v>
       </c>
     </row>
-    <row r="65" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="65" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B65" s="2" t="s">
         <v>2</v>
       </c>
@@ -19353,7 +19353,7 @@
         <v>2380035.8000159343</v>
       </c>
     </row>
-    <row r="66" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="66" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B66" s="2" t="s">
         <v>2</v>
       </c>
@@ -19373,7 +19373,7 @@
         <v>2176619.1889099143</v>
       </c>
     </row>
-    <row r="67" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="67" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B67" s="2" t="s">
         <v>2</v>
       </c>
@@ -19393,7 +19393,7 @@
         <v>2375873.8531788602</v>
       </c>
     </row>
-    <row r="68" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="68" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B68" s="2" t="s">
         <v>2</v>
       </c>
@@ -19413,7 +19413,7 @@
         <v>1440867.7365615233</v>
       </c>
     </row>
-    <row r="69" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="69" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B69" s="2" t="s">
         <v>2</v>
       </c>
@@ -19433,7 +19433,7 @@
         <v>2354470.2221540045</v>
       </c>
     </row>
-    <row r="70" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="70" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B70" s="2" t="s">
         <v>2</v>
       </c>
@@ -19453,7 +19453,7 @@
         <v>1346137.996111688</v>
       </c>
     </row>
-    <row r="71" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="71" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B71" s="2" t="s">
         <v>2</v>
       </c>
@@ -19473,7 +19473,7 @@
         <v>294581.92457094038</v>
       </c>
     </row>
-    <row r="72" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="72" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B72" s="2" t="s">
         <v>2</v>
       </c>
@@ -19493,7 +19493,7 @@
         <v>1407648.7744060019</v>
       </c>
     </row>
-    <row r="73" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="73" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B73" s="2" t="s">
         <v>2</v>
       </c>
@@ -19513,7 +19513,7 @@
         <v>341839.12831049168</v>
       </c>
     </row>
-    <row r="74" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="74" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B74" s="2" t="s">
         <v>2</v>
       </c>
@@ -19533,7 +19533,7 @@
         <v>290908.31573622761</v>
       </c>
     </row>
-    <row r="75" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="75" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B75" s="2" t="s">
         <v>2</v>
       </c>
@@ -19553,7 +19553,7 @@
         <v>2433049.2210901082</v>
       </c>
     </row>
-    <row r="76" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="76" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B76" s="2" t="s">
         <v>2</v>
       </c>
@@ -19573,7 +19573,7 @@
         <v>2706837.2141118324</v>
       </c>
     </row>
-    <row r="77" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="77" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B77" s="2" t="s">
         <v>2</v>
       </c>
@@ -19593,7 +19593,7 @@
         <v>696718.96624906524</v>
       </c>
     </row>
-    <row r="78" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="78" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B78" s="2" t="s">
         <v>2</v>
       </c>
@@ -19613,7 +19613,7 @@
         <v>985668.25917339942</v>
       </c>
     </row>
-    <row r="79" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="79" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B79" s="2" t="s">
         <v>2</v>
       </c>
@@ -19633,7 +19633,7 @@
         <v>692125.08069042058</v>
       </c>
     </row>
-    <row r="80" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="80" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B80" s="2" t="s">
         <v>2</v>
       </c>
@@ -19653,7 +19653,7 @@
         <v>2937618.7739000898</v>
       </c>
     </row>
-    <row r="81" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="81" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B81" s="2" t="s">
         <v>2</v>
       </c>
@@ -19673,7 +19673,7 @@
         <v>1990095.1295876296</v>
       </c>
     </row>
-    <row r="82" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="82" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B82" s="2" t="s">
         <v>2</v>
       </c>
@@ -19693,7 +19693,7 @@
         <v>1808162.5047771533</v>
       </c>
     </row>
-    <row r="83" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="83" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B83" s="2" t="s">
         <v>2</v>
       </c>
@@ -19713,7 +19713,7 @@
         <v>2757153.4251167858</v>
       </c>
     </row>
-    <row r="84" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="84" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B84" s="2" t="s">
         <v>2</v>
       </c>
@@ -19733,7 +19733,7 @@
         <v>1766006.4776805674</v>
       </c>
     </row>
-    <row r="85" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="85" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B85" s="2" t="s">
         <v>2</v>
       </c>
@@ -19753,7 +19753,7 @@
         <v>1642200.3025643465</v>
       </c>
     </row>
-    <row r="86" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="86" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B86" s="2" t="s">
         <v>2</v>
       </c>
@@ -19773,7 +19773,7 @@
         <v>429506.51440053782</v>
       </c>
     </row>
-    <row r="87" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="87" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B87" s="2" t="s">
         <v>2</v>
       </c>
@@ -19793,7 +19793,7 @@
         <v>497830.11284425529</v>
       </c>
     </row>
-    <row r="88" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="88" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B88" s="2" t="s">
         <v>2</v>
       </c>
@@ -19813,7 +19813,7 @@
         <v>2145200.9270628309</v>
       </c>
     </row>
-    <row r="89" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="89" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B89" s="2" t="s">
         <v>2</v>
       </c>
@@ -19833,7 +19833,7 @@
         <v>2218323.448379037</v>
       </c>
     </row>
-    <row r="90" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="90" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B90" s="2" t="s">
         <v>2</v>
       </c>
@@ -19853,7 +19853,7 @@
         <v>2358192.9275361337</v>
       </c>
     </row>
-    <row r="91" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="91" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B91" s="2" t="s">
         <v>2</v>
       </c>
@@ -19873,7 +19873,7 @@
         <v>966336.96619513107</v>
       </c>
     </row>
-    <row r="92" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="92" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B92" s="2" t="s">
         <v>2</v>
       </c>
@@ -19893,7 +19893,7 @@
         <v>1914209.4089643832</v>
       </c>
     </row>
-    <row r="93" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="93" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B93" s="2" t="s">
         <v>2</v>
       </c>
@@ -19913,7 +19913,7 @@
         <v>2735964.9506376972</v>
       </c>
     </row>
-    <row r="94" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="94" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B94" s="2" t="s">
         <v>2</v>
       </c>
@@ -19933,7 +19933,7 @@
         <v>1348118.0702024465</v>
       </c>
     </row>
-    <row r="95" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="95" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B95" s="2" t="s">
         <v>2</v>
       </c>
@@ -19953,7 +19953,7 @@
         <v>2156146.8989746561</v>
       </c>
     </row>
-    <row r="96" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="96" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B96" s="2" t="s">
         <v>2</v>
       </c>
@@ -19973,7 +19973,7 @@
         <v>2285563.6526168524</v>
       </c>
     </row>
-    <row r="97" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="97" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B97" s="2" t="s">
         <v>2</v>
       </c>
@@ -19993,7 +19993,7 @@
         <v>2417437.1869062586</v>
       </c>
     </row>
-    <row r="98" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="98" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B98" s="2" t="s">
         <v>2</v>
       </c>
@@ -20013,7 +20013,7 @@
         <v>1311063.1945452597</v>
       </c>
     </row>
-    <row r="99" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="99" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B99" s="2" t="s">
         <v>2</v>
       </c>
@@ -20033,7 +20033,7 @@
         <v>2552875.6522519081</v>
       </c>
     </row>
-    <row r="100" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="100" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B100" s="2" t="s">
         <v>2</v>
       </c>
@@ -20053,7 +20053,7 @@
         <v>3380596.5756576927</v>
       </c>
     </row>
-    <row r="101" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="101" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B101" s="2" t="s">
         <v>2</v>
       </c>
@@ -20073,7 +20073,7 @@
         <v>1827135.4093416012</v>
       </c>
     </row>
-    <row r="102" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="102" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B102" s="2" t="s">
         <v>2</v>
       </c>
@@ -20093,7 +20093,7 @@
         <v>522876.85638843669</v>
       </c>
     </row>
-    <row r="103" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="103" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B103" s="2" t="s">
         <v>2</v>
       </c>
@@ -20113,7 +20113,7 @@
         <v>1841139.2606592297</v>
       </c>
     </row>
-    <row r="104" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="104" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B104" s="2" t="s">
         <v>2</v>
       </c>
@@ -20133,7 +20133,7 @@
         <v>2149457.0785303493</v>
       </c>
     </row>
-    <row r="105" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="105" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B105" s="2" t="s">
         <v>2</v>
       </c>
@@ -20153,7 +20153,7 @@
         <v>3280235.6842707791</v>
       </c>
     </row>
-    <row r="106" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="106" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B106" s="2" t="s">
         <v>2</v>
       </c>
@@ -20173,7 +20173,7 @@
         <v>25928.502917708323</v>
       </c>
     </row>
-    <row r="107" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="107" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B107" s="2" t="s">
         <v>2</v>
       </c>
@@ -20193,7 +20193,7 @@
         <v>1496478.5426791585</v>
       </c>
     </row>
-    <row r="108" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="108" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B108" s="2" t="s">
         <v>2</v>
       </c>
@@ -20213,7 +20213,7 @@
         <v>472368.3799769312</v>
       </c>
     </row>
-    <row r="109" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="109" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B109" s="2" t="s">
         <v>2</v>
       </c>
@@ -20233,7 +20233,7 @@
         <v>1242800.153970795</v>
       </c>
     </row>
-    <row r="110" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="110" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B110" s="2" t="s">
         <v>4</v>
       </c>
@@ -20253,7 +20253,7 @@
         <v>1241977.4150489683</v>
       </c>
     </row>
-    <row r="111" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="111" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B111" s="2" t="s">
         <v>4</v>
       </c>
@@ -20273,7 +20273,7 @@
         <v>2222208.5844459506</v>
       </c>
     </row>
-    <row r="112" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="112" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B112" s="2" t="s">
         <v>4</v>
       </c>
@@ -20293,7 +20293,7 @@
         <v>1961839.7263014445</v>
       </c>
     </row>
-    <row r="113" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="113" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B113" s="2" t="s">
         <v>4</v>
       </c>
@@ -20313,7 +20313,7 @@
         <v>1774543.3036857455</v>
       </c>
     </row>
-    <row r="114" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="114" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B114" s="2" t="s">
         <v>4</v>
       </c>
@@ -20333,7 +20333,7 @@
         <v>1385634.776010996</v>
       </c>
     </row>
-    <row r="115" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="115" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B115" s="2" t="s">
         <v>4</v>
       </c>
@@ -20353,7 +20353,7 @@
         <v>1070216.6724126025</v>
       </c>
     </row>
-    <row r="116" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="116" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B116" s="2" t="s">
         <v>4</v>
       </c>
@@ -20373,7 +20373,7 @@
         <v>360063.87130619551</v>
       </c>
     </row>
-    <row r="117" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="117" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B117" s="2" t="s">
         <v>4</v>
       </c>
@@ -20393,7 +20393,7 @@
         <v>2805204.7932347171</v>
       </c>
     </row>
-    <row r="118" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="118" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B118" s="2" t="s">
         <v>4</v>
       </c>
@@ -20413,7 +20413,7 @@
         <v>622475.09415590554</v>
       </c>
     </row>
-    <row r="119" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="119" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B119" s="2" t="s">
         <v>4</v>
       </c>
@@ -20433,7 +20433,7 @@
         <v>2473692.3663060577</v>
       </c>
     </row>
-    <row r="120" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="120" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B120" s="2" t="s">
         <v>4</v>
       </c>
@@ -20453,7 +20453,7 @@
         <v>642421.52427927183</v>
       </c>
     </row>
-    <row r="121" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="121" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B121" s="2" t="s">
         <v>4</v>
       </c>
@@ -20473,7 +20473,7 @@
         <v>2456598.6144514689</v>
       </c>
     </row>
-    <row r="122" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="122" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B122" s="2" t="s">
         <v>4</v>
       </c>
@@ -20493,7 +20493,7 @@
         <v>820862.85025284614</v>
       </c>
     </row>
-    <row r="123" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="123" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B123" s="2" t="s">
         <v>4</v>
       </c>
@@ -20513,7 +20513,7 @@
         <v>2199918.0336173405</v>
       </c>
     </row>
-    <row r="124" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="124" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B124" s="2" t="s">
         <v>4</v>
       </c>
@@ -20533,7 +20533,7 @@
         <v>1393625.2454038786</v>
       </c>
     </row>
-    <row r="125" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="125" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B125" s="2" t="s">
         <v>4</v>
       </c>
@@ -20553,7 +20553,7 @@
         <v>1686536.9737333839</v>
       </c>
     </row>
-    <row r="126" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="126" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B126" s="2" t="s">
         <v>4</v>
       </c>
@@ -20573,7 +20573,7 @@
         <v>506833.70889981766</v>
       </c>
     </row>
-    <row r="127" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="127" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B127" s="2" t="s">
         <v>4</v>
       </c>
@@ -20593,7 +20593,7 @@
         <v>2301797.880944402</v>
       </c>
     </row>
-    <row r="128" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="128" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B128" s="2" t="s">
         <v>4</v>
       </c>
@@ -20613,7 +20613,7 @@
         <v>1360014.0086394646</v>
       </c>
     </row>
-    <row r="129" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="129" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B129" s="2" t="s">
         <v>4</v>
       </c>
@@ -20633,7 +20633,7 @@
         <v>1005816.3052264659</v>
       </c>
     </row>
-    <row r="130" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="130" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B130" s="2" t="s">
         <v>4</v>
       </c>
@@ -20653,7 +20653,7 @@
         <v>1903778.6546585227</v>
       </c>
     </row>
-    <row r="131" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="131" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B131" s="2" t="s">
         <v>4</v>
       </c>
@@ -20673,7 +20673,7 @@
         <v>2291740.8514225376</v>
       </c>
     </row>
-    <row r="132" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="132" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B132" s="2" t="s">
         <v>4</v>
       </c>
@@ -20693,7 +20693,7 @@
         <v>338819.82296311756</v>
       </c>
     </row>
-    <row r="133" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="133" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B133" s="2" t="s">
         <v>4</v>
       </c>
@@ -20713,7 +20713,7 @@
         <v>453541.70020404988</v>
       </c>
     </row>
-    <row r="134" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="134" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B134" s="2" t="s">
         <v>4</v>
       </c>
@@ -20733,7 +20733,7 @@
         <v>2899653.513918797</v>
       </c>
     </row>
-    <row r="135" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="135" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B135" s="2" t="s">
         <v>4</v>
       </c>
@@ -20753,7 +20753,7 @@
         <v>3265625.3280295567</v>
       </c>
     </row>
-    <row r="136" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="136" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B136" s="2" t="s">
         <v>4</v>
       </c>
@@ -20773,7 +20773,7 @@
         <v>547750.70346687105</v>
       </c>
     </row>
-    <row r="137" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="137" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B137" s="2" t="s">
         <v>4</v>
       </c>
@@ -20793,7 +20793,7 @@
         <v>20302.14065825288</v>
       </c>
     </row>
-    <row r="138" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="138" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B138" s="2" t="s">
         <v>4</v>
       </c>
@@ -20813,7 +20813,7 @@
         <v>3309912.9908636608</v>
       </c>
     </row>
-    <row r="139" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="139" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B139" s="2" t="s">
         <v>4</v>
       </c>
@@ -20833,7 +20833,7 @@
         <v>2169220.6441774433</v>
       </c>
     </row>
-    <row r="140" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="140" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B140" s="2" t="s">
         <v>4</v>
       </c>
@@ -20853,7 +20853,7 @@
         <v>3452759.94374874</v>
       </c>
     </row>
-    <row r="141" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="141" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B141" s="2" t="s">
         <v>4</v>
       </c>
@@ -20873,7 +20873,7 @@
         <v>3203945.1880696877</v>
       </c>
     </row>
-    <row r="142" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="142" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B142" s="2" t="s">
         <v>4</v>
       </c>
@@ -20893,7 +20893,7 @@
         <v>2122449.2832871764</v>
       </c>
     </row>
-    <row r="143" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="143" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B143" s="2" t="s">
         <v>4</v>
       </c>
@@ -20913,7 +20913,7 @@
         <v>2597819.9373014634</v>
       </c>
     </row>
-    <row r="144" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="144" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B144" s="2" t="s">
         <v>4</v>
       </c>
@@ -20933,7 +20933,7 @@
         <v>547613.97411895881</v>
       </c>
     </row>
-    <row r="145" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="145" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B145" s="2" t="s">
         <v>4</v>
       </c>
@@ -20953,7 +20953,7 @@
         <v>201099.50862399477</v>
       </c>
     </row>
-    <row r="146" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="146" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B146" s="2" t="s">
         <v>4</v>
       </c>
@@ -20973,7 +20973,7 @@
         <v>2443083.2019504672</v>
       </c>
     </row>
-    <row r="147" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="147" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B147" s="2" t="s">
         <v>4</v>
       </c>
@@ -20993,7 +20993,7 @@
         <v>2918941.935630559</v>
       </c>
     </row>
-    <row r="148" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="148" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B148" s="2" t="s">
         <v>4</v>
       </c>
@@ -21013,7 +21013,7 @@
         <v>2991707.4988353401</v>
       </c>
     </row>
-    <row r="149" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="149" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B149" s="2" t="s">
         <v>4</v>
       </c>
@@ -21033,7 +21033,7 @@
         <v>2005103.8092936894</v>
       </c>
     </row>
-    <row r="150" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="150" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B150" s="2" t="s">
         <v>4</v>
       </c>
@@ -21053,7 +21053,7 @@
         <v>791402.02969386207</v>
       </c>
     </row>
-    <row r="151" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="151" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B151" s="2" t="s">
         <v>4</v>
       </c>
@@ -21073,7 +21073,7 @@
         <v>1403094.1938092129</v>
       </c>
     </row>
-    <row r="152" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="152" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B152" s="2" t="s">
         <v>4</v>
       </c>
@@ -21093,7 +21093,7 @@
         <v>19734.707563525513</v>
       </c>
     </row>
-    <row r="153" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="153" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B153" s="2" t="s">
         <v>4</v>
       </c>
@@ -21113,7 +21113,7 @@
         <v>2455382.5423709592</v>
       </c>
     </row>
-    <row r="154" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="154" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B154" s="2" t="s">
         <v>4</v>
       </c>
@@ -21133,7 +21133,7 @@
         <v>3144605.0984390839</v>
       </c>
     </row>
-    <row r="155" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="155" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B155" s="2" t="s">
         <v>4</v>
       </c>
@@ -21153,7 +21153,7 @@
         <v>1987360.6497445418</v>
       </c>
     </row>
-    <row r="156" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="156" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B156" s="2" t="s">
         <v>4</v>
       </c>
@@ -21173,7 +21173,7 @@
         <v>426757.06993987947</v>
       </c>
     </row>
-    <row r="157" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="157" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B157" s="2" t="s">
         <v>4</v>
       </c>
@@ -21193,7 +21193,7 @@
         <v>1778604.2976374626</v>
       </c>
     </row>
-    <row r="158" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="158" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B158" s="2" t="s">
         <v>4</v>
       </c>
@@ -21213,7 +21213,7 @@
         <v>1343063.513856495</v>
       </c>
     </row>
-    <row r="159" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="159" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B159" s="2" t="s">
         <v>4</v>
       </c>
@@ -21233,7 +21233,7 @@
         <v>2781834.149867408</v>
       </c>
     </row>
-    <row r="160" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="160" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B160" s="2" t="s">
         <v>4</v>
       </c>
@@ -21253,7 +21253,7 @@
         <v>896985.944365673</v>
       </c>
     </row>
-    <row r="161" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="161" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B161" s="2" t="s">
         <v>4</v>
       </c>
@@ -21273,7 +21273,7 @@
         <v>3340031.3913736199</v>
       </c>
     </row>
-    <row r="162" spans="2:7" x14ac:dyDescent="0.75">
+    <row r="162" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B162" s="2" t="s">
         <v>4</v>
       </c>
@@ -21293,7 +21293,7 @@
         <v>2400645.0965383356</v>
       </c>
     </row>
-    <row r="163" spans="2:7" ht="16.25" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="163" spans="2:7" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B163" s="2" t="s">
         <v>4</v>
       </c>
@@ -21326,585 +21326,585 @@
       <selection activeCell="T30" sqref="T30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.36328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.6796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.76953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="27" width="18.1796875" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="22.76953125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="21.76953125" bestFit="1" customWidth="1"/>
-    <col min="30" max="327" width="14.26953125" bestFit="1" customWidth="1"/>
-    <col min="328" max="328" width="11.6796875" bestFit="1" customWidth="1"/>
-    <col min="329" max="329" width="15.40625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="27" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="22.83203125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="21.83203125" bestFit="1" customWidth="1"/>
+    <col min="30" max="327" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="328" max="328" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="329" max="329" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="330" max="330" width="10" bestFit="1" customWidth="1"/>
-    <col min="331" max="331" width="15.40625" bestFit="1" customWidth="1"/>
+    <col min="331" max="331" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="332" max="332" width="10" bestFit="1" customWidth="1"/>
-    <col min="333" max="333" width="15.40625" bestFit="1" customWidth="1"/>
+    <col min="333" max="333" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="334" max="334" width="10" bestFit="1" customWidth="1"/>
-    <col min="335" max="335" width="15.40625" bestFit="1" customWidth="1"/>
+    <col min="335" max="335" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="336" max="336" width="10" bestFit="1" customWidth="1"/>
-    <col min="337" max="337" width="15.40625" bestFit="1" customWidth="1"/>
+    <col min="337" max="337" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="338" max="338" width="10" bestFit="1" customWidth="1"/>
-    <col min="339" max="339" width="15.40625" bestFit="1" customWidth="1"/>
+    <col min="339" max="339" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="340" max="340" width="10" bestFit="1" customWidth="1"/>
-    <col min="341" max="341" width="15.40625" bestFit="1" customWidth="1"/>
+    <col min="341" max="341" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="342" max="342" width="10" bestFit="1" customWidth="1"/>
-    <col min="343" max="343" width="15.40625" bestFit="1" customWidth="1"/>
+    <col min="343" max="343" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="344" max="344" width="10" bestFit="1" customWidth="1"/>
-    <col min="345" max="345" width="15.40625" bestFit="1" customWidth="1"/>
+    <col min="345" max="345" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="346" max="346" width="10" bestFit="1" customWidth="1"/>
-    <col min="347" max="347" width="15.40625" bestFit="1" customWidth="1"/>
+    <col min="347" max="347" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="348" max="348" width="10" bestFit="1" customWidth="1"/>
-    <col min="349" max="349" width="15.40625" bestFit="1" customWidth="1"/>
+    <col min="349" max="349" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="350" max="350" width="10" bestFit="1" customWidth="1"/>
-    <col min="351" max="351" width="15.40625" bestFit="1" customWidth="1"/>
+    <col min="351" max="351" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="352" max="352" width="10" bestFit="1" customWidth="1"/>
-    <col min="353" max="353" width="15.40625" bestFit="1" customWidth="1"/>
+    <col min="353" max="353" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="354" max="354" width="10" bestFit="1" customWidth="1"/>
-    <col min="355" max="355" width="15.40625" bestFit="1" customWidth="1"/>
+    <col min="355" max="355" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="356" max="356" width="10" bestFit="1" customWidth="1"/>
-    <col min="357" max="357" width="15.40625" bestFit="1" customWidth="1"/>
+    <col min="357" max="357" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="358" max="358" width="10" bestFit="1" customWidth="1"/>
-    <col min="359" max="359" width="15.40625" bestFit="1" customWidth="1"/>
+    <col min="359" max="359" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="360" max="360" width="10" bestFit="1" customWidth="1"/>
-    <col min="361" max="361" width="15.40625" bestFit="1" customWidth="1"/>
+    <col min="361" max="361" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="362" max="362" width="10" bestFit="1" customWidth="1"/>
-    <col min="363" max="363" width="15.40625" bestFit="1" customWidth="1"/>
+    <col min="363" max="363" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="364" max="364" width="10" bestFit="1" customWidth="1"/>
-    <col min="365" max="365" width="15.40625" bestFit="1" customWidth="1"/>
+    <col min="365" max="365" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="366" max="366" width="10" bestFit="1" customWidth="1"/>
-    <col min="367" max="367" width="15.40625" bestFit="1" customWidth="1"/>
+    <col min="367" max="367" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="368" max="368" width="10" bestFit="1" customWidth="1"/>
-    <col min="369" max="369" width="15.40625" bestFit="1" customWidth="1"/>
+    <col min="369" max="369" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="370" max="370" width="10" bestFit="1" customWidth="1"/>
-    <col min="371" max="371" width="15.40625" bestFit="1" customWidth="1"/>
+    <col min="371" max="371" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="372" max="372" width="10" bestFit="1" customWidth="1"/>
-    <col min="373" max="373" width="15.40625" bestFit="1" customWidth="1"/>
+    <col min="373" max="373" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="374" max="374" width="10" bestFit="1" customWidth="1"/>
-    <col min="375" max="375" width="15.40625" bestFit="1" customWidth="1"/>
+    <col min="375" max="375" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="376" max="376" width="10" bestFit="1" customWidth="1"/>
-    <col min="377" max="377" width="15.40625" bestFit="1" customWidth="1"/>
+    <col min="377" max="377" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="378" max="378" width="10" bestFit="1" customWidth="1"/>
-    <col min="379" max="379" width="15.40625" bestFit="1" customWidth="1"/>
+    <col min="379" max="379" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="380" max="380" width="10" bestFit="1" customWidth="1"/>
-    <col min="381" max="381" width="15.40625" bestFit="1" customWidth="1"/>
+    <col min="381" max="381" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="382" max="382" width="10" bestFit="1" customWidth="1"/>
-    <col min="383" max="383" width="15.40625" bestFit="1" customWidth="1"/>
+    <col min="383" max="383" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="384" max="384" width="10" bestFit="1" customWidth="1"/>
-    <col min="385" max="385" width="15.40625" bestFit="1" customWidth="1"/>
+    <col min="385" max="385" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="386" max="386" width="10" bestFit="1" customWidth="1"/>
-    <col min="387" max="387" width="15.40625" bestFit="1" customWidth="1"/>
+    <col min="387" max="387" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="388" max="388" width="10" bestFit="1" customWidth="1"/>
-    <col min="389" max="389" width="15.40625" bestFit="1" customWidth="1"/>
+    <col min="389" max="389" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="390" max="390" width="10" bestFit="1" customWidth="1"/>
-    <col min="391" max="391" width="15.40625" bestFit="1" customWidth="1"/>
+    <col min="391" max="391" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="392" max="392" width="10" bestFit="1" customWidth="1"/>
-    <col min="393" max="393" width="15.40625" bestFit="1" customWidth="1"/>
+    <col min="393" max="393" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="394" max="394" width="10" bestFit="1" customWidth="1"/>
-    <col min="395" max="395" width="15.40625" bestFit="1" customWidth="1"/>
+    <col min="395" max="395" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="396" max="396" width="10" bestFit="1" customWidth="1"/>
-    <col min="397" max="397" width="15.40625" bestFit="1" customWidth="1"/>
+    <col min="397" max="397" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="398" max="398" width="10" bestFit="1" customWidth="1"/>
-    <col min="399" max="399" width="15.40625" bestFit="1" customWidth="1"/>
+    <col min="399" max="399" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="400" max="400" width="10" bestFit="1" customWidth="1"/>
-    <col min="401" max="401" width="15.40625" bestFit="1" customWidth="1"/>
+    <col min="401" max="401" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="402" max="402" width="10" bestFit="1" customWidth="1"/>
-    <col min="403" max="403" width="15.40625" bestFit="1" customWidth="1"/>
+    <col min="403" max="403" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="404" max="404" width="10" bestFit="1" customWidth="1"/>
-    <col min="405" max="405" width="15.40625" bestFit="1" customWidth="1"/>
+    <col min="405" max="405" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="406" max="406" width="10" bestFit="1" customWidth="1"/>
-    <col min="407" max="407" width="15.40625" bestFit="1" customWidth="1"/>
+    <col min="407" max="407" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="408" max="408" width="10" bestFit="1" customWidth="1"/>
-    <col min="409" max="409" width="15.40625" bestFit="1" customWidth="1"/>
+    <col min="409" max="409" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="410" max="410" width="10" bestFit="1" customWidth="1"/>
-    <col min="411" max="411" width="15.40625" bestFit="1" customWidth="1"/>
+    <col min="411" max="411" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="412" max="412" width="10" bestFit="1" customWidth="1"/>
-    <col min="413" max="413" width="15.40625" bestFit="1" customWidth="1"/>
+    <col min="413" max="413" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="414" max="414" width="10" bestFit="1" customWidth="1"/>
-    <col min="415" max="415" width="15.40625" bestFit="1" customWidth="1"/>
+    <col min="415" max="415" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="416" max="416" width="10" bestFit="1" customWidth="1"/>
-    <col min="417" max="417" width="15.40625" bestFit="1" customWidth="1"/>
+    <col min="417" max="417" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="418" max="418" width="10" bestFit="1" customWidth="1"/>
-    <col min="419" max="419" width="15.40625" bestFit="1" customWidth="1"/>
+    <col min="419" max="419" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="420" max="420" width="10" bestFit="1" customWidth="1"/>
-    <col min="421" max="421" width="15.40625" bestFit="1" customWidth="1"/>
+    <col min="421" max="421" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="422" max="422" width="10" bestFit="1" customWidth="1"/>
-    <col min="423" max="423" width="15.40625" bestFit="1" customWidth="1"/>
+    <col min="423" max="423" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="424" max="424" width="10" bestFit="1" customWidth="1"/>
-    <col min="425" max="425" width="15.40625" bestFit="1" customWidth="1"/>
+    <col min="425" max="425" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="426" max="426" width="10" bestFit="1" customWidth="1"/>
-    <col min="427" max="427" width="15.40625" bestFit="1" customWidth="1"/>
+    <col min="427" max="427" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="428" max="428" width="10" bestFit="1" customWidth="1"/>
-    <col min="429" max="429" width="15.40625" bestFit="1" customWidth="1"/>
+    <col min="429" max="429" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="430" max="430" width="10" bestFit="1" customWidth="1"/>
-    <col min="431" max="431" width="15.40625" bestFit="1" customWidth="1"/>
+    <col min="431" max="431" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="432" max="432" width="10" bestFit="1" customWidth="1"/>
-    <col min="433" max="433" width="15.40625" bestFit="1" customWidth="1"/>
+    <col min="433" max="433" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="434" max="434" width="10" bestFit="1" customWidth="1"/>
-    <col min="435" max="435" width="15.40625" bestFit="1" customWidth="1"/>
+    <col min="435" max="435" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="436" max="436" width="10" bestFit="1" customWidth="1"/>
-    <col min="437" max="437" width="15.40625" bestFit="1" customWidth="1"/>
+    <col min="437" max="437" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="438" max="438" width="10" bestFit="1" customWidth="1"/>
-    <col min="439" max="439" width="15.40625" bestFit="1" customWidth="1"/>
+    <col min="439" max="439" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="440" max="440" width="10" bestFit="1" customWidth="1"/>
-    <col min="441" max="441" width="15.40625" bestFit="1" customWidth="1"/>
+    <col min="441" max="441" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="442" max="442" width="10" bestFit="1" customWidth="1"/>
-    <col min="443" max="443" width="15.40625" bestFit="1" customWidth="1"/>
+    <col min="443" max="443" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="444" max="444" width="10" bestFit="1" customWidth="1"/>
-    <col min="445" max="445" width="15.40625" bestFit="1" customWidth="1"/>
+    <col min="445" max="445" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="446" max="446" width="10" bestFit="1" customWidth="1"/>
-    <col min="447" max="447" width="15.40625" bestFit="1" customWidth="1"/>
+    <col min="447" max="447" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="448" max="448" width="10" bestFit="1" customWidth="1"/>
-    <col min="449" max="449" width="15.40625" bestFit="1" customWidth="1"/>
+    <col min="449" max="449" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="450" max="450" width="10" bestFit="1" customWidth="1"/>
-    <col min="451" max="451" width="15.40625" bestFit="1" customWidth="1"/>
+    <col min="451" max="451" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="452" max="452" width="10" bestFit="1" customWidth="1"/>
-    <col min="453" max="453" width="15.40625" bestFit="1" customWidth="1"/>
+    <col min="453" max="453" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="454" max="454" width="10" bestFit="1" customWidth="1"/>
-    <col min="455" max="455" width="15.40625" bestFit="1" customWidth="1"/>
+    <col min="455" max="455" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="456" max="456" width="10" bestFit="1" customWidth="1"/>
-    <col min="457" max="457" width="15.40625" bestFit="1" customWidth="1"/>
+    <col min="457" max="457" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="458" max="458" width="10" bestFit="1" customWidth="1"/>
-    <col min="459" max="459" width="15.40625" bestFit="1" customWidth="1"/>
+    <col min="459" max="459" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="460" max="460" width="10" bestFit="1" customWidth="1"/>
-    <col min="461" max="461" width="15.40625" bestFit="1" customWidth="1"/>
+    <col min="461" max="461" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="462" max="462" width="10" bestFit="1" customWidth="1"/>
-    <col min="463" max="463" width="15.40625" bestFit="1" customWidth="1"/>
+    <col min="463" max="463" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="464" max="464" width="10" bestFit="1" customWidth="1"/>
-    <col min="465" max="465" width="15.40625" bestFit="1" customWidth="1"/>
+    <col min="465" max="465" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="466" max="466" width="10" bestFit="1" customWidth="1"/>
-    <col min="467" max="467" width="15.40625" bestFit="1" customWidth="1"/>
+    <col min="467" max="467" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="468" max="468" width="10" bestFit="1" customWidth="1"/>
-    <col min="469" max="469" width="15.40625" bestFit="1" customWidth="1"/>
+    <col min="469" max="469" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="470" max="470" width="10" bestFit="1" customWidth="1"/>
-    <col min="471" max="471" width="15.40625" bestFit="1" customWidth="1"/>
+    <col min="471" max="471" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="472" max="472" width="10" bestFit="1" customWidth="1"/>
-    <col min="473" max="473" width="15.40625" bestFit="1" customWidth="1"/>
+    <col min="473" max="473" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="474" max="474" width="10" bestFit="1" customWidth="1"/>
-    <col min="475" max="475" width="15.40625" bestFit="1" customWidth="1"/>
+    <col min="475" max="475" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="476" max="476" width="10" bestFit="1" customWidth="1"/>
-    <col min="477" max="477" width="15.40625" bestFit="1" customWidth="1"/>
+    <col min="477" max="477" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="478" max="478" width="10" bestFit="1" customWidth="1"/>
-    <col min="479" max="479" width="15.40625" bestFit="1" customWidth="1"/>
+    <col min="479" max="479" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="480" max="480" width="10" bestFit="1" customWidth="1"/>
-    <col min="481" max="481" width="15.40625" bestFit="1" customWidth="1"/>
+    <col min="481" max="481" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="482" max="482" width="10" bestFit="1" customWidth="1"/>
-    <col min="483" max="483" width="15.40625" bestFit="1" customWidth="1"/>
+    <col min="483" max="483" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="484" max="484" width="10" bestFit="1" customWidth="1"/>
-    <col min="485" max="485" width="15.40625" bestFit="1" customWidth="1"/>
+    <col min="485" max="485" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="486" max="486" width="10" bestFit="1" customWidth="1"/>
-    <col min="487" max="487" width="15.40625" bestFit="1" customWidth="1"/>
+    <col min="487" max="487" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="488" max="488" width="10" bestFit="1" customWidth="1"/>
-    <col min="489" max="489" width="15.40625" bestFit="1" customWidth="1"/>
+    <col min="489" max="489" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="490" max="490" width="10" bestFit="1" customWidth="1"/>
-    <col min="491" max="491" width="15.40625" bestFit="1" customWidth="1"/>
+    <col min="491" max="491" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="492" max="492" width="10" bestFit="1" customWidth="1"/>
-    <col min="493" max="493" width="15.40625" bestFit="1" customWidth="1"/>
+    <col min="493" max="493" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="494" max="494" width="10" bestFit="1" customWidth="1"/>
-    <col min="495" max="495" width="15.40625" bestFit="1" customWidth="1"/>
+    <col min="495" max="495" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="496" max="496" width="10" bestFit="1" customWidth="1"/>
-    <col min="497" max="497" width="15.40625" bestFit="1" customWidth="1"/>
+    <col min="497" max="497" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="498" max="498" width="10" bestFit="1" customWidth="1"/>
-    <col min="499" max="499" width="15.40625" bestFit="1" customWidth="1"/>
+    <col min="499" max="499" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="500" max="500" width="10" bestFit="1" customWidth="1"/>
-    <col min="501" max="501" width="15.40625" bestFit="1" customWidth="1"/>
+    <col min="501" max="501" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="502" max="502" width="10" bestFit="1" customWidth="1"/>
-    <col min="503" max="503" width="15.40625" bestFit="1" customWidth="1"/>
+    <col min="503" max="503" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="504" max="504" width="10" bestFit="1" customWidth="1"/>
-    <col min="505" max="505" width="15.40625" bestFit="1" customWidth="1"/>
+    <col min="505" max="505" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="506" max="506" width="10" bestFit="1" customWidth="1"/>
-    <col min="507" max="507" width="15.40625" bestFit="1" customWidth="1"/>
+    <col min="507" max="507" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="508" max="508" width="10" bestFit="1" customWidth="1"/>
-    <col min="509" max="509" width="15.40625" bestFit="1" customWidth="1"/>
+    <col min="509" max="509" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="510" max="510" width="10" bestFit="1" customWidth="1"/>
-    <col min="511" max="511" width="15.40625" bestFit="1" customWidth="1"/>
+    <col min="511" max="511" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="512" max="512" width="10" bestFit="1" customWidth="1"/>
-    <col min="513" max="513" width="15.40625" bestFit="1" customWidth="1"/>
+    <col min="513" max="513" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="514" max="514" width="10" bestFit="1" customWidth="1"/>
-    <col min="515" max="515" width="15.40625" bestFit="1" customWidth="1"/>
+    <col min="515" max="515" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="516" max="516" width="10" bestFit="1" customWidth="1"/>
-    <col min="517" max="517" width="15.40625" bestFit="1" customWidth="1"/>
+    <col min="517" max="517" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="518" max="518" width="10" bestFit="1" customWidth="1"/>
-    <col min="519" max="519" width="15.40625" bestFit="1" customWidth="1"/>
+    <col min="519" max="519" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="520" max="520" width="10" bestFit="1" customWidth="1"/>
-    <col min="521" max="521" width="15.40625" bestFit="1" customWidth="1"/>
+    <col min="521" max="521" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="522" max="522" width="10" bestFit="1" customWidth="1"/>
-    <col min="523" max="523" width="15.40625" bestFit="1" customWidth="1"/>
+    <col min="523" max="523" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="524" max="524" width="10" bestFit="1" customWidth="1"/>
-    <col min="525" max="525" width="15.40625" bestFit="1" customWidth="1"/>
+    <col min="525" max="525" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="526" max="526" width="10" bestFit="1" customWidth="1"/>
-    <col min="527" max="527" width="15.40625" bestFit="1" customWidth="1"/>
+    <col min="527" max="527" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="528" max="528" width="10" bestFit="1" customWidth="1"/>
-    <col min="529" max="529" width="15.40625" bestFit="1" customWidth="1"/>
+    <col min="529" max="529" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="530" max="530" width="10" bestFit="1" customWidth="1"/>
-    <col min="531" max="531" width="15.40625" bestFit="1" customWidth="1"/>
+    <col min="531" max="531" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="532" max="532" width="10" bestFit="1" customWidth="1"/>
-    <col min="533" max="533" width="15.40625" bestFit="1" customWidth="1"/>
+    <col min="533" max="533" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="534" max="534" width="10" bestFit="1" customWidth="1"/>
-    <col min="535" max="535" width="15.40625" bestFit="1" customWidth="1"/>
+    <col min="535" max="535" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="536" max="536" width="10" bestFit="1" customWidth="1"/>
-    <col min="537" max="537" width="15.40625" bestFit="1" customWidth="1"/>
+    <col min="537" max="537" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="538" max="538" width="10" bestFit="1" customWidth="1"/>
-    <col min="539" max="539" width="15.40625" bestFit="1" customWidth="1"/>
+    <col min="539" max="539" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="540" max="540" width="10" bestFit="1" customWidth="1"/>
-    <col min="541" max="541" width="15.40625" bestFit="1" customWidth="1"/>
+    <col min="541" max="541" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="542" max="542" width="10" bestFit="1" customWidth="1"/>
-    <col min="543" max="543" width="15.40625" bestFit="1" customWidth="1"/>
+    <col min="543" max="543" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="544" max="544" width="10" bestFit="1" customWidth="1"/>
-    <col min="545" max="545" width="15.40625" bestFit="1" customWidth="1"/>
+    <col min="545" max="545" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="546" max="546" width="10" bestFit="1" customWidth="1"/>
-    <col min="547" max="547" width="15.40625" bestFit="1" customWidth="1"/>
+    <col min="547" max="547" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="548" max="548" width="10" bestFit="1" customWidth="1"/>
-    <col min="549" max="549" width="15.40625" bestFit="1" customWidth="1"/>
+    <col min="549" max="549" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="550" max="550" width="10" bestFit="1" customWidth="1"/>
-    <col min="551" max="551" width="15.40625" bestFit="1" customWidth="1"/>
+    <col min="551" max="551" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="552" max="552" width="10" bestFit="1" customWidth="1"/>
-    <col min="553" max="553" width="15.40625" bestFit="1" customWidth="1"/>
+    <col min="553" max="553" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="554" max="554" width="10" bestFit="1" customWidth="1"/>
-    <col min="555" max="555" width="15.40625" bestFit="1" customWidth="1"/>
+    <col min="555" max="555" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="556" max="556" width="10" bestFit="1" customWidth="1"/>
-    <col min="557" max="557" width="15.40625" bestFit="1" customWidth="1"/>
+    <col min="557" max="557" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="558" max="558" width="10" bestFit="1" customWidth="1"/>
-    <col min="559" max="559" width="15.40625" bestFit="1" customWidth="1"/>
+    <col min="559" max="559" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="560" max="560" width="10" bestFit="1" customWidth="1"/>
-    <col min="561" max="561" width="15.40625" bestFit="1" customWidth="1"/>
+    <col min="561" max="561" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="562" max="562" width="10" bestFit="1" customWidth="1"/>
-    <col min="563" max="563" width="15.40625" bestFit="1" customWidth="1"/>
+    <col min="563" max="563" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="564" max="564" width="10" bestFit="1" customWidth="1"/>
-    <col min="565" max="565" width="15.40625" bestFit="1" customWidth="1"/>
+    <col min="565" max="565" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="566" max="566" width="10" bestFit="1" customWidth="1"/>
-    <col min="567" max="567" width="15.40625" bestFit="1" customWidth="1"/>
+    <col min="567" max="567" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="568" max="568" width="10" bestFit="1" customWidth="1"/>
-    <col min="569" max="569" width="15.40625" bestFit="1" customWidth="1"/>
+    <col min="569" max="569" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="570" max="570" width="10" bestFit="1" customWidth="1"/>
-    <col min="571" max="571" width="15.40625" bestFit="1" customWidth="1"/>
+    <col min="571" max="571" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="572" max="572" width="10" bestFit="1" customWidth="1"/>
-    <col min="573" max="573" width="15.40625" bestFit="1" customWidth="1"/>
+    <col min="573" max="573" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="574" max="574" width="10" bestFit="1" customWidth="1"/>
-    <col min="575" max="575" width="15.40625" bestFit="1" customWidth="1"/>
+    <col min="575" max="575" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="576" max="576" width="10" bestFit="1" customWidth="1"/>
-    <col min="577" max="577" width="15.40625" bestFit="1" customWidth="1"/>
+    <col min="577" max="577" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="578" max="578" width="10" bestFit="1" customWidth="1"/>
-    <col min="579" max="579" width="15.40625" bestFit="1" customWidth="1"/>
+    <col min="579" max="579" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="580" max="580" width="10" bestFit="1" customWidth="1"/>
-    <col min="581" max="581" width="15.40625" bestFit="1" customWidth="1"/>
+    <col min="581" max="581" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="582" max="582" width="10" bestFit="1" customWidth="1"/>
-    <col min="583" max="583" width="15.40625" bestFit="1" customWidth="1"/>
+    <col min="583" max="583" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="584" max="584" width="10" bestFit="1" customWidth="1"/>
-    <col min="585" max="585" width="15.40625" bestFit="1" customWidth="1"/>
+    <col min="585" max="585" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="586" max="586" width="10" bestFit="1" customWidth="1"/>
-    <col min="587" max="587" width="15.40625" bestFit="1" customWidth="1"/>
+    <col min="587" max="587" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="588" max="588" width="10" bestFit="1" customWidth="1"/>
-    <col min="589" max="589" width="15.40625" bestFit="1" customWidth="1"/>
+    <col min="589" max="589" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="590" max="590" width="10" bestFit="1" customWidth="1"/>
-    <col min="591" max="591" width="15.40625" bestFit="1" customWidth="1"/>
+    <col min="591" max="591" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="592" max="592" width="10" bestFit="1" customWidth="1"/>
-    <col min="593" max="593" width="15.40625" bestFit="1" customWidth="1"/>
+    <col min="593" max="593" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="594" max="594" width="10" bestFit="1" customWidth="1"/>
-    <col min="595" max="595" width="15.40625" bestFit="1" customWidth="1"/>
+    <col min="595" max="595" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="596" max="596" width="10" bestFit="1" customWidth="1"/>
-    <col min="597" max="597" width="15.40625" bestFit="1" customWidth="1"/>
+    <col min="597" max="597" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="598" max="598" width="10" bestFit="1" customWidth="1"/>
-    <col min="599" max="599" width="15.40625" bestFit="1" customWidth="1"/>
+    <col min="599" max="599" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="600" max="600" width="10" bestFit="1" customWidth="1"/>
-    <col min="601" max="601" width="15.40625" bestFit="1" customWidth="1"/>
+    <col min="601" max="601" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="602" max="602" width="10" bestFit="1" customWidth="1"/>
-    <col min="603" max="603" width="15.40625" bestFit="1" customWidth="1"/>
+    <col min="603" max="603" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="604" max="604" width="10" bestFit="1" customWidth="1"/>
-    <col min="605" max="605" width="15.40625" bestFit="1" customWidth="1"/>
+    <col min="605" max="605" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="606" max="606" width="10" bestFit="1" customWidth="1"/>
-    <col min="607" max="607" width="15.40625" bestFit="1" customWidth="1"/>
+    <col min="607" max="607" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="608" max="608" width="10" bestFit="1" customWidth="1"/>
-    <col min="609" max="609" width="15.40625" bestFit="1" customWidth="1"/>
+    <col min="609" max="609" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="610" max="610" width="10" bestFit="1" customWidth="1"/>
-    <col min="611" max="611" width="15.40625" bestFit="1" customWidth="1"/>
+    <col min="611" max="611" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="612" max="612" width="10" bestFit="1" customWidth="1"/>
-    <col min="613" max="613" width="15.40625" bestFit="1" customWidth="1"/>
+    <col min="613" max="613" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="614" max="614" width="10" bestFit="1" customWidth="1"/>
-    <col min="615" max="615" width="15.40625" bestFit="1" customWidth="1"/>
+    <col min="615" max="615" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="616" max="616" width="10" bestFit="1" customWidth="1"/>
-    <col min="617" max="617" width="15.40625" bestFit="1" customWidth="1"/>
+    <col min="617" max="617" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="618" max="618" width="10" bestFit="1" customWidth="1"/>
-    <col min="619" max="619" width="15.40625" bestFit="1" customWidth="1"/>
+    <col min="619" max="619" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="620" max="620" width="10" bestFit="1" customWidth="1"/>
-    <col min="621" max="621" width="15.40625" bestFit="1" customWidth="1"/>
+    <col min="621" max="621" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="622" max="622" width="10" bestFit="1" customWidth="1"/>
-    <col min="623" max="623" width="15.40625" bestFit="1" customWidth="1"/>
+    <col min="623" max="623" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="624" max="624" width="10" bestFit="1" customWidth="1"/>
-    <col min="625" max="625" width="15.40625" bestFit="1" customWidth="1"/>
+    <col min="625" max="625" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="626" max="626" width="10" bestFit="1" customWidth="1"/>
-    <col min="627" max="627" width="15.40625" bestFit="1" customWidth="1"/>
+    <col min="627" max="627" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="628" max="628" width="10" bestFit="1" customWidth="1"/>
-    <col min="629" max="629" width="15.40625" bestFit="1" customWidth="1"/>
+    <col min="629" max="629" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="630" max="630" width="10" bestFit="1" customWidth="1"/>
-    <col min="631" max="631" width="15.40625" bestFit="1" customWidth="1"/>
+    <col min="631" max="631" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="632" max="632" width="10" bestFit="1" customWidth="1"/>
-    <col min="633" max="633" width="15.40625" bestFit="1" customWidth="1"/>
+    <col min="633" max="633" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="634" max="634" width="10" bestFit="1" customWidth="1"/>
-    <col min="635" max="635" width="15.40625" bestFit="1" customWidth="1"/>
+    <col min="635" max="635" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="636" max="636" width="10" bestFit="1" customWidth="1"/>
-    <col min="637" max="637" width="15.40625" bestFit="1" customWidth="1"/>
+    <col min="637" max="637" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="638" max="638" width="10" bestFit="1" customWidth="1"/>
-    <col min="639" max="639" width="15.40625" bestFit="1" customWidth="1"/>
+    <col min="639" max="639" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="640" max="640" width="10" bestFit="1" customWidth="1"/>
-    <col min="641" max="641" width="15.40625" bestFit="1" customWidth="1"/>
+    <col min="641" max="641" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="642" max="642" width="10" bestFit="1" customWidth="1"/>
-    <col min="643" max="643" width="15.40625" bestFit="1" customWidth="1"/>
+    <col min="643" max="643" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="644" max="644" width="10" bestFit="1" customWidth="1"/>
-    <col min="645" max="645" width="15.40625" bestFit="1" customWidth="1"/>
+    <col min="645" max="645" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="646" max="646" width="10" bestFit="1" customWidth="1"/>
-    <col min="647" max="647" width="15.40625" bestFit="1" customWidth="1"/>
+    <col min="647" max="647" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="648" max="648" width="10" bestFit="1" customWidth="1"/>
-    <col min="649" max="649" width="15.40625" bestFit="1" customWidth="1"/>
+    <col min="649" max="649" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="650" max="650" width="10" bestFit="1" customWidth="1"/>
-    <col min="651" max="651" width="15.40625" bestFit="1" customWidth="1"/>
-    <col min="652" max="652" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="651" max="651" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="652" max="652" width="11.5" bestFit="1" customWidth="1"/>
     <col min="653" max="653" width="10" bestFit="1" customWidth="1"/>
-    <col min="654" max="655" width="15.40625" bestFit="1" customWidth="1"/>
+    <col min="654" max="655" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="656" max="656" width="10" bestFit="1" customWidth="1"/>
-    <col min="657" max="658" width="15.40625" bestFit="1" customWidth="1"/>
+    <col min="657" max="658" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="659" max="659" width="10" bestFit="1" customWidth="1"/>
-    <col min="660" max="661" width="15.40625" bestFit="1" customWidth="1"/>
+    <col min="660" max="661" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="662" max="662" width="10" bestFit="1" customWidth="1"/>
-    <col min="663" max="663" width="13.90625" bestFit="1" customWidth="1"/>
-    <col min="664" max="664" width="15.40625" bestFit="1" customWidth="1"/>
+    <col min="663" max="663" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="664" max="664" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="665" max="665" width="10" bestFit="1" customWidth="1"/>
-    <col min="666" max="667" width="15.40625" bestFit="1" customWidth="1"/>
+    <col min="666" max="667" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="668" max="668" width="10" bestFit="1" customWidth="1"/>
-    <col min="669" max="669" width="13.90625" bestFit="1" customWidth="1"/>
-    <col min="670" max="670" width="15.40625" bestFit="1" customWidth="1"/>
+    <col min="669" max="669" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="670" max="670" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="671" max="671" width="10" bestFit="1" customWidth="1"/>
-    <col min="672" max="673" width="15.40625" bestFit="1" customWidth="1"/>
+    <col min="672" max="673" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="674" max="674" width="10" bestFit="1" customWidth="1"/>
-    <col min="675" max="676" width="15.40625" bestFit="1" customWidth="1"/>
+    <col min="675" max="676" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="677" max="677" width="10" bestFit="1" customWidth="1"/>
-    <col min="678" max="679" width="15.40625" bestFit="1" customWidth="1"/>
+    <col min="678" max="679" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="680" max="680" width="10" bestFit="1" customWidth="1"/>
-    <col min="681" max="682" width="15.40625" bestFit="1" customWidth="1"/>
+    <col min="681" max="682" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="683" max="683" width="10" bestFit="1" customWidth="1"/>
-    <col min="684" max="685" width="15.40625" bestFit="1" customWidth="1"/>
+    <col min="684" max="685" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="686" max="686" width="10" bestFit="1" customWidth="1"/>
-    <col min="687" max="688" width="15.40625" bestFit="1" customWidth="1"/>
+    <col min="687" max="688" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="689" max="689" width="10" bestFit="1" customWidth="1"/>
-    <col min="690" max="691" width="15.40625" bestFit="1" customWidth="1"/>
+    <col min="690" max="691" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="692" max="692" width="10" bestFit="1" customWidth="1"/>
-    <col min="693" max="694" width="15.40625" bestFit="1" customWidth="1"/>
+    <col min="693" max="694" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="695" max="695" width="10" bestFit="1" customWidth="1"/>
-    <col min="696" max="697" width="15.40625" bestFit="1" customWidth="1"/>
+    <col min="696" max="697" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="698" max="698" width="10" bestFit="1" customWidth="1"/>
-    <col min="699" max="699" width="13.90625" bestFit="1" customWidth="1"/>
-    <col min="700" max="700" width="15.40625" bestFit="1" customWidth="1"/>
+    <col min="699" max="699" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="700" max="700" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="701" max="701" width="10" bestFit="1" customWidth="1"/>
-    <col min="702" max="702" width="13.90625" bestFit="1" customWidth="1"/>
-    <col min="703" max="703" width="15.40625" bestFit="1" customWidth="1"/>
+    <col min="702" max="702" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="703" max="703" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="704" max="704" width="10" bestFit="1" customWidth="1"/>
-    <col min="705" max="706" width="15.40625" bestFit="1" customWidth="1"/>
+    <col min="705" max="706" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="707" max="707" width="10" bestFit="1" customWidth="1"/>
-    <col min="708" max="709" width="15.40625" bestFit="1" customWidth="1"/>
+    <col min="708" max="709" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="710" max="710" width="10" bestFit="1" customWidth="1"/>
-    <col min="711" max="712" width="15.40625" bestFit="1" customWidth="1"/>
+    <col min="711" max="712" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="713" max="713" width="10" bestFit="1" customWidth="1"/>
-    <col min="714" max="715" width="15.40625" bestFit="1" customWidth="1"/>
+    <col min="714" max="715" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="716" max="716" width="10" bestFit="1" customWidth="1"/>
-    <col min="717" max="718" width="15.40625" bestFit="1" customWidth="1"/>
+    <col min="717" max="718" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="719" max="719" width="10" bestFit="1" customWidth="1"/>
-    <col min="720" max="721" width="15.40625" bestFit="1" customWidth="1"/>
+    <col min="720" max="721" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="722" max="722" width="10" bestFit="1" customWidth="1"/>
-    <col min="723" max="724" width="15.40625" bestFit="1" customWidth="1"/>
+    <col min="723" max="724" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="725" max="725" width="10" bestFit="1" customWidth="1"/>
-    <col min="726" max="726" width="13.90625" bestFit="1" customWidth="1"/>
-    <col min="727" max="727" width="15.40625" bestFit="1" customWidth="1"/>
+    <col min="726" max="726" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="727" max="727" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="728" max="728" width="10" bestFit="1" customWidth="1"/>
-    <col min="729" max="730" width="15.40625" bestFit="1" customWidth="1"/>
+    <col min="729" max="730" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="731" max="731" width="10" bestFit="1" customWidth="1"/>
-    <col min="732" max="733" width="15.40625" bestFit="1" customWidth="1"/>
+    <col min="732" max="733" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="734" max="734" width="10" bestFit="1" customWidth="1"/>
-    <col min="735" max="735" width="13.90625" bestFit="1" customWidth="1"/>
-    <col min="736" max="736" width="15.40625" bestFit="1" customWidth="1"/>
+    <col min="735" max="735" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="736" max="736" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="737" max="737" width="10" bestFit="1" customWidth="1"/>
-    <col min="738" max="739" width="15.40625" bestFit="1" customWidth="1"/>
+    <col min="738" max="739" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="740" max="740" width="10" bestFit="1" customWidth="1"/>
-    <col min="741" max="742" width="15.40625" bestFit="1" customWidth="1"/>
+    <col min="741" max="742" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="743" max="743" width="10" bestFit="1" customWidth="1"/>
-    <col min="744" max="745" width="15.40625" bestFit="1" customWidth="1"/>
+    <col min="744" max="745" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="746" max="746" width="10" bestFit="1" customWidth="1"/>
-    <col min="747" max="747" width="13.90625" bestFit="1" customWidth="1"/>
-    <col min="748" max="748" width="15.40625" bestFit="1" customWidth="1"/>
+    <col min="747" max="747" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="748" max="748" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="749" max="749" width="10" bestFit="1" customWidth="1"/>
-    <col min="750" max="750" width="13.90625" bestFit="1" customWidth="1"/>
-    <col min="751" max="751" width="15.40625" bestFit="1" customWidth="1"/>
+    <col min="750" max="750" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="751" max="751" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="752" max="752" width="10" bestFit="1" customWidth="1"/>
-    <col min="753" max="754" width="15.40625" bestFit="1" customWidth="1"/>
+    <col min="753" max="754" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="755" max="755" width="10" bestFit="1" customWidth="1"/>
-    <col min="756" max="756" width="13.90625" bestFit="1" customWidth="1"/>
-    <col min="757" max="757" width="15.40625" bestFit="1" customWidth="1"/>
+    <col min="756" max="756" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="757" max="757" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="758" max="758" width="10" bestFit="1" customWidth="1"/>
-    <col min="759" max="760" width="15.40625" bestFit="1" customWidth="1"/>
+    <col min="759" max="760" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="761" max="761" width="10" bestFit="1" customWidth="1"/>
-    <col min="762" max="763" width="15.40625" bestFit="1" customWidth="1"/>
+    <col min="762" max="763" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="764" max="764" width="10" bestFit="1" customWidth="1"/>
-    <col min="765" max="766" width="15.40625" bestFit="1" customWidth="1"/>
+    <col min="765" max="766" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="767" max="767" width="10" bestFit="1" customWidth="1"/>
-    <col min="768" max="768" width="13.90625" bestFit="1" customWidth="1"/>
-    <col min="769" max="769" width="15.40625" bestFit="1" customWidth="1"/>
+    <col min="768" max="768" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="769" max="769" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="770" max="770" width="10" bestFit="1" customWidth="1"/>
-    <col min="771" max="771" width="13.90625" bestFit="1" customWidth="1"/>
-    <col min="772" max="772" width="15.40625" bestFit="1" customWidth="1"/>
+    <col min="771" max="771" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="772" max="772" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="773" max="773" width="10" bestFit="1" customWidth="1"/>
-    <col min="774" max="775" width="15.40625" bestFit="1" customWidth="1"/>
+    <col min="774" max="775" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="776" max="776" width="10" bestFit="1" customWidth="1"/>
-    <col min="777" max="778" width="15.40625" bestFit="1" customWidth="1"/>
+    <col min="777" max="778" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="779" max="779" width="10" bestFit="1" customWidth="1"/>
-    <col min="780" max="781" width="15.40625" bestFit="1" customWidth="1"/>
+    <col min="780" max="781" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="782" max="782" width="10" bestFit="1" customWidth="1"/>
-    <col min="783" max="783" width="13.90625" bestFit="1" customWidth="1"/>
-    <col min="784" max="784" width="15.40625" bestFit="1" customWidth="1"/>
+    <col min="783" max="783" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="784" max="784" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="785" max="785" width="10" bestFit="1" customWidth="1"/>
-    <col min="786" max="787" width="15.40625" bestFit="1" customWidth="1"/>
+    <col min="786" max="787" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="788" max="788" width="10" bestFit="1" customWidth="1"/>
-    <col min="789" max="790" width="15.40625" bestFit="1" customWidth="1"/>
+    <col min="789" max="790" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="791" max="791" width="10" bestFit="1" customWidth="1"/>
-    <col min="792" max="793" width="15.40625" bestFit="1" customWidth="1"/>
+    <col min="792" max="793" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="794" max="794" width="10" bestFit="1" customWidth="1"/>
-    <col min="795" max="795" width="12.90625" bestFit="1" customWidth="1"/>
-    <col min="796" max="796" width="15.40625" bestFit="1" customWidth="1"/>
+    <col min="795" max="795" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="796" max="796" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="797" max="797" width="10" bestFit="1" customWidth="1"/>
-    <col min="798" max="798" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="799" max="799" width="15.40625" bestFit="1" customWidth="1"/>
+    <col min="798" max="798" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="799" max="799" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="800" max="800" width="10" bestFit="1" customWidth="1"/>
-    <col min="801" max="802" width="15.40625" bestFit="1" customWidth="1"/>
+    <col min="801" max="802" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="803" max="803" width="10" bestFit="1" customWidth="1"/>
-    <col min="804" max="805" width="15.40625" bestFit="1" customWidth="1"/>
+    <col min="804" max="805" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="806" max="806" width="10" bestFit="1" customWidth="1"/>
-    <col min="807" max="807" width="13.90625" bestFit="1" customWidth="1"/>
-    <col min="808" max="808" width="15.40625" bestFit="1" customWidth="1"/>
+    <col min="807" max="807" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="808" max="808" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="809" max="809" width="10" bestFit="1" customWidth="1"/>
-    <col min="810" max="810" width="13.90625" bestFit="1" customWidth="1"/>
-    <col min="811" max="811" width="15.40625" bestFit="1" customWidth="1"/>
+    <col min="810" max="810" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="811" max="811" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="812" max="812" width="10" bestFit="1" customWidth="1"/>
-    <col min="813" max="813" width="12.90625" bestFit="1" customWidth="1"/>
-    <col min="814" max="814" width="15.40625" bestFit="1" customWidth="1"/>
+    <col min="813" max="813" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="814" max="814" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="815" max="815" width="10" bestFit="1" customWidth="1"/>
-    <col min="816" max="817" width="15.40625" bestFit="1" customWidth="1"/>
+    <col min="816" max="817" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="818" max="818" width="10" bestFit="1" customWidth="1"/>
-    <col min="819" max="819" width="13.90625" bestFit="1" customWidth="1"/>
-    <col min="820" max="820" width="15.40625" bestFit="1" customWidth="1"/>
+    <col min="819" max="819" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="820" max="820" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="821" max="821" width="10" bestFit="1" customWidth="1"/>
-    <col min="822" max="823" width="15.40625" bestFit="1" customWidth="1"/>
+    <col min="822" max="823" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="824" max="824" width="10" bestFit="1" customWidth="1"/>
-    <col min="825" max="826" width="15.40625" bestFit="1" customWidth="1"/>
+    <col min="825" max="826" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="827" max="827" width="10" bestFit="1" customWidth="1"/>
-    <col min="828" max="829" width="15.40625" bestFit="1" customWidth="1"/>
+    <col min="828" max="829" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="830" max="830" width="10" bestFit="1" customWidth="1"/>
-    <col min="831" max="831" width="13.90625" bestFit="1" customWidth="1"/>
-    <col min="832" max="832" width="15.40625" bestFit="1" customWidth="1"/>
+    <col min="831" max="831" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="832" max="832" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="833" max="833" width="10" bestFit="1" customWidth="1"/>
-    <col min="834" max="835" width="15.40625" bestFit="1" customWidth="1"/>
+    <col min="834" max="835" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="836" max="836" width="10" bestFit="1" customWidth="1"/>
-    <col min="837" max="838" width="15.40625" bestFit="1" customWidth="1"/>
+    <col min="837" max="838" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="839" max="839" width="10" bestFit="1" customWidth="1"/>
-    <col min="840" max="841" width="15.40625" bestFit="1" customWidth="1"/>
+    <col min="840" max="841" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="842" max="842" width="10" bestFit="1" customWidth="1"/>
-    <col min="843" max="844" width="15.40625" bestFit="1" customWidth="1"/>
+    <col min="843" max="844" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="845" max="845" width="10" bestFit="1" customWidth="1"/>
-    <col min="846" max="847" width="15.40625" bestFit="1" customWidth="1"/>
+    <col min="846" max="847" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="848" max="848" width="10" bestFit="1" customWidth="1"/>
-    <col min="849" max="850" width="15.40625" bestFit="1" customWidth="1"/>
+    <col min="849" max="850" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="851" max="851" width="10" bestFit="1" customWidth="1"/>
-    <col min="852" max="852" width="13.90625" bestFit="1" customWidth="1"/>
-    <col min="853" max="853" width="15.40625" bestFit="1" customWidth="1"/>
+    <col min="852" max="852" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="853" max="853" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="854" max="854" width="10" bestFit="1" customWidth="1"/>
-    <col min="855" max="855" width="13.90625" bestFit="1" customWidth="1"/>
-    <col min="856" max="856" width="15.40625" bestFit="1" customWidth="1"/>
+    <col min="855" max="855" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="856" max="856" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="857" max="857" width="10" bestFit="1" customWidth="1"/>
-    <col min="858" max="859" width="15.40625" bestFit="1" customWidth="1"/>
+    <col min="858" max="859" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="860" max="860" width="10" bestFit="1" customWidth="1"/>
-    <col min="861" max="862" width="15.40625" bestFit="1" customWidth="1"/>
+    <col min="861" max="862" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="863" max="863" width="10" bestFit="1" customWidth="1"/>
-    <col min="864" max="865" width="15.40625" bestFit="1" customWidth="1"/>
+    <col min="864" max="865" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="866" max="866" width="10" bestFit="1" customWidth="1"/>
-    <col min="867" max="868" width="15.40625" bestFit="1" customWidth="1"/>
+    <col min="867" max="868" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="869" max="869" width="10" bestFit="1" customWidth="1"/>
-    <col min="870" max="871" width="15.40625" bestFit="1" customWidth="1"/>
+    <col min="870" max="871" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="872" max="872" width="10" bestFit="1" customWidth="1"/>
-    <col min="873" max="873" width="13.90625" bestFit="1" customWidth="1"/>
-    <col min="874" max="874" width="15.40625" bestFit="1" customWidth="1"/>
+    <col min="873" max="873" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="874" max="874" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="875" max="875" width="10" bestFit="1" customWidth="1"/>
-    <col min="876" max="876" width="13.90625" bestFit="1" customWidth="1"/>
-    <col min="877" max="877" width="15.40625" bestFit="1" customWidth="1"/>
+    <col min="876" max="876" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="877" max="877" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="878" max="878" width="10" bestFit="1" customWidth="1"/>
-    <col min="879" max="880" width="15.40625" bestFit="1" customWidth="1"/>
+    <col min="879" max="880" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="881" max="881" width="10" bestFit="1" customWidth="1"/>
-    <col min="882" max="883" width="15.40625" bestFit="1" customWidth="1"/>
+    <col min="882" max="883" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="884" max="884" width="10" bestFit="1" customWidth="1"/>
-    <col min="885" max="886" width="15.40625" bestFit="1" customWidth="1"/>
+    <col min="885" max="886" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="887" max="887" width="10" bestFit="1" customWidth="1"/>
-    <col min="888" max="889" width="15.40625" bestFit="1" customWidth="1"/>
+    <col min="888" max="889" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="890" max="890" width="10" bestFit="1" customWidth="1"/>
-    <col min="891" max="891" width="13.90625" bestFit="1" customWidth="1"/>
-    <col min="892" max="892" width="15.40625" bestFit="1" customWidth="1"/>
+    <col min="891" max="891" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="892" max="892" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="893" max="893" width="10" bestFit="1" customWidth="1"/>
-    <col min="894" max="894" width="12.90625" bestFit="1" customWidth="1"/>
-    <col min="895" max="895" width="15.40625" bestFit="1" customWidth="1"/>
+    <col min="894" max="894" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="895" max="895" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="896" max="896" width="10" bestFit="1" customWidth="1"/>
-    <col min="897" max="898" width="15.40625" bestFit="1" customWidth="1"/>
+    <col min="897" max="898" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="899" max="899" width="10" bestFit="1" customWidth="1"/>
-    <col min="900" max="901" width="15.40625" bestFit="1" customWidth="1"/>
+    <col min="900" max="901" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="902" max="902" width="10" bestFit="1" customWidth="1"/>
-    <col min="903" max="903" width="13.90625" bestFit="1" customWidth="1"/>
-    <col min="904" max="904" width="15.40625" bestFit="1" customWidth="1"/>
+    <col min="903" max="903" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="904" max="904" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="905" max="905" width="10" bestFit="1" customWidth="1"/>
-    <col min="906" max="907" width="15.40625" bestFit="1" customWidth="1"/>
+    <col min="906" max="907" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="908" max="908" width="10" bestFit="1" customWidth="1"/>
-    <col min="909" max="910" width="15.40625" bestFit="1" customWidth="1"/>
+    <col min="909" max="910" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="911" max="911" width="10" bestFit="1" customWidth="1"/>
-    <col min="912" max="913" width="15.40625" bestFit="1" customWidth="1"/>
+    <col min="912" max="913" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="914" max="914" width="10" bestFit="1" customWidth="1"/>
-    <col min="915" max="916" width="15.40625" bestFit="1" customWidth="1"/>
+    <col min="915" max="916" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="917" max="917" width="10" bestFit="1" customWidth="1"/>
-    <col min="918" max="919" width="15.40625" bestFit="1" customWidth="1"/>
+    <col min="918" max="919" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="920" max="920" width="10" bestFit="1" customWidth="1"/>
-    <col min="921" max="922" width="15.40625" bestFit="1" customWidth="1"/>
+    <col min="921" max="922" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="923" max="923" width="10" bestFit="1" customWidth="1"/>
-    <col min="924" max="925" width="15.40625" bestFit="1" customWidth="1"/>
+    <col min="924" max="925" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="926" max="926" width="10" bestFit="1" customWidth="1"/>
-    <col min="927" max="928" width="15.40625" bestFit="1" customWidth="1"/>
+    <col min="927" max="928" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="929" max="929" width="10" bestFit="1" customWidth="1"/>
-    <col min="930" max="931" width="15.40625" bestFit="1" customWidth="1"/>
+    <col min="930" max="931" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="932" max="932" width="10" bestFit="1" customWidth="1"/>
-    <col min="933" max="934" width="15.40625" bestFit="1" customWidth="1"/>
+    <col min="933" max="934" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="935" max="935" width="10" bestFit="1" customWidth="1"/>
-    <col min="936" max="937" width="15.40625" bestFit="1" customWidth="1"/>
+    <col min="936" max="937" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="938" max="938" width="10" bestFit="1" customWidth="1"/>
-    <col min="939" max="939" width="13.90625" bestFit="1" customWidth="1"/>
-    <col min="940" max="940" width="15.40625" bestFit="1" customWidth="1"/>
+    <col min="939" max="939" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="940" max="940" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="941" max="941" width="10" bestFit="1" customWidth="1"/>
-    <col min="942" max="943" width="15.40625" bestFit="1" customWidth="1"/>
+    <col min="942" max="943" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="944" max="944" width="10" bestFit="1" customWidth="1"/>
-    <col min="945" max="946" width="15.40625" bestFit="1" customWidth="1"/>
+    <col min="945" max="946" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="947" max="947" width="10" bestFit="1" customWidth="1"/>
-    <col min="948" max="949" width="15.40625" bestFit="1" customWidth="1"/>
+    <col min="948" max="949" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="950" max="950" width="10" bestFit="1" customWidth="1"/>
-    <col min="951" max="952" width="15.40625" bestFit="1" customWidth="1"/>
+    <col min="951" max="952" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="953" max="953" width="10" bestFit="1" customWidth="1"/>
-    <col min="954" max="955" width="15.40625" bestFit="1" customWidth="1"/>
+    <col min="954" max="955" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="956" max="956" width="10" bestFit="1" customWidth="1"/>
-    <col min="957" max="958" width="15.40625" bestFit="1" customWidth="1"/>
+    <col min="957" max="958" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="959" max="959" width="10" bestFit="1" customWidth="1"/>
-    <col min="960" max="961" width="15.40625" bestFit="1" customWidth="1"/>
+    <col min="960" max="961" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="962" max="962" width="10" bestFit="1" customWidth="1"/>
-    <col min="963" max="964" width="15.40625" bestFit="1" customWidth="1"/>
+    <col min="963" max="964" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="965" max="965" width="10" bestFit="1" customWidth="1"/>
-    <col min="966" max="967" width="15.40625" bestFit="1" customWidth="1"/>
+    <col min="966" max="967" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="968" max="968" width="10" bestFit="1" customWidth="1"/>
-    <col min="969" max="970" width="15.40625" bestFit="1" customWidth="1"/>
+    <col min="969" max="970" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="971" max="971" width="10" bestFit="1" customWidth="1"/>
-    <col min="972" max="973" width="15.40625" bestFit="1" customWidth="1"/>
-    <col min="974" max="974" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="972" max="973" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="974" max="974" width="11.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D3" s="8" t="s">
         <v>51</v>
       </c>
@@ -21912,7 +21912,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D4" t="s">
         <v>52</v>
       </c>
@@ -21920,7 +21920,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
         <v>0</v>
       </c>
@@ -22003,7 +22003,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -22086,7 +22086,7 @@
         <v>3006105.3295695009</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" t="s">
         <v>30</v>
       </c>
@@ -22163,7 +22163,7 @@
         <v>2575711.6843896708</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" t="s">
         <v>3</v>
       </c>
@@ -22240,7 +22240,7 @@
         <v>2428919.9158139955</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>10</v>
       </c>
@@ -22320,7 +22320,7 @@
         <v>1411359.1133958483</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" t="s">
         <v>31</v>
       </c>
@@ -22397,7 +22397,7 @@
         <v>2543984.9914208581</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" t="s">
         <v>33</v>
       </c>
@@ -22474,7 +22474,7 @@
         <v>2114050.8648336725</v>
       </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>11</v>
       </c>
@@ -22554,7 +22554,7 @@
         <v>184545.87364927024</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" t="s">
         <v>34</v>
       </c>
@@ -22631,7 +22631,7 @@
         <v>2622076.0266953497</v>
       </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.75">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" t="s">
         <v>35</v>
       </c>
@@ -22708,7 +22708,7 @@
         <v>2248278.4075997705</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.75">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>2</v>
       </c>
@@ -22791,7 +22791,7 @@
         <v>1308982.0698833251</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.75">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C16" t="s">
         <v>23</v>
       </c>
@@ -22868,7 +22868,7 @@
         <v>1886673.9769633117</v>
       </c>
     </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.75">
+    <row r="17" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C17" t="s">
         <v>24</v>
       </c>
@@ -22945,7 +22945,7 @@
         <v>67057.491275305947</v>
       </c>
     </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.75">
+    <row r="18" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>10</v>
       </c>
@@ -23025,7 +23025,7 @@
         <v>1325379.5134291137</v>
       </c>
     </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.75">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C19" t="s">
         <v>27</v>
       </c>
@@ -23102,7 +23102,7 @@
         <v>1776021.3414216849</v>
       </c>
     </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.75">
+    <row r="20" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C20" t="s">
         <v>26</v>
       </c>
@@ -23179,7 +23179,7 @@
         <v>1481107.9482850153</v>
       </c>
     </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.75">
+    <row r="21" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
         <v>11</v>
       </c>
@@ -23259,7 +23259,7 @@
         <v>2695140.2459332743</v>
       </c>
     </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.75">
+    <row r="22" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C22" t="s">
         <v>29</v>
       </c>
@@ -23336,7 +23336,7 @@
         <v>1297510.2001054245</v>
       </c>
     </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.75">
+    <row r="23" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C23" t="s">
         <v>28</v>
       </c>
@@ -23413,7 +23413,7 @@
         <v>864296.91544572928</v>
       </c>
     </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.75">
+    <row r="24" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>5</v>
       </c>
@@ -23496,7 +23496,7 @@
         <v>1358345.3695246819</v>
       </c>
     </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.75">
+    <row r="25" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C25" t="s">
         <v>16</v>
       </c>
@@ -23573,7 +23573,7 @@
         <v>797374.80273787456</v>
       </c>
     </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.75">
+    <row r="26" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C26" t="s">
         <v>17</v>
       </c>
@@ -23650,7 +23650,7 @@
         <v>1144689.7035132237</v>
       </c>
     </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.75">
+    <row r="27" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
         <v>10</v>
       </c>
@@ -23730,7 +23730,7 @@
         <v>702255.43823001208</v>
       </c>
     </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.75">
+    <row r="28" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C28" t="s">
         <v>18</v>
       </c>
@@ -23807,7 +23807,7 @@
         <v>945125.29042567383</v>
       </c>
     </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.75">
+    <row r="29" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C29" t="s">
         <v>20</v>
       </c>
@@ -23884,7 +23884,7 @@
         <v>1545807.7846253582</v>
       </c>
     </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.75">
+    <row r="30" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
         <v>11</v>
       </c>
@@ -23964,7 +23964,7 @@
         <v>1954069.3258143852</v>
       </c>
     </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.75">
+    <row r="31" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C31" t="s">
         <v>8</v>
       </c>
@@ -24041,7 +24041,7 @@
         <v>2048582.5194476738</v>
       </c>
     </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.75">
+    <row r="32" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C32" t="s">
         <v>21</v>
       </c>
